--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506D9396-2E0C-44E7-B7AE-7AEB31638145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CABFF04-9EBC-488E-9AA0-4E7687525B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,12 +109,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -140,10 +152,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -151,13 +173,13 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -177,9 +199,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -199,9 +221,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -221,64 +243,9 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -298,6 +265,28 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -307,18 +296,93 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -390,8 +454,26 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -429,19 +511,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H101" headerRowDxfId="20" dataDxfId="11">
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="12"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -449,17 +531,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I102" totalsRowShown="0">
   <autoFilter ref="A1:I102" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="31"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -467,15 +549,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G101" totalsRowShown="0">
   <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="28"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="6"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -483,11 +565,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="4"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -495,12 +577,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EABC1088-551B-494F-A583-48EB9585439F}" name="Table136" displayName="Table136" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5F7AC4B-1193-4131-8D79-734635551F00}" name="Username" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{85A74C6D-61E6-41DE-BCBB-C0C0EBDAA34F}" name="Names of Organization Units to Added" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A646B270-011B-4B1F-9C8D-0D5BDF099614}" name="Names of Organization Units to Remove" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D1A413BB-7C20-4FE2-A8C9-5F142AE2A801}" name="Result" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A5F7AC4B-1193-4131-8D79-734635551F00}" name="Username" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{85A74C6D-61E6-41DE-BCBB-C0C0EBDAA34F}" name="Names of Organization Units to Added" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A646B270-011B-4B1F-9C8D-0D5BDF099614}" name="Names of Organization Units to Remove" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{D1A413BB-7C20-4FE2-A8C9-5F142AE2A801}" name="Result" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -508,12 +590,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{631EA298-4FE7-47D8-8D13-FCC3B6B07AED}" name="Table1367" displayName="Table1367" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C2E9DC7-DF3F-4BA9-A1B6-C6F8F94D8C0D}" name="Username" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5FFFF6F2-7358-4804-9AA1-F4B9D8648416}" name="Names of Roles to Add" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8C2E9DC7-DF3F-4BA9-A1B6-C6F8F94D8C0D}" name="Username" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5FFFF6F2-7358-4804-9AA1-F4B9D8648416}" name="Names of Roles to Add" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{FB82486A-9543-4879-8AB8-ABA32D2DAA9F}" name="Names of Roles to Remove" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{C62F7EB5-ED71-4FB2-8602-5BB0C2D1FE4F}" name="Result" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -800,530 +882,1030 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="5"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="5"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="5"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="5"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="5"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="5"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="5"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="5"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="5"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="5"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="5"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="5"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="5"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="5"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="5"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="5"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="5"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="5"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="8"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1378,817 +1960,817 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
     </row>
     <row r="102" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2237,609 +2819,609 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="E3"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="E63" s="1"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="E64" s="1"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="E66" s="1"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="E67" s="1"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="G76" s="9"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="G77" s="9"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="G78" s="9"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="G79" s="9"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="G80" s="9"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="9"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="G82" s="9"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="G83" s="9"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="G84" s="9"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="G85" s="9"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="G86" s="9"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="G87" s="9"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="G88" s="9"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="G90" s="9"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="G91" s="9"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="G92" s="9"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="G93" s="9"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="G95" s="9"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="G96" s="9"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="G97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="E98" s="1"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="G98" s="9"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="G99" s="9"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="E100" s="1"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
+      <c r="G101" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2871,404 +3453,404 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C4" s="2"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C5" s="2"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C6" s="2"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C7" s="2"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="C45" s="10"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="C46" s="10"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="C47" s="10"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="C48" s="10"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="C49" s="1"/>
+      <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="C50" s="10"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="C51" s="10"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="C52" s="10"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="10"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="C54" s="10"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="10"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="C56" s="10"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="C59" s="10"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="C60" s="10"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="C62" s="10"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="C63" s="10"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="C65" s="10"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="C66" s="10"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="C67" s="10"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="C68" s="10"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
-      <c r="C69" s="1"/>
+      <c r="C69" s="10"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
-      <c r="C70" s="1"/>
+      <c r="C70" s="10"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
-      <c r="C72" s="1"/>
+      <c r="C72" s="10"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="C73" s="10"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="10"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
-      <c r="C75" s="1"/>
+      <c r="C75" s="10"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="C77" s="10"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="C78" s="10"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="C79" s="10"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="C80" s="10"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="C81" s="10"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="C82" s="10"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="10"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="C84" s="10"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
-      <c r="C89" s="1"/>
+      <c r="C89" s="10"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
-      <c r="C90" s="1"/>
+      <c r="C90" s="10"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="C91" s="10"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="C92" s="10"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="10"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="10"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="C96" s="10"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="C97" s="10"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
-      <c r="C98" s="1"/>
+      <c r="C98" s="10"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
-      <c r="C99" s="1"/>
+      <c r="C99" s="10"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
-      <c r="C100" s="1"/>
+      <c r="C100" s="10"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
-      <c r="C101" s="1"/>
+      <c r="C101" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3281,7 +3863,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7031C-1DA1-4746-8FCF-60328AEAA34D}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3304,27 +3886,309 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D2" s="3"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" s="3"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="3"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="3"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="3"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,7 +4201,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69554C7-8AF7-4003-81D4-9565ED46DE6E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3360,27 +4224,309 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D2" s="3"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D3" s="3"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D4" s="3"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D5" s="3"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D6" s="3"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D7" s="3"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="8"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="8"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="8"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="8"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="8"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="8"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="8"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="8"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D77" s="8"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="8"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81" s="8"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D82" s="8"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D83" s="8"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D84" s="8"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="8"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D86" s="8"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D87" s="8"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="8"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D90" s="8"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D91" s="8"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D92" s="8"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D93" s="8"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D94" s="8"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D95" s="8"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="8"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="8"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="8"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B8A2C-D95B-4D66-B632-DED97C80A50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B067DE-85E6-4806-B46E-4714386E1980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Edit" sheetId="5" r:id="rId3"/>
     <sheet name="Delete" sheetId="2" r:id="rId4"/>
     <sheet name="Add or Remove OUs" sheetId="6" r:id="rId5"/>
-    <sheet name="Add Or Remove Roles" sheetId="7" r:id="rId6"/>
+    <sheet name="Add or Remove Roles" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1123,48 +1123,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1394,10 +1352,21 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1424,6 +1393,37 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1438,17 +1438,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="28" dataDxfId="39" totalsRowDxfId="27" headerRowBorderDxfId="37" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="35" headerRowBorderDxfId="38" tableBorderDxfId="36">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B067DE-85E6-4806-B46E-4714386E1980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59F63E-E28C-4ACF-98ED-BBB051790669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Names of Roles to Remove</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -332,12 +335,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1438,17 +1486,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="35" headerRowBorderDxfId="38" tableBorderDxfId="36">
-  <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="33"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="37" headerRowBorderDxfId="40" tableBorderDxfId="38">
+  <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1458,15 +1507,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="26"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,13 +1525,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1492,9 +1541,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1504,10 +1553,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EABC1088-551B-494F-A583-48EB9585439F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5F7AC4B-1193-4131-8D79-734635551F00}" name="Username" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{85A74C6D-61E6-41DE-BCBB-C0C0EBDAA34F}" name="Names of Organization Units to Added" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{A646B270-011B-4B1F-9C8D-0D5BDF099614}" name="Names of Organization Units to Remove" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{D1A413BB-7C20-4FE2-A8C9-5F142AE2A801}" name="Result" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{A5F7AC4B-1193-4131-8D79-734635551F00}" name="Username" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{85A74C6D-61E6-41DE-BCBB-C0C0EBDAA34F}" name="Names of Organization Units to Added" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A646B270-011B-4B1F-9C8D-0D5BDF099614}" name="Names of Organization Units to Remove" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D1A413BB-7C20-4FE2-A8C9-5F142AE2A801}" name="Result" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1517,10 +1566,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{631EA298-4FE7-47D8-8D13-FCC3B6B07AED}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C2E9DC7-DF3F-4BA9-A1B6-C6F8F94D8C0D}" name="Username" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5FFFF6F2-7358-4804-9AA1-F4B9D8648416}" name="Names of Roles to Add" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{FB82486A-9543-4879-8AB8-ABA32D2DAA9F}" name="Names of Roles to Remove" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{C62F7EB5-ED71-4FB2-8602-5BB0C2D1FE4F}" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8C2E9DC7-DF3F-4BA9-A1B6-C6F8F94D8C0D}" name="Username" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5FFFF6F2-7358-4804-9AA1-F4B9D8648416}" name="Names of Roles to Add" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FB82486A-9543-4879-8AB8-ABA32D2DAA9F}" name="Names of Roles to Remove" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C62F7EB5-ED71-4FB2-8602-5BB0C2D1FE4F}" name="Result" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1789,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1808,2031 +1857,2234 @@
     <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G2" s="9"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G3" s="9"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G5" s="9"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G7" s="9"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="9"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="10"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F16" s="10"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="10"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="10"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="10"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="10"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F32" s="10"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="10"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F34" s="10"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F35" s="10"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F36" s="10"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F37" s="10"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F38" s="10"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F39" s="10"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="10"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F41" s="10"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F42" s="10"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="12"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F43" s="10"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="12"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44" s="10"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
-      <c r="B45" s="10"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F45" s="10"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46" s="10"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
-      <c r="B47" s="10"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F47" s="10"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
-      <c r="B48" s="10"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="10"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
-      <c r="B49" s="10"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F49" s="10"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F50" s="10"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F51" s="10"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="10"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F53" s="10"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F54" s="10"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F55" s="10"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F56" s="10"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="10"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F58" s="10"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="10"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F60" s="10"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F61" s="10"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F62" s="10"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
-      <c r="B63" s="10"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F63" s="10"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F64" s="10"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F65" s="10"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
-      <c r="B66" s="10"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F66" s="10"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="12"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
-      <c r="B67" s="10"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F67" s="10"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F68" s="10"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F69" s="10"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
-      <c r="B70" s="10"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F70" s="10"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="12"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
-      <c r="B71" s="10"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F71" s="10"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
-      <c r="B72" s="10"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F72" s="10"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F73" s="10"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
-      <c r="B74" s="10"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F74" s="10"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
-      <c r="B75" s="10"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F75" s="10"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="12"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F76" s="10"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
-      <c r="B77" s="10"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F77" s="10"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F78" s="10"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
-      <c r="B79" s="10"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="12"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F79" s="10"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
-      <c r="B80" s="10"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F80" s="10"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="12"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
-      <c r="B81" s="10"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F81" s="10"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="12"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F82" s="10"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="12"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
-      <c r="B83" s="10"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F83" s="10"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="12"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
-      <c r="B84" s="10"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F84" s="10"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
-      <c r="B85" s="10"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F85" s="10"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="12"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
-      <c r="B86" s="10"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F86" s="10"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
-      <c r="B87" s="10"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="12"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F87" s="10"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="12"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
-      <c r="B88" s="10"/>
+      <c r="B88" s="8"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F88" s="10"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
-      <c r="B89" s="10"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F89" s="10"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="12"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
-      <c r="B90" s="10"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="12"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F90" s="10"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="12"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
-      <c r="B91" s="10"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F91" s="10"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
-      <c r="B92" s="10"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F92" s="10"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="12"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
-      <c r="B93" s="10"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F93" s="10"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
-      <c r="B94" s="10"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="12"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F94" s="10"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="12"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
-      <c r="B95" s="10"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F95" s="10"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
-      <c r="B96" s="10"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F96" s="10"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="12"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
-      <c r="B97" s="10"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F97" s="10"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
-      <c r="B98" s="10"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="12"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F98" s="10"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
-      <c r="B99" s="10"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="12"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F99" s="10"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
-      <c r="B100" s="10"/>
+      <c r="B100" s="8"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="10"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="12"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F100" s="10"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
-      <c r="B101" s="10"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F101" s="10"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
-      <c r="B102" s="10"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="10"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
-      <c r="B103" s="10"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
       <c r="E103" s="10"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F103" s="10"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
-      <c r="B104" s="10"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="12"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F104" s="10"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
-      <c r="B105" s="10"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
       <c r="E105" s="10"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F105" s="10"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
-      <c r="B106" s="10"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="12"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F106" s="10"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
-      <c r="B107" s="10"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F107" s="10"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
-      <c r="B108" s="10"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="12"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F108" s="10"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
-      <c r="B109" s="10"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="12"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F109" s="10"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
-      <c r="B110" s="10"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="12"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F110" s="10"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
-      <c r="B111" s="10"/>
+      <c r="B111" s="8"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="12"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F111" s="10"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
-      <c r="B112" s="10"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="12"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F112" s="10"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
-      <c r="B113" s="10"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="12"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F113" s="10"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
-      <c r="B114" s="10"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="12"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F114" s="10"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="12"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
-      <c r="B115" s="10"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="12"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F115" s="10"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="12"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
-      <c r="B116" s="10"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="12"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F116" s="10"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="12"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
-      <c r="B117" s="10"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="12"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F117" s="10"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="12"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
-      <c r="B118" s="10"/>
+      <c r="B118" s="8"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="10"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="12"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F118" s="10"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="12"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
-      <c r="B119" s="10"/>
+      <c r="B119" s="8"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="12"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F119" s="10"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="12"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
-      <c r="B120" s="10"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="12"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F120" s="10"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="12"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
-      <c r="B121" s="10"/>
+      <c r="B121" s="8"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="10"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="12"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F121" s="10"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="12"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
-      <c r="B122" s="10"/>
+      <c r="B122" s="8"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="12"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F122" s="10"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="12"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
-      <c r="B123" s="10"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="12"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F123" s="10"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="12"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
-      <c r="B124" s="10"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="10"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="12"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F124" s="10"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="12"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
-      <c r="B125" s="10"/>
+      <c r="B125" s="8"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="12"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F125" s="10"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="12"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
-      <c r="B126" s="10"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="12"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F126" s="10"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="12"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
-      <c r="B127" s="10"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="10"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="12"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F127" s="10"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="12"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
-      <c r="B128" s="10"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="12"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F128" s="10"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="12"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
-      <c r="B129" s="10"/>
+      <c r="B129" s="8"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="12"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F129" s="10"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="12"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
-      <c r="B130" s="10"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="12"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F130" s="10"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="12"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
-      <c r="B131" s="10"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="12"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F131" s="10"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="12"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
-      <c r="B132" s="10"/>
+      <c r="B132" s="8"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="12"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F132" s="10"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="12"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
-      <c r="B133" s="10"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="12"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F133" s="10"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="12"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
-      <c r="B134" s="10"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="12"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F134" s="10"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="12"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
-      <c r="B135" s="10"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="12"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F135" s="10"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="12"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
-      <c r="B136" s="10"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="12"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F136" s="10"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="12"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
-      <c r="B137" s="10"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="12"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F137" s="10"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="12"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
-      <c r="B138" s="10"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="12"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F138" s="10"/>
+      <c r="G138" s="13"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
-      <c r="B139" s="10"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="12"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F139" s="10"/>
+      <c r="G139" s="13"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
-      <c r="B140" s="10"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="12"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F140" s="10"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="12"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
-      <c r="B141" s="10"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="12"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F141" s="10"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="12"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
-      <c r="B142" s="10"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="10"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="12"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F142" s="10"/>
+      <c r="G142" s="13"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="12"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
-      <c r="B143" s="10"/>
+      <c r="B143" s="8"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="12"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F143" s="10"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="12"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
-      <c r="B144" s="10"/>
+      <c r="B144" s="8"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="12"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F144" s="10"/>
+      <c r="G144" s="13"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="12"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
-      <c r="B145" s="10"/>
+      <c r="B145" s="8"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="10"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="12"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F145" s="10"/>
+      <c r="G145" s="13"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="12"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
-      <c r="B146" s="10"/>
+      <c r="B146" s="8"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="12"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F146" s="10"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="12"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
-      <c r="B147" s="10"/>
+      <c r="B147" s="8"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="12"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F147" s="10"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="12"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
-      <c r="B148" s="10"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="12"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F148" s="10"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="12"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
-      <c r="B149" s="10"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="11"/>
-      <c r="H149" s="12"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F149" s="10"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="12"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
-      <c r="B150" s="10"/>
+      <c r="B150" s="8"/>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="12"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F150" s="10"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="12"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
-      <c r="B151" s="10"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="12"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F151" s="10"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="12"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
-      <c r="B152" s="10"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="12"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F152" s="10"/>
+      <c r="G152" s="13"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="12"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
-      <c r="B153" s="10"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="12"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F153" s="10"/>
+      <c r="G153" s="13"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="12"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
-      <c r="B154" s="10"/>
+      <c r="B154" s="8"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="10"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="12"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F154" s="10"/>
+      <c r="G154" s="13"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="12"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
-      <c r="B155" s="10"/>
+      <c r="B155" s="8"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="11"/>
-      <c r="H155" s="12"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F155" s="10"/>
+      <c r="G155" s="13"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="12"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
-      <c r="B156" s="10"/>
+      <c r="B156" s="8"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="12"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F156" s="10"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="12"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
-      <c r="B157" s="10"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="10"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="12"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F157" s="10"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="12"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
-      <c r="B158" s="10"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="12"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F158" s="10"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="12"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
-      <c r="B159" s="10"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="12"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F159" s="10"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="12"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
-      <c r="B160" s="10"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="10"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="12"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F160" s="10"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="12"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="12"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F161" s="10"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
-      <c r="B162" s="10"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="11"/>
-      <c r="H162" s="12"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F162" s="10"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="12"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
-      <c r="B163" s="10"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="10"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="12"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F163" s="10"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="12"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
-      <c r="B164" s="10"/>
+      <c r="B164" s="8"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="11"/>
-      <c r="H164" s="12"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F164" s="10"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="12"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
-      <c r="B165" s="10"/>
+      <c r="B165" s="8"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="12"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F165" s="10"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="12"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
-      <c r="B166" s="10"/>
+      <c r="B166" s="8"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="12"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F166" s="10"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="12"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
-      <c r="B167" s="10"/>
+      <c r="B167" s="8"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="12"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F167" s="10"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="12"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
-      <c r="B168" s="10"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="11"/>
-      <c r="H168" s="12"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F168" s="10"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="12"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
-      <c r="B169" s="10"/>
+      <c r="B169" s="8"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="10"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="11"/>
-      <c r="H169" s="12"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F169" s="10"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="12"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
-      <c r="B170" s="10"/>
+      <c r="B170" s="8"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="11"/>
-      <c r="H170" s="12"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F170" s="10"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="12"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
-      <c r="B171" s="10"/>
+      <c r="B171" s="8"/>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="10"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="11"/>
-      <c r="H171" s="12"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F171" s="10"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="12"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
-      <c r="B172" s="10"/>
+      <c r="B172" s="8"/>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="10"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="11"/>
-      <c r="H172" s="12"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F172" s="10"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="12"/>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
-      <c r="B173" s="10"/>
+      <c r="B173" s="8"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="11"/>
-      <c r="H173" s="12"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F173" s="10"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="12"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
-      <c r="B174" s="10"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="11"/>
-      <c r="H174" s="12"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F174" s="10"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="12"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
-      <c r="B175" s="10"/>
+      <c r="B175" s="8"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="11"/>
-      <c r="H175" s="12"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F175" s="10"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="12"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
-      <c r="B176" s="10"/>
+      <c r="B176" s="8"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="11"/>
-      <c r="H176" s="12"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F176" s="10"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="12"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
-      <c r="B177" s="10"/>
+      <c r="B177" s="8"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="12"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F177" s="10"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="12"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
-      <c r="B178" s="10"/>
+      <c r="B178" s="8"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="10"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="11"/>
-      <c r="H178" s="12"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F178" s="10"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="12"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
-      <c r="B179" s="10"/>
+      <c r="B179" s="8"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="12"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F179" s="10"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="12"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
-      <c r="B180" s="10"/>
+      <c r="B180" s="8"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="12"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F180" s="10"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="12"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
-      <c r="B181" s="10"/>
+      <c r="B181" s="8"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="10"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="11"/>
-      <c r="H181" s="12"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F181" s="10"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="12"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
-      <c r="B182" s="10"/>
+      <c r="B182" s="8"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="11"/>
-      <c r="H182" s="12"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F182" s="10"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="12"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
-      <c r="B183" s="10"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="11"/>
-      <c r="H183" s="12"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F183" s="10"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="11"/>
+      <c r="I183" s="12"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
-      <c r="B184" s="10"/>
+      <c r="B184" s="8"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="10"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="11"/>
-      <c r="H184" s="12"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F184" s="10"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="12"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
-      <c r="B185" s="10"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="12"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F185" s="10"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="12"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
-      <c r="B186" s="10"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="11"/>
-      <c r="H186" s="12"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F186" s="10"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="12"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
-      <c r="B187" s="10"/>
+      <c r="B187" s="8"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="10"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="11"/>
-      <c r="H187" s="12"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F187" s="10"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="12"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="8"/>
-      <c r="B188" s="10"/>
+      <c r="B188" s="8"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="12"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F188" s="10"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="12"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="8"/>
-      <c r="B189" s="10"/>
+      <c r="B189" s="8"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="11"/>
-      <c r="H189" s="12"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F189" s="10"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="12"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="8"/>
-      <c r="B190" s="10"/>
+      <c r="B190" s="8"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
       <c r="E190" s="10"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="11"/>
-      <c r="H190" s="12"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F190" s="10"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="12"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="8"/>
-      <c r="B191" s="10"/>
+      <c r="B191" s="8"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="11"/>
-      <c r="H191" s="12"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F191" s="10"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="12"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
-      <c r="B192" s="10"/>
+      <c r="B192" s="8"/>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="10"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="11"/>
-      <c r="H192" s="12"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F192" s="10"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="12"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="8"/>
-      <c r="B193" s="10"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="10"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="11"/>
-      <c r="H193" s="12"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F193" s="10"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="12"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="8"/>
-      <c r="B194" s="10"/>
+      <c r="B194" s="8"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="11"/>
-      <c r="H194" s="12"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F194" s="10"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="12"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="8"/>
-      <c r="B195" s="10"/>
+      <c r="B195" s="8"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="12"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F195" s="10"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="12"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="8"/>
-      <c r="B196" s="10"/>
+      <c r="B196" s="8"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="10"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="11"/>
-      <c r="H196" s="12"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F196" s="10"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="12"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="8"/>
-      <c r="B197" s="10"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="11"/>
-      <c r="H197" s="12"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F197" s="10"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="12"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="8"/>
-      <c r="B198" s="10"/>
+      <c r="B198" s="8"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="11"/>
-      <c r="H198" s="12"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F198" s="10"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="12"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="8"/>
-      <c r="B199" s="10"/>
+      <c r="B199" s="8"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="10"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="12"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F199" s="10"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="12"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="8"/>
-      <c r="B200" s="10"/>
+      <c r="B200" s="8"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="12"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F200" s="10"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="12"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
-      <c r="B201" s="15"/>
+      <c r="B201" s="14"/>
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="18"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="16"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59F63E-E28C-4ACF-98ED-BBB051790669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE6D3F-B4BE-41F9-9BDD-C1E8E4517FC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,50 +343,6 @@
   </cellStyles>
   <dxfs count="42">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -1418,6 +1374,50 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
@@ -1489,15 +1489,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="37" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1507,15 +1507,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="28"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1525,13 +1525,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1541,9 +1541,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1553,10 +1553,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EABC1088-551B-494F-A583-48EB9585439F}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5F7AC4B-1193-4131-8D79-734635551F00}" name="Username" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{85A74C6D-61E6-41DE-BCBB-C0C0EBDAA34F}" name="Names of Organization Units to Added" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A646B270-011B-4B1F-9C8D-0D5BDF099614}" name="Names of Organization Units to Remove" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D1A413BB-7C20-4FE2-A8C9-5F142AE2A801}" name="Result" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A5F7AC4B-1193-4131-8D79-734635551F00}" name="Username" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{85A74C6D-61E6-41DE-BCBB-C0C0EBDAA34F}" name="Names of Organization Units to Added" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{A646B270-011B-4B1F-9C8D-0D5BDF099614}" name="Names of Organization Units to Remove" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{D1A413BB-7C20-4FE2-A8C9-5F142AE2A801}" name="Result" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1566,10 +1566,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{631EA298-4FE7-47D8-8D13-FCC3B6B07AED}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C2E9DC7-DF3F-4BA9-A1B6-C6F8F94D8C0D}" name="Username" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{5FFFF6F2-7358-4804-9AA1-F4B9D8648416}" name="Names of Roles to Add" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{FB82486A-9543-4879-8AB8-ABA32D2DAA9F}" name="Names of Roles to Remove" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C62F7EB5-ED71-4FB2-8602-5BB0C2D1FE4F}" name="Result" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8C2E9DC7-DF3F-4BA9-A1B6-C6F8F94D8C0D}" name="Username" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5FFFF6F2-7358-4804-9AA1-F4B9D8648416}" name="Names of Roles to Add" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FB82486A-9543-4879-8AB8-ABA32D2DAA9F}" name="Names of Roles to Remove" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C62F7EB5-ED71-4FB2-8602-5BB0C2D1FE4F}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4087,6 +4087,14 @@
       <c r="I201" s="18"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="B2:B1048576" xr:uid="{6B97F103-F7C0-4A54-9BE8-32EE16382F65}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="I2:I1048576" xr:uid="{867C6DD1-DC7F-4176-B15E-9EEA2E0AB547}">
+      <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6348,6 +6356,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="H2:H1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -6366,7 +6379,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.7265625" style="2" customWidth="1"/>
@@ -8198,6 +8211,14 @@
       <c r="G201" s="9"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{9F8A286C-0BC9-4DCD-A6A9-B0A34FED344B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="E2:E1048576" xr:uid="{E4E44019-3B35-4B46-AB56-CBA9A747E3AA}">
+      <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -9232,6 +9253,11 @@
       <c r="C201" s="10"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{8278B938-F3DA-4EB8-872A-C47093129BD8}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C312E4E8-D59A-44A2-ADF4-3335DB50F572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5FC981-5BFE-4DA9-9097-BA017AEAE32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Edit" sheetId="5" r:id="rId3"/>
     <sheet name="Delete" sheetId="2" r:id="rId4"/>
-    <sheet name="Add or Remove OUs" sheetId="6" r:id="rId5"/>
-    <sheet name="Add or Remove Roles" sheetId="7" r:id="rId6"/>
+    <sheet name="Add or Remove Roles" sheetId="7" r:id="rId5"/>
+    <sheet name="Add or Remove OUs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,9 +73,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Names of Organization Units to Added</t>
-  </si>
-  <si>
     <t>Names of Organization Units to Remove</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>Names of Roles to Remove</t>
+  </si>
+  <si>
+    <t>Names of Organization Units to Add</t>
   </si>
 </sst>
 </file>
@@ -364,12 +364,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="52">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1022,45 +1016,10 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1248,6 +1207,24 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1269,7 +1246,8 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -1278,12 +1256,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1303,10 +1275,38 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1323,90 +1323,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="39" dataDxfId="37" totalsRowDxfId="38" headerRowBorderDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="51" dataDxfId="49" totalsRowDxfId="47" headerRowBorderDxfId="50" tableBorderDxfId="48">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="48" totalsRowDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="46"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="25"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="Username" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Added" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{3B6B2910-FA56-4878-8F17-06D1F26DE443}" name="Username" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3B6B2910-FA56-4878-8F17-06D1F26DE443}" name="Username" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="Username" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9109,6 +9109,1246 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020A3488-C2F9-44CB-B298-2FE281E5FB71}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.6328125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="23"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="23"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="23"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="23"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="23"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="23"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="23"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="23"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="23"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="23"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="23"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="22"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="23"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="23"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="23"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="23"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="22"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="23"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="23"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="22"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="22"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="23"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="23"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="22"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="22"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="23"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="22"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="22"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="23"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="22"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="22"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="23"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="22"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="23"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="23"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="22"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="23"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="22"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="23"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="22"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="22"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="23"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="22"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="23"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="23"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="22"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="23"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="23"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="23"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="23"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="22"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="23"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="22"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="23"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="22"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="22"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3FA89F-5A87-47C2-B4C1-CE91D9DDEA85}">
   <dimension ref="A1:D201"/>
   <sheetViews>
@@ -9130,1250 +10370,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="22"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="22"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="22"/>
-      <c r="B106" s="22"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="22"/>
-      <c r="B107" s="22"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="4"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="22"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="22"/>
-      <c r="B114" s="22"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="22"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="22"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="23"/>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="22"/>
-      <c r="B123" s="22"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="4"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="22"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="22"/>
-      <c r="B126" s="22"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="22"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22"/>
-      <c r="C134" s="23"/>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="22"/>
-      <c r="B135" s="22"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="22"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="22"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="22"/>
-      <c r="B138" s="22"/>
-      <c r="C138" s="23"/>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="22"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="23"/>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="22"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="23"/>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="22"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="22"/>
-      <c r="B142" s="22"/>
-      <c r="C142" s="23"/>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="22"/>
-      <c r="B143" s="22"/>
-      <c r="C143" s="23"/>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="22"/>
-      <c r="B144" s="22"/>
-      <c r="C144" s="23"/>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="22"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="22"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="22"/>
-      <c r="B147" s="22"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="22"/>
-      <c r="B148" s="22"/>
-      <c r="C148" s="23"/>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="22"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="23"/>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="22"/>
-      <c r="B150" s="22"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="22"/>
-      <c r="B151" s="22"/>
-      <c r="C151" s="23"/>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="22"/>
-      <c r="B152" s="22"/>
-      <c r="C152" s="23"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="22"/>
-      <c r="B153" s="22"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="22"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="23"/>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="22"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="22"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="22"/>
-      <c r="B157" s="22"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="22"/>
-      <c r="B158" s="22"/>
-      <c r="C158" s="23"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="22"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="23"/>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="22"/>
-      <c r="B160" s="22"/>
-      <c r="C160" s="23"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="22"/>
-      <c r="B161" s="22"/>
-      <c r="C161" s="23"/>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="22"/>
-      <c r="B162" s="22"/>
-      <c r="C162" s="23"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="22"/>
-      <c r="B163" s="22"/>
-      <c r="C163" s="23"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="22"/>
-      <c r="B164" s="22"/>
-      <c r="C164" s="23"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="22"/>
-      <c r="B165" s="22"/>
-      <c r="C165" s="23"/>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="22"/>
-      <c r="B166" s="22"/>
-      <c r="C166" s="23"/>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="22"/>
-      <c r="B167" s="22"/>
-      <c r="C167" s="23"/>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="22"/>
-      <c r="B168" s="22"/>
-      <c r="C168" s="23"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="22"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="23"/>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="22"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="23"/>
-      <c r="D170" s="4"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="22"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="23"/>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="22"/>
-      <c r="B172" s="22"/>
-      <c r="C172" s="23"/>
-      <c r="D172" s="4"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="22"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="23"/>
-      <c r="D173" s="4"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="22"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="23"/>
-      <c r="D174" s="4"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="22"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="23"/>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="22"/>
-      <c r="B176" s="22"/>
-      <c r="C176" s="23"/>
-      <c r="D176" s="4"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="22"/>
-      <c r="B177" s="22"/>
-      <c r="C177" s="23"/>
-      <c r="D177" s="4"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="22"/>
-      <c r="B178" s="22"/>
-      <c r="C178" s="23"/>
-      <c r="D178" s="4"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="22"/>
-      <c r="B179" s="22"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="4"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="22"/>
-      <c r="B180" s="22"/>
-      <c r="C180" s="23"/>
-      <c r="D180" s="4"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="22"/>
-      <c r="B181" s="22"/>
-      <c r="C181" s="23"/>
-      <c r="D181" s="4"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="22"/>
-      <c r="B182" s="22"/>
-      <c r="C182" s="23"/>
-      <c r="D182" s="4"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="22"/>
-      <c r="B183" s="22"/>
-      <c r="C183" s="23"/>
-      <c r="D183" s="4"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="22"/>
-      <c r="B184" s="22"/>
-      <c r="C184" s="23"/>
-      <c r="D184" s="4"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="22"/>
-      <c r="B185" s="22"/>
-      <c r="C185" s="23"/>
-      <c r="D185" s="4"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="22"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="23"/>
-      <c r="D186" s="4"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="22"/>
-      <c r="B187" s="22"/>
-      <c r="C187" s="23"/>
-      <c r="D187" s="4"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="22"/>
-      <c r="B188" s="22"/>
-      <c r="C188" s="23"/>
-      <c r="D188" s="4"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="22"/>
-      <c r="B189" s="22"/>
-      <c r="C189" s="23"/>
-      <c r="D189" s="4"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="22"/>
-      <c r="B190" s="22"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="22"/>
-      <c r="B191" s="22"/>
-      <c r="C191" s="23"/>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="22"/>
-      <c r="B192" s="22"/>
-      <c r="C192" s="23"/>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="22"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="23"/>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="22"/>
-      <c r="B194" s="22"/>
-      <c r="C194" s="23"/>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="22"/>
-      <c r="B195" s="22"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="22"/>
-      <c r="B196" s="22"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="22"/>
-      <c r="B197" s="22"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="22"/>
-      <c r="B198" s="22"/>
-      <c r="C198" s="23"/>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="22"/>
-      <c r="B199" s="22"/>
-      <c r="C199" s="23"/>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="22"/>
-      <c r="B200" s="22"/>
-      <c r="C200" s="23"/>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="22"/>
-      <c r="B201" s="22"/>
-      <c r="C201" s="23"/>
-      <c r="D201" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020A3488-C2F9-44CB-B298-2FE281E5FB71}">
-  <dimension ref="A1:D201"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6328125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>9</v>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5FC981-5BFE-4DA9-9097-BA017AEAE32E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ED66A3-4C89-424B-B5ED-2594D9E7F862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
     <sheet name="Create" sheetId="1" r:id="rId2"/>
     <sheet name="Edit" sheetId="5" r:id="rId3"/>
     <sheet name="Delete" sheetId="2" r:id="rId4"/>
-    <sheet name="Add or Remove Roles" sheetId="7" r:id="rId5"/>
-    <sheet name="Add or Remove OUs" sheetId="6" r:id="rId6"/>
+    <sheet name="Assign User to Folder" sheetId="8" r:id="rId5"/>
+    <sheet name="Unassing User from Folder" sheetId="9" r:id="rId6"/>
+    <sheet name="Add or Remove Roles" sheetId="7" r:id="rId7"/>
+    <sheet name="Add or Remove OUs" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +85,15 @@
   </si>
   <si>
     <t>Names of Organization Units to Add</t>
+  </si>
+  <si>
+    <t>Modern Folder Name</t>
+  </si>
+  <si>
+    <t>Roles Names</t>
+  </si>
+  <si>
+    <t>User ID</t>
   </si>
 </sst>
 </file>
@@ -132,7 +143,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -279,12 +290,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -358,12 +395,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="65">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -546,6 +589,56 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -555,6 +648,187 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="5"/>
         </left>
@@ -1323,90 +1597,117 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="51" dataDxfId="49" totalsRowDxfId="47" headerRowBorderDxfId="50" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="64" dataDxfId="62" totalsRowDxfId="60" headerRowBorderDxfId="63" tableBorderDxfId="61">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="43"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I201" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="34"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="40"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3B6B2910-FA56-4878-8F17-06D1F26DE443}" name="Username" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EA7A823A-1E8D-4A2B-881A-BAAD89777ECB}" name="Table1368" displayName="Table1368" ref="A1:E201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="5" xr3:uid="{9DC69746-E807-4323-AC89-C2B479A99E4B}" name="Type" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{A851F017-65EE-4BF2-8F9D-3167D75F6CAD}" name="Username" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{B120AD7A-797C-40D0-9B85-9FEFE42B1D3F}" name="Modern Folder Name" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{5940BCFB-5663-4B53-9556-2CC248031FF3}" name="Roles Names" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{C75534B1-2E73-41C1-B861-5FADD65F3329}" name="Result" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FF454676-FD3C-4C11-93EB-AE76242EBF79}" name="Table13689" displayName="Table13689" ref="A1:D201" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="Username" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1FD71DC7-FCFA-4827-9512-5F2C69FD102F}" name="Type" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{B921789A-6056-42E1-A2AA-BBF3D62C112D}" name="Username" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{D5C11F89-CA88-4C23-A39D-C622B1673081}" name="Modern Folder Name" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9748F748-8962-4DBD-AB85-FF03301F953C}" name="Result" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="5" xr3:uid="{F33CCB60-7A58-4399-B3F7-6F5E5E738088}" name="User ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="User ID" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9109,6 +9410,2690 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58B5DDA-8D56-4B57-A69A-32AD69C37E8A}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.36328125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="8"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="8"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="8"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="8"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="8"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="8"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="8"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="8"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="8"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="8"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="8"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="8"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="8"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="8"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="8"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="8"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="8"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="8"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="8"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="8"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="8"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="8"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="23"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="8"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="8"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="8"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="8"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="8"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="8"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="8"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="23"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="8"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="8"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="8"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="8"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="23"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="23"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="8"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="23"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="8"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="23"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="8"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="23"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="8"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="8"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="23"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="8"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="8"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="23"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="8"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="23"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="8"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="8"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="8"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="8"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="8"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="8"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="8"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="8"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="8"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="23"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="8"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="23"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="8"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="23"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="8"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="23"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="8"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="23"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="8"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="23"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="8"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="23"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="8"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="23"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="8"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="23"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="8"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="23"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="8"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="23"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="8"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="23"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="8"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="23"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="8"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="23"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="8"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="23"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="8"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="23"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="8"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="23"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="8"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="23"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="8"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="23"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="8"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="23"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="8"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="23"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="8"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="23"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="8"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="23"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="8"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="23"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="8"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="23"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="8"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="23"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="8"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="23"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="8"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="23"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="8"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="23"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="8"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="23"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="8"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="23"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="8"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="23"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="8"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="8"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="23"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="8"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="23"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="8"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="23"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="8"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="23"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="8"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="23"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="8"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="23"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="8"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="23"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="8"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="23"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="8"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="23"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="8"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="26"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C871F2A-8F02-4615-8EFC-F00751B72B9A}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.36328125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="8"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="8"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="8"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="8"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="8"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="8"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="8"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="8"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="8"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="8"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="8"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="8"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="8"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="8"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="8"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="8"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="8"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="8"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="8"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="8"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="8"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="8"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="8"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="8"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="8"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="8"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="8"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="8"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="8"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="8"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="8"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="8"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="8"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="8"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="8"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="8"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="8"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="8"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="8"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="8"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="8"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="8"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="8"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="8"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="8"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="8"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="8"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="8"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="8"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="8"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="8"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="8"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="8"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="8"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="8"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="8"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="8"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="8"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="8"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="8"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="8"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="8"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="8"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="8"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="8"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="8"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="8"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="8"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="8"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="8"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="8"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="8"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="8"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="8"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="8"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="8"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="8"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="8"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="8"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="8"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="8"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="8"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="8"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="8"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="8"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="8"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="8"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="8"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="8"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="8"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="8"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="8"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="8"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="26"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020A3488-C2F9-44CB-B298-2FE281E5FB71}">
   <dimension ref="A1:D201"/>
   <sheetViews>
@@ -9118,16 +12103,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.08984375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>12</v>
@@ -10340,6 +13325,11 @@
       <c r="D201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{EB7E313C-7C93-4B6B-B347-37B3CA00334B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -10348,7 +13338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3FA89F-5A87-47C2-B4C1-CE91D9DDEA85}">
   <dimension ref="A1:D201"/>
   <sheetViews>
@@ -10359,15 +13349,16 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.6328125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="8.7265625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>14</v>
@@ -11580,6 +14571,11 @@
       <c r="D201" s="4"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{551D10C7-BFB5-4FF8-8E04-0906ED426219}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA94D52-F805-4F82-9A05-D96DDD980B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC129F2A-2945-4CC6-BA73-2037B022EC2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -1678,21 +1678,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="2" width="15.7265625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="25.7265625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="25.7265625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="45.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="3"/>
@@ -1732,7 +1728,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="3"/>
@@ -1743,7 +1739,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="3"/>
@@ -1754,7 +1750,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="3"/>
@@ -1765,7 +1761,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="3"/>
@@ -1776,7 +1772,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="3"/>
@@ -1787,7 +1783,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="3"/>
@@ -1798,7 +1794,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="3"/>
@@ -1809,7 +1805,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="3"/>
@@ -1820,7 +1816,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="3"/>
@@ -1831,7 +1827,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="3"/>
@@ -1842,7 +1838,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="3"/>
@@ -1853,7 +1849,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="3"/>
@@ -1864,7 +1860,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="3"/>
@@ -1875,7 +1871,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="3"/>
@@ -1886,7 +1882,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="3"/>
@@ -1897,7 +1893,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="3"/>
@@ -1908,7 +1904,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="3"/>
@@ -1919,7 +1915,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="3"/>
@@ -1930,7 +1926,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="3"/>
@@ -1941,7 +1937,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="3"/>
@@ -1952,7 +1948,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="3"/>
@@ -1963,7 +1959,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="3"/>
@@ -1974,7 +1970,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="3"/>
@@ -1985,7 +1981,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="3"/>
@@ -1996,7 +1992,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="3"/>
@@ -2007,7 +2003,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="3"/>
@@ -2018,7 +2014,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="3"/>
@@ -2029,7 +2025,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="3"/>
@@ -2040,7 +2036,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="3"/>
@@ -2051,7 +2047,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="3"/>
@@ -2062,7 +2058,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="3"/>
@@ -2073,7 +2069,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="3"/>
@@ -2084,7 +2080,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="3"/>
@@ -2095,7 +2091,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="3"/>
@@ -2106,7 +2102,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="3"/>
@@ -2117,7 +2113,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="3"/>
@@ -2128,7 +2124,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="3"/>
@@ -2139,7 +2135,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="3"/>
@@ -2150,7 +2146,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="3"/>
@@ -2161,7 +2157,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="3"/>
@@ -2172,7 +2168,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="3"/>
@@ -2183,7 +2179,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="3"/>
@@ -2194,7 +2190,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="3"/>
@@ -2205,7 +2201,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="3"/>
@@ -2216,7 +2212,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="3"/>
@@ -2227,7 +2223,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="3"/>
@@ -2238,7 +2234,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="3"/>
@@ -2249,7 +2245,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="3"/>
@@ -2260,7 +2256,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="3"/>
@@ -2271,7 +2267,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="3"/>
@@ -2282,7 +2278,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="3"/>
@@ -2293,7 +2289,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="3"/>
@@ -2304,7 +2300,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="3"/>
@@ -2315,7 +2311,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="3"/>
@@ -2326,7 +2322,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="3"/>
@@ -2337,7 +2333,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="3"/>
@@ -2348,7 +2344,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="3"/>
@@ -2359,7 +2355,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="3"/>
@@ -2370,7 +2366,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="3"/>
@@ -2381,7 +2377,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="3"/>
@@ -2392,7 +2388,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="3"/>
@@ -2403,7 +2399,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="3"/>
@@ -2414,7 +2410,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="3"/>
@@ -2425,7 +2421,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="3"/>
@@ -2436,7 +2432,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="3"/>
@@ -2447,7 +2443,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="3"/>
@@ -2458,7 +2454,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="3"/>
@@ -2469,7 +2465,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="3"/>
@@ -2480,7 +2476,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="3"/>
@@ -2491,7 +2487,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="3"/>
@@ -2502,7 +2498,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="3"/>
@@ -2513,7 +2509,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="3"/>
@@ -2524,7 +2520,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="3"/>
@@ -2535,7 +2531,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="17"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="3"/>
@@ -2546,7 +2542,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="3"/>
@@ -2557,7 +2553,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="3"/>
@@ -2568,7 +2564,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
       <c r="C79" s="3"/>
@@ -2579,7 +2575,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="3"/>
@@ -2590,7 +2586,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="3"/>
@@ -2601,7 +2597,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="3"/>
@@ -2612,7 +2608,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="3"/>
@@ -2623,7 +2619,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="3"/>
@@ -2634,7 +2630,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="3"/>
@@ -2645,7 +2641,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="3"/>
@@ -2656,7 +2652,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="3"/>
@@ -2667,7 +2663,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="3"/>
@@ -2678,7 +2674,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="3"/>
@@ -2689,7 +2685,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="3"/>
@@ -2700,7 +2696,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="3"/>
@@ -2711,7 +2707,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="3"/>
@@ -2722,7 +2718,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="3"/>
@@ -2733,7 +2729,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="3"/>
@@ -2744,7 +2740,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="3"/>
@@ -2755,7 +2751,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="3"/>
@@ -2766,7 +2762,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="3"/>
@@ -2777,7 +2773,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="3"/>
@@ -2788,7 +2784,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="3"/>
@@ -2799,7 +2795,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="3"/>
@@ -2810,7 +2806,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="3"/>
@@ -2821,7 +2817,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="17"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="3"/>
@@ -2832,7 +2828,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
       <c r="C103" s="3"/>
@@ -2843,7 +2839,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="3"/>
@@ -2854,7 +2850,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="17"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
       <c r="C105" s="3"/>
@@ -2865,7 +2861,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
       <c r="C106" s="3"/>
@@ -2876,7 +2872,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
       <c r="C107" s="3"/>
@@ -2887,7 +2883,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
       <c r="C108" s="3"/>
@@ -2898,7 +2894,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="17"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="3"/>
@@ -2909,7 +2905,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="3"/>
@@ -2920,7 +2916,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="3"/>
@@ -2931,7 +2927,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="3"/>
@@ -2942,7 +2938,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="3"/>
@@ -2953,7 +2949,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="3"/>
@@ -2964,7 +2960,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="3"/>
@@ -2975,7 +2971,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
       <c r="C116" s="3"/>
@@ -2986,7 +2982,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
       <c r="C117" s="3"/>
@@ -2997,7 +2993,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
       <c r="C118" s="3"/>
@@ -3008,7 +3004,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
       <c r="C119" s="3"/>
@@ -3019,7 +3015,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="3"/>
@@ -3030,7 +3026,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
       <c r="C121" s="3"/>
@@ -3041,7 +3037,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
       <c r="C122" s="3"/>
@@ -3052,7 +3048,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
       <c r="C123" s="3"/>
@@ -3063,7 +3059,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="3"/>
@@ -3074,7 +3070,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
       <c r="C125" s="3"/>
@@ -3085,7 +3081,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
       <c r="C126" s="3"/>
@@ -3096,7 +3092,7 @@
       <c r="H126" s="4"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
       <c r="C127" s="3"/>
@@ -3107,7 +3103,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
       <c r="C128" s="3"/>
@@ -3118,7 +3114,7 @@
       <c r="H128" s="4"/>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="3"/>
@@ -3129,7 +3125,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
       <c r="C130" s="3"/>
@@ -3140,7 +3136,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
       <c r="C131" s="3"/>
@@ -3151,7 +3147,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
       <c r="C132" s="3"/>
@@ -3162,7 +3158,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
       <c r="C133" s="3"/>
@@ -3173,7 +3169,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
       <c r="C134" s="3"/>
@@ -3184,7 +3180,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
       <c r="C135" s="3"/>
@@ -3195,7 +3191,7 @@
       <c r="H135" s="4"/>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
       <c r="C136" s="3"/>
@@ -3206,7 +3202,7 @@
       <c r="H136" s="4"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="3"/>
@@ -3217,7 +3213,7 @@
       <c r="H137" s="4"/>
       <c r="I137" s="17"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
       <c r="C138" s="3"/>
@@ -3228,7 +3224,7 @@
       <c r="H138" s="4"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
       <c r="C139" s="3"/>
@@ -3239,7 +3235,7 @@
       <c r="H139" s="4"/>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
       <c r="C140" s="3"/>
@@ -3250,7 +3246,7 @@
       <c r="H140" s="4"/>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
       <c r="C141" s="3"/>
@@ -3261,7 +3257,7 @@
       <c r="H141" s="4"/>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
       <c r="C142" s="3"/>
@@ -3272,7 +3268,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="3"/>
@@ -3283,7 +3279,7 @@
       <c r="H143" s="4"/>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
       <c r="C144" s="3"/>
@@ -3294,7 +3290,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
       <c r="C145" s="3"/>
@@ -3305,7 +3301,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
       <c r="C146" s="3"/>
@@ -3316,7 +3312,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
       <c r="C147" s="3"/>
@@ -3327,7 +3323,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
       <c r="C148" s="3"/>
@@ -3338,7 +3334,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
       <c r="C149" s="3"/>
@@ -3349,7 +3345,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="3"/>
@@ -3360,7 +3356,7 @@
       <c r="H150" s="4"/>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
       <c r="C151" s="3"/>
@@ -3371,7 +3367,7 @@
       <c r="H151" s="4"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
       <c r="C152" s="3"/>
@@ -3382,7 +3378,7 @@
       <c r="H152" s="4"/>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
       <c r="C153" s="3"/>
@@ -3393,7 +3389,7 @@
       <c r="H153" s="4"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
       <c r="C154" s="3"/>
@@ -3404,7 +3400,7 @@
       <c r="H154" s="4"/>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
       <c r="C155" s="3"/>
@@ -3415,7 +3411,7 @@
       <c r="H155" s="4"/>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
       <c r="C156" s="3"/>
@@ -3426,7 +3422,7 @@
       <c r="H156" s="4"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
       <c r="C157" s="3"/>
@@ -3437,7 +3433,7 @@
       <c r="H157" s="4"/>
       <c r="I157" s="17"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
       <c r="C158" s="3"/>
@@ -3448,7 +3444,7 @@
       <c r="H158" s="4"/>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
       <c r="C159" s="3"/>
@@ -3459,7 +3455,7 @@
       <c r="H159" s="4"/>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="3"/>
@@ -3470,7 +3466,7 @@
       <c r="H160" s="4"/>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
       <c r="C161" s="3"/>
@@ -3481,7 +3477,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
       <c r="C162" s="3"/>
@@ -3492,7 +3488,7 @@
       <c r="H162" s="4"/>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="3"/>
@@ -3503,7 +3499,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
       <c r="C164" s="3"/>
@@ -3514,7 +3510,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
       <c r="C165" s="3"/>
@@ -3525,7 +3521,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
       <c r="C166" s="3"/>
@@ -3536,7 +3532,7 @@
       <c r="H166" s="4"/>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
       <c r="C167" s="3"/>
@@ -3547,7 +3543,7 @@
       <c r="H167" s="4"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
       <c r="C168" s="3"/>
@@ -3558,7 +3554,7 @@
       <c r="H168" s="4"/>
       <c r="I168" s="17"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
       <c r="C169" s="3"/>
@@ -3569,7 +3565,7 @@
       <c r="H169" s="4"/>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
       <c r="C170" s="3"/>
@@ -3580,7 +3576,7 @@
       <c r="H170" s="4"/>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
       <c r="C171" s="3"/>
@@ -3591,7 +3587,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
       <c r="C172" s="3"/>
@@ -3602,7 +3598,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
       <c r="C173" s="3"/>
@@ -3613,7 +3609,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
       <c r="C174" s="3"/>
@@ -3624,7 +3620,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
       <c r="C175" s="3"/>
@@ -3635,7 +3631,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
       <c r="C176" s="3"/>
@@ -3646,7 +3642,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
       <c r="C177" s="3"/>
@@ -3657,7 +3653,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
       <c r="C178" s="3"/>
@@ -3668,7 +3664,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
       <c r="C179" s="3"/>
@@ -3679,7 +3675,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
       <c r="C180" s="3"/>
@@ -3690,7 +3686,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
       <c r="C181" s="3"/>
@@ -3701,7 +3697,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="3"/>
@@ -3712,7 +3708,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="3"/>
@@ -3723,7 +3719,7 @@
       <c r="H183" s="4"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="3"/>
@@ -3734,7 +3730,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="3"/>
@@ -3745,7 +3741,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="3"/>
@@ -3756,7 +3752,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="3"/>
@@ -3767,7 +3763,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="3"/>
@@ -3778,7 +3774,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
       <c r="C189" s="3"/>
@@ -3789,7 +3785,7 @@
       <c r="H189" s="4"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
       <c r="C190" s="3"/>
@@ -3800,7 +3796,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
       <c r="C191" s="3"/>
@@ -3811,7 +3807,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
       <c r="C192" s="3"/>
@@ -3822,7 +3818,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
       <c r="C193" s="3"/>
@@ -3833,7 +3829,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="17"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
       <c r="C194" s="3"/>
@@ -3844,7 +3840,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
       <c r="C195" s="3"/>
@@ -3855,7 +3851,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="17"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
       <c r="C196" s="3"/>
@@ -3866,7 +3862,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="17"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
       <c r="C197" s="3"/>
@@ -3877,7 +3873,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
       <c r="C198" s="3"/>
@@ -3888,7 +3884,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="17"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
       <c r="C199" s="3"/>
@@ -3899,7 +3895,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
       <c r="C200" s="3"/>
@@ -3910,7 +3906,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="19"/>
@@ -3922,12 +3918,15 @@
       <c r="I201" s="20"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="B2:B1048576" xr:uid="{6B97F103-F7C0-4A54-9BE8-32EE16382F65}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="I2:I1048576" xr:uid="{867C6DD1-DC7F-4176-B15E-9EEA2E0AB547}">
       <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{A81A4870-FE34-43F1-A71F-1819E350F8B4}">
+      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3946,22 +3945,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="49.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="3" width="25.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="45.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3990,7 +3986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4001,7 +3997,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4012,7 +4008,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4023,7 +4019,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4034,7 +4030,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4045,7 +4041,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4056,7 +4052,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4067,7 +4063,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4078,7 +4074,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4089,7 +4085,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4100,7 +4096,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4111,7 +4107,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4122,7 +4118,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4133,7 +4129,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4144,7 +4140,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4155,7 +4151,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4166,7 +4162,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -4177,7 +4173,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4188,7 +4184,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4199,7 +4195,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4210,7 +4206,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4221,7 +4217,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4232,7 +4228,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4243,7 +4239,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -4254,7 +4250,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4265,7 +4261,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4276,7 +4272,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4287,7 +4283,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4298,7 +4294,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4309,7 +4305,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4320,7 +4316,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4331,7 +4327,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4342,7 +4338,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4353,7 +4349,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4364,7 +4360,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4375,7 +4371,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4386,7 +4382,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4397,7 +4393,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4408,7 +4404,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4419,7 +4415,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4430,7 +4426,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4441,7 +4437,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4452,7 +4448,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4463,7 +4459,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4474,7 +4470,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4485,7 +4481,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4496,7 +4492,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4507,7 +4503,7 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4518,7 +4514,7 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4529,7 +4525,7 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4540,7 +4536,7 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4551,7 +4547,7 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4562,7 +4558,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4573,7 +4569,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4584,7 +4580,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4595,7 +4591,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4606,7 +4602,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4617,7 +4613,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4628,7 +4624,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4639,7 +4635,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4650,7 +4646,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4661,7 +4657,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4672,7 +4668,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4683,7 +4679,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4694,7 +4690,7 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4705,7 +4701,7 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4716,7 +4712,7 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4727,7 +4723,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4738,7 +4734,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4749,7 +4745,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4760,7 +4756,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4771,7 +4767,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4782,7 +4778,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4793,7 +4789,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4804,7 +4800,7 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4815,7 +4811,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4826,7 +4822,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4837,7 +4833,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4848,7 +4844,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4859,7 +4855,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4870,7 +4866,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4881,7 +4877,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4892,7 +4888,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4903,7 +4899,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4914,7 +4910,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4925,7 +4921,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4936,7 +4932,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4947,7 +4943,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4958,7 +4954,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4969,7 +4965,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4980,7 +4976,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4991,7 +4987,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -5002,7 +4998,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -5013,7 +5009,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -5024,7 +5020,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -5035,7 +5031,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -5046,7 +5042,7 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -5057,7 +5053,7 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -5068,7 +5064,7 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -5079,7 +5075,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -5090,7 +5086,7 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -5101,7 +5097,7 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -5112,7 +5108,7 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -5123,7 +5119,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -5134,7 +5130,7 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -5145,7 +5141,7 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -5156,7 +5152,7 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -5167,7 +5163,7 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -5178,7 +5174,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -5189,7 +5185,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -5200,7 +5196,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -5211,7 +5207,7 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -5222,7 +5218,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -5233,7 +5229,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5244,7 +5240,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5255,7 +5251,7 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5266,7 +5262,7 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5277,7 +5273,7 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5288,7 +5284,7 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5299,7 +5295,7 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5310,7 +5306,7 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -5321,7 +5317,7 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5332,7 +5328,7 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -5343,7 +5339,7 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -5354,7 +5350,7 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -5365,7 +5361,7 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5376,7 +5372,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5387,7 +5383,7 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5398,7 +5394,7 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -5409,7 +5405,7 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5420,7 +5416,7 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5431,7 +5427,7 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -5442,7 +5438,7 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5453,7 +5449,7 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -5464,7 +5460,7 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5475,7 +5471,7 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5486,7 +5482,7 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -5497,7 +5493,7 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5508,7 +5504,7 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5519,7 +5515,7 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -5530,7 +5526,7 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -5541,7 +5537,7 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -5552,7 +5548,7 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -5563,7 +5559,7 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -5574,7 +5570,7 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -5585,7 +5581,7 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -5596,7 +5592,7 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -5607,7 +5603,7 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -5618,7 +5614,7 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -5629,7 +5625,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -5640,7 +5636,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -5651,7 +5647,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -5662,7 +5658,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -5673,7 +5669,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -5684,7 +5680,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -5695,7 +5691,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -5706,7 +5702,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -5717,7 +5713,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -5728,7 +5724,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -5739,7 +5735,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -5750,7 +5746,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -5761,7 +5757,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -5772,7 +5768,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -5783,7 +5779,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -5794,7 +5790,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -5805,7 +5801,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -5816,7 +5812,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -5827,7 +5823,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -5838,7 +5834,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -5849,7 +5845,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -5860,7 +5856,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -5871,7 +5867,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -5882,7 +5878,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -5893,7 +5889,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -5904,7 +5900,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -5915,7 +5911,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -5926,7 +5922,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -5937,7 +5933,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -5948,7 +5944,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -5959,7 +5955,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -5970,7 +5966,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -5981,7 +5977,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -5992,7 +5988,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -6003,7 +5999,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -6014,7 +6010,7 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -6025,7 +6021,7 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -6036,7 +6032,7 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -6047,7 +6043,7 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -6058,7 +6054,7 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -6069,7 +6065,7 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -6080,7 +6076,7 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -6091,7 +6087,7 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -6102,7 +6098,7 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -6113,7 +6109,7 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -6124,7 +6120,7 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -6135,7 +6131,7 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -6146,7 +6142,7 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -6157,7 +6153,7 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -6168,7 +6164,7 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -6179,7 +6175,7 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -6213,18 +6209,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="15.7265625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="25.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="45.7265625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -6247,7 +6242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -6256,7 +6251,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6265,7 +6260,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6274,7 +6269,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -6283,7 +6278,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -6292,7 +6287,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -6301,7 +6296,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -6310,7 +6305,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -6319,7 +6314,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6328,7 +6323,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -6337,7 +6332,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -6346,7 +6341,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -6355,7 +6350,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -6364,7 +6359,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -6373,7 +6368,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6382,7 +6377,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -6391,7 +6386,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6400,7 +6395,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6409,7 +6404,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6418,7 +6413,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6427,7 +6422,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -6436,7 +6431,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6445,7 +6440,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6454,7 +6449,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -6463,7 +6458,7 @@
       <c r="F25" s="9"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -6472,7 +6467,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6481,7 +6476,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -6490,7 +6485,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -6499,7 +6494,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -6508,7 +6503,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6517,7 +6512,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6526,7 +6521,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -6535,7 +6530,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6544,7 +6539,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6553,7 +6548,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6562,7 +6557,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6571,7 +6566,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6580,7 +6575,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6589,7 +6584,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6598,7 +6593,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6607,7 +6602,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6616,7 +6611,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -6625,7 +6620,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -6634,7 +6629,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -6643,7 +6638,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -6652,7 +6647,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -6661,7 +6656,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -6670,7 +6665,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -6679,7 +6674,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -6688,7 +6683,7 @@
       <c r="F50" s="9"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -6697,7 +6692,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -6706,7 +6701,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -6715,7 +6710,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -6724,7 +6719,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -6733,7 +6728,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -6742,7 +6737,7 @@
       <c r="F56" s="9"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -6751,7 +6746,7 @@
       <c r="F57" s="9"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -6760,7 +6755,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -6769,7 +6764,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -6778,7 +6773,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -6787,7 +6782,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -6796,7 +6791,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -6805,7 +6800,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -6814,7 +6809,7 @@
       <c r="F64" s="9"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -6823,7 +6818,7 @@
       <c r="F65" s="9"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -6832,7 +6827,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -6841,7 +6836,7 @@
       <c r="F67" s="9"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -6850,7 +6845,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6859,7 +6854,7 @@
       <c r="F69" s="9"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -6868,7 +6863,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -6877,7 +6872,7 @@
       <c r="F71" s="9"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -6886,7 +6881,7 @@
       <c r="F72" s="9"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -6895,7 +6890,7 @@
       <c r="F73" s="9"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -6904,7 +6899,7 @@
       <c r="F74" s="9"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -6913,7 +6908,7 @@
       <c r="F75" s="9"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -6922,7 +6917,7 @@
       <c r="F76" s="9"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -6931,7 +6926,7 @@
       <c r="F77" s="9"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -6940,7 +6935,7 @@
       <c r="F78" s="9"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -6949,7 +6944,7 @@
       <c r="F79" s="9"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -6958,7 +6953,7 @@
       <c r="F80" s="9"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -6967,7 +6962,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -6976,7 +6971,7 @@
       <c r="F82" s="9"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -6985,7 +6980,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -6994,7 +6989,7 @@
       <c r="F84" s="9"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -7003,7 +6998,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -7012,7 +7007,7 @@
       <c r="F86" s="9"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -7021,7 +7016,7 @@
       <c r="F87" s="9"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -7030,7 +7025,7 @@
       <c r="F88" s="9"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -7039,7 +7034,7 @@
       <c r="F89" s="9"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -7048,7 +7043,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -7057,7 +7052,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -7066,7 +7061,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -7075,7 +7070,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -7084,7 +7079,7 @@
       <c r="F94" s="9"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -7093,7 +7088,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -7102,7 +7097,7 @@
       <c r="F96" s="9"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -7111,7 +7106,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -7120,7 +7115,7 @@
       <c r="F98" s="9"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -7129,7 +7124,7 @@
       <c r="F99" s="9"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -7138,7 +7133,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -7147,7 +7142,7 @@
       <c r="F101" s="9"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -7156,7 +7151,7 @@
       <c r="F102" s="9"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -7165,7 +7160,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -7174,7 +7169,7 @@
       <c r="F104" s="9"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -7183,7 +7178,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -7192,7 +7187,7 @@
       <c r="F106" s="9"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -7201,7 +7196,7 @@
       <c r="F107" s="9"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -7210,7 +7205,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -7219,7 +7214,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -7228,7 +7223,7 @@
       <c r="F110" s="9"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -7237,7 +7232,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -7246,7 +7241,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -7255,7 +7250,7 @@
       <c r="F113" s="9"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -7264,7 +7259,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -7273,7 +7268,7 @@
       <c r="F115" s="9"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -7282,7 +7277,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -7291,7 +7286,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -7300,7 +7295,7 @@
       <c r="F118" s="9"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -7309,7 +7304,7 @@
       <c r="F119" s="9"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -7318,7 +7313,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -7327,7 +7322,7 @@
       <c r="F121" s="9"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -7336,7 +7331,7 @@
       <c r="F122" s="9"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -7345,7 +7340,7 @@
       <c r="F123" s="9"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -7354,7 +7349,7 @@
       <c r="F124" s="9"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -7363,7 +7358,7 @@
       <c r="F125" s="9"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -7372,7 +7367,7 @@
       <c r="F126" s="9"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -7381,7 +7376,7 @@
       <c r="F127" s="9"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -7390,7 +7385,7 @@
       <c r="F128" s="9"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -7399,7 +7394,7 @@
       <c r="F129" s="9"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -7408,7 +7403,7 @@
       <c r="F130" s="9"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -7417,7 +7412,7 @@
       <c r="F131" s="9"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -7426,7 +7421,7 @@
       <c r="F132" s="9"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -7435,7 +7430,7 @@
       <c r="F133" s="9"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -7444,7 +7439,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -7453,7 +7448,7 @@
       <c r="F135" s="9"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -7462,7 +7457,7 @@
       <c r="F136" s="9"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -7471,7 +7466,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -7480,7 +7475,7 @@
       <c r="F138" s="9"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -7489,7 +7484,7 @@
       <c r="F139" s="9"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -7498,7 +7493,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -7507,7 +7502,7 @@
       <c r="F141" s="9"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -7516,7 +7511,7 @@
       <c r="F142" s="9"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -7525,7 +7520,7 @@
       <c r="F143" s="9"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -7534,7 +7529,7 @@
       <c r="F144" s="9"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -7543,7 +7538,7 @@
       <c r="F145" s="9"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -7552,7 +7547,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -7561,7 +7556,7 @@
       <c r="F147" s="9"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -7570,7 +7565,7 @@
       <c r="F148" s="9"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -7579,7 +7574,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -7588,7 +7583,7 @@
       <c r="F150" s="9"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -7597,7 +7592,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -7606,7 +7601,7 @@
       <c r="F152" s="9"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -7615,7 +7610,7 @@
       <c r="F153" s="9"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -7624,7 +7619,7 @@
       <c r="F154" s="9"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -7633,7 +7628,7 @@
       <c r="F155" s="9"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -7642,7 +7637,7 @@
       <c r="F156" s="9"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -7651,7 +7646,7 @@
       <c r="F157" s="9"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -7660,7 +7655,7 @@
       <c r="F158" s="9"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -7669,7 +7664,7 @@
       <c r="F159" s="9"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -7678,7 +7673,7 @@
       <c r="F160" s="9"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -7687,7 +7682,7 @@
       <c r="F161" s="9"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -7696,7 +7691,7 @@
       <c r="F162" s="9"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -7705,7 +7700,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -7714,7 +7709,7 @@
       <c r="F164" s="9"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -7723,7 +7718,7 @@
       <c r="F165" s="9"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -7732,7 +7727,7 @@
       <c r="F166" s="9"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -7741,7 +7736,7 @@
       <c r="F167" s="9"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -7750,7 +7745,7 @@
       <c r="F168" s="9"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -7759,7 +7754,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -7768,7 +7763,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -7777,7 +7772,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -7786,7 +7781,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -7795,7 +7790,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -7804,7 +7799,7 @@
       <c r="F174" s="9"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -7813,7 +7808,7 @@
       <c r="F175" s="9"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -7822,7 +7817,7 @@
       <c r="F176" s="9"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -7831,7 +7826,7 @@
       <c r="F177" s="9"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -7840,7 +7835,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -7849,7 +7844,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -7858,7 +7853,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -7867,7 +7862,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -7876,7 +7871,7 @@
       <c r="F182" s="9"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -7885,7 +7880,7 @@
       <c r="F183" s="9"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -7894,7 +7889,7 @@
       <c r="F184" s="9"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -7903,7 +7898,7 @@
       <c r="F185" s="9"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -7912,7 +7907,7 @@
       <c r="F186" s="9"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -7921,7 +7916,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -7930,7 +7925,7 @@
       <c r="F188" s="9"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -7939,7 +7934,7 @@
       <c r="F189" s="9"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -7948,7 +7943,7 @@
       <c r="F190" s="9"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -7957,7 +7952,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -7966,7 +7961,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -7975,7 +7970,7 @@
       <c r="F193" s="9"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -7984,7 +7979,7 @@
       <c r="F194" s="9"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -7993,7 +7988,7 @@
       <c r="F195" s="9"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -8002,7 +7997,7 @@
       <c r="F196" s="9"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -8011,7 +8006,7 @@
       <c r="F197" s="9"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -8020,7 +8015,7 @@
       <c r="F198" s="9"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -8029,7 +8024,7 @@
       <c r="F199" s="9"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -8038,7 +8033,7 @@
       <c r="F200" s="9"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -8072,15 +8067,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="15.7265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7265625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8091,1002 +8086,1002 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="9"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="9"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="9"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="9"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="9"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="9"/>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="8"/>
       <c r="B123" s="9"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="8"/>
       <c r="B124" s="9"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="8"/>
       <c r="B125" s="9"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="8"/>
       <c r="B126" s="9"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="8"/>
       <c r="B127" s="9"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="8"/>
       <c r="B128" s="9"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="8"/>
       <c r="B129" s="9"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="8"/>
       <c r="B130" s="9"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="8"/>
       <c r="B131" s="9"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="8"/>
       <c r="B132" s="9"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="8"/>
       <c r="B134" s="9"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="8"/>
       <c r="B135" s="9"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="8"/>
       <c r="B136" s="9"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="8"/>
       <c r="B137" s="9"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="8"/>
       <c r="B138" s="9"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="8"/>
       <c r="B139" s="9"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="8"/>
       <c r="B140" s="9"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="8"/>
       <c r="B141" s="9"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="8"/>
       <c r="B142" s="9"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="8"/>
       <c r="B144" s="9"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="8"/>
       <c r="B145" s="9"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="9"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="8"/>
       <c r="B149" s="9"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="8"/>
       <c r="B150" s="9"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="8"/>
       <c r="B151" s="9"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="8"/>
       <c r="B152" s="9"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="8"/>
       <c r="B153" s="9"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="8"/>
       <c r="B154" s="9"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="8"/>
       <c r="B155" s="9"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
       <c r="B156" s="9"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="8"/>
       <c r="B157" s="9"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="8"/>
       <c r="B158" s="9"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="8"/>
       <c r="B159" s="9"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="8"/>
       <c r="B160" s="9"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="8"/>
       <c r="B162" s="9"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="8"/>
       <c r="B163" s="9"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="9"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="8"/>
       <c r="B166" s="9"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="8"/>
       <c r="B167" s="9"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="8"/>
       <c r="B168" s="9"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="8"/>
       <c r="B169" s="9"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="8"/>
       <c r="B170" s="9"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="8"/>
       <c r="B171" s="9"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="8"/>
       <c r="B172" s="9"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="8"/>
       <c r="B173" s="9"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="8"/>
       <c r="B174" s="9"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="8"/>
       <c r="B175" s="9"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="8"/>
       <c r="B176" s="9"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="8"/>
       <c r="B178" s="9"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="8"/>
       <c r="B180" s="9"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="8"/>
       <c r="B182" s="9"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="8"/>
       <c r="B183" s="9"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="8"/>
       <c r="B184" s="9"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="8"/>
       <c r="B185" s="9"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="8"/>
       <c r="B186" s="9"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="8"/>
       <c r="B187" s="9"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="8"/>
       <c r="B198" s="9"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="8"/>
       <c r="B199" s="9"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="8"/>
       <c r="B200" s="9"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="8"/>
       <c r="B201" s="9"/>
       <c r="C201" s="3"/>
@@ -9113,16 +9108,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="42" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="15.7265625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="45.7265625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -9136,1201 +9129,1201 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="23"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="23"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="23"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="23"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="23"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="23"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="23"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="23"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="23"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="23"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="23"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="23"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="23"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="23"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="23"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="23"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="23"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="23"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="23"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="23"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="23"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="23"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="23"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="23"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="23"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="23"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="23"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="23"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="23"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="23"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="23"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="23"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="23"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="23"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="23"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="23"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="23"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="23"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="23"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="23"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="23"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="23"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="23"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="23"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="23"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="23"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="23"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="23"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="23"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="22"/>
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="22"/>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="22"/>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="22"/>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="22"/>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="22"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="22"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>
@@ -10358,17 +10351,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="15.7265625" style="2" customWidth="1"/>
+    <col min="2" max="4" width="45.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
@@ -10382,1201 +10373,1201 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="23"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="23"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="22"/>
       <c r="C16" s="23"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="22"/>
       <c r="C17" s="23"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="22"/>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="23"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="23"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="23"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="23"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="23"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="23"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="22"/>
       <c r="C28" s="23"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="23"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="23"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="23"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
       <c r="C34" s="23"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="23"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="22"/>
       <c r="B37" s="22"/>
       <c r="C37" s="23"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="22"/>
       <c r="B38" s="22"/>
       <c r="C38" s="23"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="22"/>
       <c r="B39" s="22"/>
       <c r="C39" s="23"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="22"/>
       <c r="B40" s="22"/>
       <c r="C40" s="23"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="22"/>
       <c r="B41" s="22"/>
       <c r="C41" s="23"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="23"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="22"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="22"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="22"/>
       <c r="B47" s="22"/>
       <c r="C47" s="23"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="23"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="22"/>
       <c r="B49" s="22"/>
       <c r="C49" s="23"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="23"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="23"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="23"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="22"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="22"/>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="22"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="22"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="23"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="23"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="23"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="23"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="23"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="22"/>
       <c r="B64" s="22"/>
       <c r="C64" s="23"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="22"/>
       <c r="B65" s="22"/>
       <c r="C65" s="23"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="23"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="22"/>
       <c r="B67" s="22"/>
       <c r="C67" s="23"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="22"/>
       <c r="B68" s="22"/>
       <c r="C68" s="23"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="22"/>
       <c r="B69" s="22"/>
       <c r="C69" s="23"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="23"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="23"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="23"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="23"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="23"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="23"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="23"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="23"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="23"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="23"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="23"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="23"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="23"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="23"/>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="23"/>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="23"/>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="22"/>
       <c r="B94" s="22"/>
       <c r="C94" s="23"/>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="22"/>
       <c r="B95" s="22"/>
       <c r="C95" s="23"/>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="C96" s="23"/>
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="22"/>
       <c r="B97" s="22"/>
       <c r="C97" s="23"/>
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="22"/>
       <c r="B98" s="22"/>
       <c r="C98" s="23"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="23"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="23"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="23"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="22"/>
       <c r="B102" s="22"/>
       <c r="C102" s="23"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="22"/>
       <c r="B103" s="22"/>
       <c r="C103" s="23"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="22"/>
       <c r="B104" s="22"/>
       <c r="C104" s="23"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="22"/>
       <c r="B105" s="22"/>
       <c r="C105" s="23"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="22"/>
       <c r="B106" s="22"/>
       <c r="C106" s="23"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="22"/>
       <c r="B107" s="22"/>
       <c r="C107" s="23"/>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="22"/>
       <c r="B108" s="22"/>
       <c r="C108" s="23"/>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="22"/>
       <c r="B109" s="22"/>
       <c r="C109" s="23"/>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="23"/>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="22"/>
       <c r="B111" s="22"/>
       <c r="C111" s="23"/>
       <c r="D111" s="4"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="22"/>
       <c r="B112" s="22"/>
       <c r="C112" s="23"/>
       <c r="D112" s="4"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="22"/>
       <c r="B113" s="22"/>
       <c r="C113" s="23"/>
       <c r="D113" s="4"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="22"/>
       <c r="B114" s="22"/>
       <c r="C114" s="23"/>
       <c r="D114" s="4"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="22"/>
       <c r="B115" s="22"/>
       <c r="C115" s="23"/>
       <c r="D115" s="4"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="22"/>
       <c r="B116" s="22"/>
       <c r="C116" s="23"/>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="23"/>
       <c r="D117" s="4"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="23"/>
       <c r="D118" s="4"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="23"/>
       <c r="D119" s="4"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="23"/>
       <c r="D120" s="4"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="22"/>
       <c r="B121" s="22"/>
       <c r="C121" s="23"/>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="22"/>
       <c r="B122" s="22"/>
       <c r="C122" s="23"/>
       <c r="D122" s="4"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="22"/>
       <c r="B123" s="22"/>
       <c r="C123" s="23"/>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="22"/>
       <c r="B124" s="22"/>
       <c r="C124" s="23"/>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="22"/>
       <c r="B125" s="22"/>
       <c r="C125" s="23"/>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="22"/>
       <c r="B126" s="22"/>
       <c r="C126" s="23"/>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="23"/>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="22"/>
       <c r="B128" s="22"/>
       <c r="C128" s="23"/>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="22"/>
       <c r="B129" s="22"/>
       <c r="C129" s="23"/>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="22"/>
       <c r="B130" s="22"/>
       <c r="C130" s="23"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="22"/>
       <c r="B131" s="22"/>
       <c r="C131" s="23"/>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="23"/>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="23"/>
       <c r="D133" s="4"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="23"/>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="23"/>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="23"/>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="23"/>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="23"/>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="23"/>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="23"/>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="23"/>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="23"/>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="23"/>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="23"/>
       <c r="D144" s="4"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="23"/>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="23"/>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="23"/>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="23"/>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="23"/>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="23"/>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="23"/>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="23"/>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="23"/>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="23"/>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="23"/>
       <c r="D155" s="4"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="23"/>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="23"/>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="23"/>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="23"/>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="22"/>
       <c r="B160" s="22"/>
       <c r="C160" s="23"/>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="22"/>
       <c r="B161" s="22"/>
       <c r="C161" s="23"/>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="22"/>
       <c r="B162" s="22"/>
       <c r="C162" s="23"/>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="22"/>
       <c r="B163" s="22"/>
       <c r="C163" s="23"/>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="22"/>
       <c r="B164" s="22"/>
       <c r="C164" s="23"/>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="22"/>
       <c r="B165" s="22"/>
       <c r="C165" s="23"/>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="22"/>
       <c r="B166" s="22"/>
       <c r="C166" s="23"/>
       <c r="D166" s="4"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="22"/>
       <c r="B167" s="22"/>
       <c r="C167" s="23"/>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="22"/>
       <c r="B168" s="22"/>
       <c r="C168" s="23"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="22"/>
       <c r="B169" s="22"/>
       <c r="C169" s="23"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="22"/>
       <c r="B170" s="22"/>
       <c r="C170" s="23"/>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="22"/>
       <c r="B171" s="22"/>
       <c r="C171" s="23"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="22"/>
       <c r="B172" s="22"/>
       <c r="C172" s="23"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="22"/>
       <c r="B173" s="22"/>
       <c r="C173" s="23"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="22"/>
       <c r="B174" s="22"/>
       <c r="C174" s="23"/>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="22"/>
       <c r="B175" s="22"/>
       <c r="C175" s="23"/>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="22"/>
       <c r="B176" s="22"/>
       <c r="C176" s="23"/>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="22"/>
       <c r="B177" s="22"/>
       <c r="C177" s="23"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="22"/>
       <c r="B178" s="22"/>
       <c r="C178" s="23"/>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="22"/>
       <c r="B179" s="22"/>
       <c r="C179" s="23"/>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="22"/>
       <c r="B180" s="22"/>
       <c r="C180" s="23"/>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="22"/>
       <c r="B181" s="22"/>
       <c r="C181" s="23"/>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="22"/>
       <c r="B182" s="22"/>
       <c r="C182" s="23"/>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="22"/>
       <c r="B183" s="22"/>
       <c r="C183" s="23"/>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="22"/>
       <c r="B184" s="22"/>
       <c r="C184" s="23"/>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="22"/>
       <c r="B185" s="22"/>
       <c r="C185" s="23"/>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="22"/>
       <c r="B186" s="22"/>
       <c r="C186" s="23"/>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="22"/>
       <c r="B187" s="22"/>
       <c r="C187" s="23"/>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="22"/>
       <c r="B188" s="22"/>
       <c r="C188" s="23"/>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="22"/>
       <c r="B189" s="22"/>
       <c r="C189" s="23"/>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="22"/>
       <c r="B190" s="22"/>
       <c r="C190" s="23"/>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="22"/>
       <c r="B191" s="22"/>
       <c r="C191" s="23"/>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="22"/>
       <c r="B192" s="22"/>
       <c r="C192" s="23"/>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="22"/>
       <c r="B193" s="22"/>
       <c r="C193" s="23"/>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="22"/>
       <c r="B194" s="22"/>
       <c r="C194" s="23"/>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="22"/>
       <c r="B195" s="22"/>
       <c r="C195" s="23"/>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="22"/>
       <c r="B196" s="22"/>
       <c r="C196" s="23"/>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="22"/>
       <c r="B197" s="22"/>
       <c r="C197" s="23"/>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="22"/>
       <c r="B198" s="22"/>
       <c r="C198" s="23"/>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="22"/>
       <c r="B199" s="22"/>
       <c r="C199" s="23"/>
       <c r="D199" s="4"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="22"/>
       <c r="B200" s="22"/>
       <c r="C200" s="23"/>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="22"/>
       <c r="B201" s="22"/>
       <c r="C201" s="23"/>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC129F2A-2945-4CC6-BA73-2037B022EC2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387BA7B2-89D3-40C5-A2E6-ACB6DDB64EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3DAE5B-4643-4628-88A1-821A56922106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F1F7D-94D9-4778-98AF-C189B6316FC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58845" yWindow="1245" windowWidth="36765" windowHeight="13335" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65700" yWindow="2310" windowWidth="29880" windowHeight="11730" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +126,38 @@
   <si>
     <t>ID *</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Logging Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Development Logging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login to Console</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution Height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolution Depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Font Smoothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Download Processes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,7 +454,95 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="67">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1453,97 +1573,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="58" dataDxfId="56" totalsRowDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="66" dataDxfId="64" totalsRowDxfId="62" headerRowBorderDxfId="65" tableBorderDxfId="63">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="50"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="59"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:P201" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <autoFilter ref="A1:P201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="16">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username *" dataDxfId="41"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="Domain\Username - Attended Robot" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="License Type - Attended Robot" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="Create Personal Workspace - Attended Robot" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="Stand-alone License - Attended Robot" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="Domain\Username - Unattended Robot" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="Password - Unattended Robot" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+  <autoFilter ref="A1:X201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="24">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username *" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="Domain\Username - Attended Robot" dataDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="License Type - Attended Robot" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="Create Personal Workspace - Attended Robot" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="Stand-alone License - Attended Robot" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="Domain\Username - Unattended Robot" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="Password - Unattended Robot" dataDxfId="37"/>
+    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="36"/>
+    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="Logging Level" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="Allow Development Logging" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="Login to Console" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="Resolution Width" dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="Resolution Height" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="Resolution Depth" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="Font Smoothing" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="Auto Download Processes" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID *" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID *" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="14"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{F33CCB60-7A58-4399-B3F7-6F5E5E738088}" name="User ID" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{F33CCB60-7A58-4399-B3F7-6F5E5E738088}" name="User ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="User ID" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="User ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4082,10 +4210,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="V1" sqref="O1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4093,14 +4221,14 @@
     <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
     <col min="5" max="6" width="45.75" style="2" customWidth="1"/>
-    <col min="7" max="14" width="25.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="45.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.75" style="2"/>
+    <col min="7" max="22" width="25.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.75" style="2" customWidth="1"/>
+    <col min="24" max="24" width="45.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -4143,14 +4271,38 @@
       <c r="N1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4165,10 +4317,18 @@
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4183,10 +4343,18 @@
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -4201,10 +4369,18 @@
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -4219,10 +4395,18 @@
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4237,10 +4421,18 @@
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
       <c r="N6" s="25"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -4255,10 +4447,18 @@
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -4273,10 +4473,18 @@
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -4291,10 +4499,18 @@
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -4309,10 +4525,18 @@
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -4327,10 +4551,18 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -4345,10 +4577,18 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -4363,10 +4603,18 @@
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -4381,10 +4629,18 @@
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -4399,10 +4655,18 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -4417,10 +4681,18 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -4435,10 +4707,18 @@
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -4453,10 +4733,18 @@
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -4471,10 +4759,18 @@
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -4489,10 +4785,18 @@
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4507,10 +4811,18 @@
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -4525,10 +4837,18 @@
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -4543,10 +4863,18 @@
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -4561,10 +4889,18 @@
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -4579,10 +4915,18 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -4597,10 +4941,18 @@
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -4615,10 +4967,18 @@
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -4633,10 +4993,18 @@
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -4651,10 +5019,18 @@
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4669,10 +5045,18 @@
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4687,10 +5071,18 @@
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4705,10 +5097,18 @@
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -4723,10 +5123,18 @@
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
       <c r="N33" s="25"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4741,10 +5149,18 @@
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4759,10 +5175,18 @@
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
       <c r="N35" s="25"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4777,10 +5201,18 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4795,10 +5227,18 @@
       <c r="L37" s="25"/>
       <c r="M37" s="25"/>
       <c r="N37" s="25"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4813,10 +5253,18 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
       <c r="N38" s="25"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4831,10 +5279,18 @@
       <c r="L39" s="25"/>
       <c r="M39" s="25"/>
       <c r="N39" s="25"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4849,10 +5305,18 @@
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="25"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4867,10 +5331,18 @@
       <c r="L41" s="25"/>
       <c r="M41" s="25"/>
       <c r="N41" s="25"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4885,10 +5357,18 @@
       <c r="L42" s="25"/>
       <c r="M42" s="25"/>
       <c r="N42" s="25"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4903,10 +5383,18 @@
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="25"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4921,10 +5409,18 @@
       <c r="L44" s="25"/>
       <c r="M44" s="25"/>
       <c r="N44" s="25"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4939,10 +5435,18 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4957,10 +5461,18 @@
       <c r="L46" s="25"/>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4975,10 +5487,18 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4993,10 +5513,18 @@
       <c r="L48" s="25"/>
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5011,10 +5539,18 @@
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="25"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5029,10 +5565,18 @@
       <c r="L50" s="25"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5047,10 +5591,18 @@
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
       <c r="N51" s="25"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5065,10 +5617,18 @@
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
       <c r="N52" s="25"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5083,10 +5643,18 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5101,10 +5669,18 @@
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
       <c r="N54" s="25"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5119,10 +5695,18 @@
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5137,10 +5721,18 @@
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="25"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5155,10 +5747,18 @@
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5173,10 +5773,18 @@
       <c r="L58" s="25"/>
       <c r="M58" s="25"/>
       <c r="N58" s="25"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5191,10 +5799,18 @@
       <c r="L59" s="25"/>
       <c r="M59" s="25"/>
       <c r="N59" s="25"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5209,10 +5825,18 @@
       <c r="L60" s="25"/>
       <c r="M60" s="25"/>
       <c r="N60" s="25"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5227,10 +5851,18 @@
       <c r="L61" s="25"/>
       <c r="M61" s="25"/>
       <c r="N61" s="25"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5245,10 +5877,18 @@
       <c r="L62" s="25"/>
       <c r="M62" s="25"/>
       <c r="N62" s="25"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5263,10 +5903,18 @@
       <c r="L63" s="25"/>
       <c r="M63" s="25"/>
       <c r="N63" s="25"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5281,10 +5929,18 @@
       <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="N64" s="25"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5299,10 +5955,18 @@
       <c r="L65" s="25"/>
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5317,10 +5981,18 @@
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
       <c r="N66" s="25"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5335,10 +6007,18 @@
       <c r="L67" s="25"/>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5353,10 +6033,18 @@
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
       <c r="N68" s="25"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -5371,10 +6059,18 @@
       <c r="L69" s="25"/>
       <c r="M69" s="25"/>
       <c r="N69" s="25"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -5389,10 +6085,18 @@
       <c r="L70" s="25"/>
       <c r="M70" s="25"/>
       <c r="N70" s="25"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -5407,10 +6111,18 @@
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
       <c r="N71" s="25"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -5425,10 +6137,18 @@
       <c r="L72" s="25"/>
       <c r="M72" s="25"/>
       <c r="N72" s="25"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -5443,10 +6163,18 @@
       <c r="L73" s="25"/>
       <c r="M73" s="25"/>
       <c r="N73" s="25"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -5461,10 +6189,18 @@
       <c r="L74" s="25"/>
       <c r="M74" s="25"/>
       <c r="N74" s="25"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -5479,10 +6215,18 @@
       <c r="L75" s="25"/>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -5497,10 +6241,18 @@
       <c r="L76" s="25"/>
       <c r="M76" s="25"/>
       <c r="N76" s="25"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -5515,10 +6267,18 @@
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
       <c r="N77" s="25"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -5533,10 +6293,18 @@
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -5551,10 +6319,18 @@
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="25"/>
+      <c r="V79" s="25"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -5569,10 +6345,18 @@
       <c r="L80" s="25"/>
       <c r="M80" s="25"/>
       <c r="N80" s="25"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="25"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -5587,10 +6371,18 @@
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
       <c r="N81" s="25"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -5605,10 +6397,18 @@
       <c r="L82" s="25"/>
       <c r="M82" s="25"/>
       <c r="N82" s="25"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="25"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -5623,10 +6423,18 @@
       <c r="L83" s="25"/>
       <c r="M83" s="25"/>
       <c r="N83" s="25"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="25"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -5641,10 +6449,18 @@
       <c r="L84" s="25"/>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -5659,10 +6475,18 @@
       <c r="L85" s="25"/>
       <c r="M85" s="25"/>
       <c r="N85" s="25"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -5677,10 +6501,18 @@
       <c r="L86" s="25"/>
       <c r="M86" s="25"/>
       <c r="N86" s="25"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -5695,10 +6527,18 @@
       <c r="L87" s="25"/>
       <c r="M87" s="25"/>
       <c r="N87" s="25"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -5713,10 +6553,18 @@
       <c r="L88" s="25"/>
       <c r="M88" s="25"/>
       <c r="N88" s="25"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="25"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -5731,10 +6579,18 @@
       <c r="L89" s="25"/>
       <c r="M89" s="25"/>
       <c r="N89" s="25"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="25"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -5749,10 +6605,18 @@
       <c r="L90" s="25"/>
       <c r="M90" s="25"/>
       <c r="N90" s="25"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="25"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -5767,10 +6631,18 @@
       <c r="L91" s="25"/>
       <c r="M91" s="25"/>
       <c r="N91" s="25"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="25"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -5785,10 +6657,18 @@
       <c r="L92" s="25"/>
       <c r="M92" s="25"/>
       <c r="N92" s="25"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -5803,10 +6683,18 @@
       <c r="L93" s="25"/>
       <c r="M93" s="25"/>
       <c r="N93" s="25"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -5821,10 +6709,18 @@
       <c r="L94" s="25"/>
       <c r="M94" s="25"/>
       <c r="N94" s="25"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -5839,10 +6735,18 @@
       <c r="L95" s="25"/>
       <c r="M95" s="25"/>
       <c r="N95" s="25"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="25"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -5857,10 +6761,18 @@
       <c r="L96" s="25"/>
       <c r="M96" s="25"/>
       <c r="N96" s="25"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="25"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -5875,10 +6787,18 @@
       <c r="L97" s="25"/>
       <c r="M97" s="25"/>
       <c r="N97" s="25"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="25"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -5893,10 +6813,18 @@
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
       <c r="N98" s="25"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="25"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -5911,10 +6839,18 @@
       <c r="L99" s="25"/>
       <c r="M99" s="25"/>
       <c r="N99" s="25"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -5929,10 +6865,18 @@
       <c r="L100" s="25"/>
       <c r="M100" s="25"/>
       <c r="N100" s="25"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="25"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -5947,10 +6891,18 @@
       <c r="L101" s="25"/>
       <c r="M101" s="25"/>
       <c r="N101" s="25"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="25"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -5965,10 +6917,18 @@
       <c r="L102" s="25"/>
       <c r="M102" s="25"/>
       <c r="N102" s="25"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="25"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -5983,10 +6943,18 @@
       <c r="L103" s="25"/>
       <c r="M103" s="25"/>
       <c r="N103" s="25"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="25"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -6001,10 +6969,18 @@
       <c r="L104" s="25"/>
       <c r="M104" s="25"/>
       <c r="N104" s="25"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+      <c r="V104" s="25"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -6019,10 +6995,18 @@
       <c r="L105" s="25"/>
       <c r="M105" s="25"/>
       <c r="N105" s="25"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
+      <c r="T105" s="25"/>
+      <c r="U105" s="25"/>
+      <c r="V105" s="25"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -6037,10 +7021,18 @@
       <c r="L106" s="25"/>
       <c r="M106" s="25"/>
       <c r="N106" s="25"/>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
+      <c r="T106" s="25"/>
+      <c r="U106" s="25"/>
+      <c r="V106" s="25"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -6055,10 +7047,18 @@
       <c r="L107" s="25"/>
       <c r="M107" s="25"/>
       <c r="N107" s="25"/>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="25"/>
+      <c r="U107" s="25"/>
+      <c r="V107" s="25"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -6073,10 +7073,18 @@
       <c r="L108" s="25"/>
       <c r="M108" s="25"/>
       <c r="N108" s="25"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="3"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="25"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -6091,10 +7099,18 @@
       <c r="L109" s="25"/>
       <c r="M109" s="25"/>
       <c r="N109" s="25"/>
-      <c r="O109" s="3"/>
-      <c r="P109" s="3"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="25"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -6109,10 +7125,18 @@
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
       <c r="N110" s="25"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="25"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -6127,10 +7151,18 @@
       <c r="L111" s="25"/>
       <c r="M111" s="25"/>
       <c r="N111" s="25"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="25"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -6145,10 +7177,18 @@
       <c r="L112" s="25"/>
       <c r="M112" s="25"/>
       <c r="N112" s="25"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="25"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -6163,10 +7203,18 @@
       <c r="L113" s="25"/>
       <c r="M113" s="25"/>
       <c r="N113" s="25"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="25"/>
+      <c r="T113" s="25"/>
+      <c r="U113" s="25"/>
+      <c r="V113" s="25"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -6181,10 +7229,18 @@
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
       <c r="N114" s="25"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
+      <c r="T114" s="25"/>
+      <c r="U114" s="25"/>
+      <c r="V114" s="25"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -6199,10 +7255,18 @@
       <c r="L115" s="25"/>
       <c r="M115" s="25"/>
       <c r="N115" s="25"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="25"/>
+      <c r="U115" s="25"/>
+      <c r="V115" s="25"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -6217,10 +7281,18 @@
       <c r="L116" s="25"/>
       <c r="M116" s="25"/>
       <c r="N116" s="25"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="25"/>
+      <c r="V116" s="25"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -6235,10 +7307,18 @@
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
       <c r="N117" s="25"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="25"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="25"/>
+      <c r="T117" s="25"/>
+      <c r="U117" s="25"/>
+      <c r="V117" s="25"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -6253,10 +7333,18 @@
       <c r="L118" s="25"/>
       <c r="M118" s="25"/>
       <c r="N118" s="25"/>
-      <c r="O118" s="3"/>
-      <c r="P118" s="3"/>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
+      <c r="R118" s="25"/>
+      <c r="S118" s="25"/>
+      <c r="T118" s="25"/>
+      <c r="U118" s="25"/>
+      <c r="V118" s="25"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -6271,10 +7359,18 @@
       <c r="L119" s="25"/>
       <c r="M119" s="25"/>
       <c r="N119" s="25"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="3"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="25"/>
+      <c r="T119" s="25"/>
+      <c r="U119" s="25"/>
+      <c r="V119" s="25"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -6289,10 +7385,18 @@
       <c r="L120" s="25"/>
       <c r="M120" s="25"/>
       <c r="N120" s="25"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O120" s="25"/>
+      <c r="P120" s="25"/>
+      <c r="Q120" s="25"/>
+      <c r="R120" s="25"/>
+      <c r="S120" s="25"/>
+      <c r="T120" s="25"/>
+      <c r="U120" s="25"/>
+      <c r="V120" s="25"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -6307,10 +7411,18 @@
       <c r="L121" s="25"/>
       <c r="M121" s="25"/>
       <c r="N121" s="25"/>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O121" s="25"/>
+      <c r="P121" s="25"/>
+      <c r="Q121" s="25"/>
+      <c r="R121" s="25"/>
+      <c r="S121" s="25"/>
+      <c r="T121" s="25"/>
+      <c r="U121" s="25"/>
+      <c r="V121" s="25"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -6325,10 +7437,18 @@
       <c r="L122" s="25"/>
       <c r="M122" s="25"/>
       <c r="N122" s="25"/>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="25"/>
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="25"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -6343,10 +7463,18 @@
       <c r="L123" s="25"/>
       <c r="M123" s="25"/>
       <c r="N123" s="25"/>
-      <c r="O123" s="3"/>
-      <c r="P123" s="3"/>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O123" s="25"/>
+      <c r="P123" s="25"/>
+      <c r="Q123" s="25"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="25"/>
+      <c r="T123" s="25"/>
+      <c r="U123" s="25"/>
+      <c r="V123" s="25"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -6361,10 +7489,18 @@
       <c r="L124" s="25"/>
       <c r="M124" s="25"/>
       <c r="N124" s="25"/>
-      <c r="O124" s="3"/>
-      <c r="P124" s="3"/>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
+      <c r="T124" s="25"/>
+      <c r="U124" s="25"/>
+      <c r="V124" s="25"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -6379,10 +7515,18 @@
       <c r="L125" s="25"/>
       <c r="M125" s="25"/>
       <c r="N125" s="25"/>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="25"/>
+      <c r="T125" s="25"/>
+      <c r="U125" s="25"/>
+      <c r="V125" s="25"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -6397,10 +7541,18 @@
       <c r="L126" s="25"/>
       <c r="M126" s="25"/>
       <c r="N126" s="25"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O126" s="25"/>
+      <c r="P126" s="25"/>
+      <c r="Q126" s="25"/>
+      <c r="R126" s="25"/>
+      <c r="S126" s="25"/>
+      <c r="T126" s="25"/>
+      <c r="U126" s="25"/>
+      <c r="V126" s="25"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -6415,10 +7567,18 @@
       <c r="L127" s="25"/>
       <c r="M127" s="25"/>
       <c r="N127" s="25"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O127" s="25"/>
+      <c r="P127" s="25"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="25"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="25"/>
+      <c r="U127" s="25"/>
+      <c r="V127" s="25"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -6433,10 +7593,18 @@
       <c r="L128" s="25"/>
       <c r="M128" s="25"/>
       <c r="N128" s="25"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="25"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -6451,10 +7619,18 @@
       <c r="L129" s="25"/>
       <c r="M129" s="25"/>
       <c r="N129" s="25"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="25"/>
+      <c r="U129" s="25"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -6469,10 +7645,18 @@
       <c r="L130" s="25"/>
       <c r="M130" s="25"/>
       <c r="N130" s="25"/>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="25"/>
+      <c r="U130" s="25"/>
+      <c r="V130" s="25"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -6487,10 +7671,18 @@
       <c r="L131" s="25"/>
       <c r="M131" s="25"/>
       <c r="N131" s="25"/>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O131" s="25"/>
+      <c r="P131" s="25"/>
+      <c r="Q131" s="25"/>
+      <c r="R131" s="25"/>
+      <c r="S131" s="25"/>
+      <c r="T131" s="25"/>
+      <c r="U131" s="25"/>
+      <c r="V131" s="25"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -6505,10 +7697,18 @@
       <c r="L132" s="25"/>
       <c r="M132" s="25"/>
       <c r="N132" s="25"/>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O132" s="25"/>
+      <c r="P132" s="25"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="25"/>
+      <c r="S132" s="25"/>
+      <c r="T132" s="25"/>
+      <c r="U132" s="25"/>
+      <c r="V132" s="25"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -6523,10 +7723,18 @@
       <c r="L133" s="25"/>
       <c r="M133" s="25"/>
       <c r="N133" s="25"/>
-      <c r="O133" s="3"/>
-      <c r="P133" s="3"/>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O133" s="25"/>
+      <c r="P133" s="25"/>
+      <c r="Q133" s="25"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
+      <c r="T133" s="25"/>
+      <c r="U133" s="25"/>
+      <c r="V133" s="25"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -6541,10 +7749,18 @@
       <c r="L134" s="25"/>
       <c r="M134" s="25"/>
       <c r="N134" s="25"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
+      <c r="T134" s="25"/>
+      <c r="U134" s="25"/>
+      <c r="V134" s="25"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -6559,10 +7775,18 @@
       <c r="L135" s="25"/>
       <c r="M135" s="25"/>
       <c r="N135" s="25"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
+      <c r="T135" s="25"/>
+      <c r="U135" s="25"/>
+      <c r="V135" s="25"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -6577,10 +7801,18 @@
       <c r="L136" s="25"/>
       <c r="M136" s="25"/>
       <c r="N136" s="25"/>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O136" s="25"/>
+      <c r="P136" s="25"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="25"/>
+      <c r="T136" s="25"/>
+      <c r="U136" s="25"/>
+      <c r="V136" s="25"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -6595,10 +7827,18 @@
       <c r="L137" s="25"/>
       <c r="M137" s="25"/>
       <c r="N137" s="25"/>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O137" s="25"/>
+      <c r="P137" s="25"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
+      <c r="T137" s="25"/>
+      <c r="U137" s="25"/>
+      <c r="V137" s="25"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -6613,10 +7853,18 @@
       <c r="L138" s="25"/>
       <c r="M138" s="25"/>
       <c r="N138" s="25"/>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O138" s="25"/>
+      <c r="P138" s="25"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="25"/>
+      <c r="U138" s="25"/>
+      <c r="V138" s="25"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -6631,10 +7879,18 @@
       <c r="L139" s="25"/>
       <c r="M139" s="25"/>
       <c r="N139" s="25"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O139" s="25"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="25"/>
+      <c r="T139" s="25"/>
+      <c r="U139" s="25"/>
+      <c r="V139" s="25"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -6649,10 +7905,18 @@
       <c r="L140" s="25"/>
       <c r="M140" s="25"/>
       <c r="N140" s="25"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="25"/>
+      <c r="S140" s="25"/>
+      <c r="T140" s="25"/>
+      <c r="U140" s="25"/>
+      <c r="V140" s="25"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -6667,10 +7931,18 @@
       <c r="L141" s="25"/>
       <c r="M141" s="25"/>
       <c r="N141" s="25"/>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O141" s="25"/>
+      <c r="P141" s="25"/>
+      <c r="Q141" s="25"/>
+      <c r="R141" s="25"/>
+      <c r="S141" s="25"/>
+      <c r="T141" s="25"/>
+      <c r="U141" s="25"/>
+      <c r="V141" s="25"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -6685,10 +7957,18 @@
       <c r="L142" s="25"/>
       <c r="M142" s="25"/>
       <c r="N142" s="25"/>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O142" s="25"/>
+      <c r="P142" s="25"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="25"/>
+      <c r="S142" s="25"/>
+      <c r="T142" s="25"/>
+      <c r="U142" s="25"/>
+      <c r="V142" s="25"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -6703,10 +7983,18 @@
       <c r="L143" s="25"/>
       <c r="M143" s="25"/>
       <c r="N143" s="25"/>
-      <c r="O143" s="3"/>
-      <c r="P143" s="3"/>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O143" s="25"/>
+      <c r="P143" s="25"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="25"/>
+      <c r="S143" s="25"/>
+      <c r="T143" s="25"/>
+      <c r="U143" s="25"/>
+      <c r="V143" s="25"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -6721,10 +8009,18 @@
       <c r="L144" s="25"/>
       <c r="M144" s="25"/>
       <c r="N144" s="25"/>
-      <c r="O144" s="3"/>
-      <c r="P144" s="3"/>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O144" s="25"/>
+      <c r="P144" s="25"/>
+      <c r="Q144" s="25"/>
+      <c r="R144" s="25"/>
+      <c r="S144" s="25"/>
+      <c r="T144" s="25"/>
+      <c r="U144" s="25"/>
+      <c r="V144" s="25"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -6739,10 +8035,18 @@
       <c r="L145" s="25"/>
       <c r="M145" s="25"/>
       <c r="N145" s="25"/>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O145" s="25"/>
+      <c r="P145" s="25"/>
+      <c r="Q145" s="25"/>
+      <c r="R145" s="25"/>
+      <c r="S145" s="25"/>
+      <c r="T145" s="25"/>
+      <c r="U145" s="25"/>
+      <c r="V145" s="25"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -6757,10 +8061,18 @@
       <c r="L146" s="25"/>
       <c r="M146" s="25"/>
       <c r="N146" s="25"/>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O146" s="25"/>
+      <c r="P146" s="25"/>
+      <c r="Q146" s="25"/>
+      <c r="R146" s="25"/>
+      <c r="S146" s="25"/>
+      <c r="T146" s="25"/>
+      <c r="U146" s="25"/>
+      <c r="V146" s="25"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -6775,10 +8087,18 @@
       <c r="L147" s="25"/>
       <c r="M147" s="25"/>
       <c r="N147" s="25"/>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O147" s="25"/>
+      <c r="P147" s="25"/>
+      <c r="Q147" s="25"/>
+      <c r="R147" s="25"/>
+      <c r="S147" s="25"/>
+      <c r="T147" s="25"/>
+      <c r="U147" s="25"/>
+      <c r="V147" s="25"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -6793,10 +8113,18 @@
       <c r="L148" s="25"/>
       <c r="M148" s="25"/>
       <c r="N148" s="25"/>
-      <c r="O148" s="3"/>
-      <c r="P148" s="3"/>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O148" s="25"/>
+      <c r="P148" s="25"/>
+      <c r="Q148" s="25"/>
+      <c r="R148" s="25"/>
+      <c r="S148" s="25"/>
+      <c r="T148" s="25"/>
+      <c r="U148" s="25"/>
+      <c r="V148" s="25"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -6811,10 +8139,18 @@
       <c r="L149" s="25"/>
       <c r="M149" s="25"/>
       <c r="N149" s="25"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O149" s="25"/>
+      <c r="P149" s="25"/>
+      <c r="Q149" s="25"/>
+      <c r="R149" s="25"/>
+      <c r="S149" s="25"/>
+      <c r="T149" s="25"/>
+      <c r="U149" s="25"/>
+      <c r="V149" s="25"/>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -6829,10 +8165,18 @@
       <c r="L150" s="25"/>
       <c r="M150" s="25"/>
       <c r="N150" s="25"/>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O150" s="25"/>
+      <c r="P150" s="25"/>
+      <c r="Q150" s="25"/>
+      <c r="R150" s="25"/>
+      <c r="S150" s="25"/>
+      <c r="T150" s="25"/>
+      <c r="U150" s="25"/>
+      <c r="V150" s="25"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -6847,10 +8191,18 @@
       <c r="L151" s="25"/>
       <c r="M151" s="25"/>
       <c r="N151" s="25"/>
-      <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O151" s="25"/>
+      <c r="P151" s="25"/>
+      <c r="Q151" s="25"/>
+      <c r="R151" s="25"/>
+      <c r="S151" s="25"/>
+      <c r="T151" s="25"/>
+      <c r="U151" s="25"/>
+      <c r="V151" s="25"/>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -6865,10 +8217,18 @@
       <c r="L152" s="25"/>
       <c r="M152" s="25"/>
       <c r="N152" s="25"/>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O152" s="25"/>
+      <c r="P152" s="25"/>
+      <c r="Q152" s="25"/>
+      <c r="R152" s="25"/>
+      <c r="S152" s="25"/>
+      <c r="T152" s="25"/>
+      <c r="U152" s="25"/>
+      <c r="V152" s="25"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -6883,10 +8243,18 @@
       <c r="L153" s="25"/>
       <c r="M153" s="25"/>
       <c r="N153" s="25"/>
-      <c r="O153" s="3"/>
-      <c r="P153" s="3"/>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O153" s="25"/>
+      <c r="P153" s="25"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
+      <c r="T153" s="25"/>
+      <c r="U153" s="25"/>
+      <c r="V153" s="25"/>
+      <c r="W153" s="3"/>
+      <c r="X153" s="3"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -6901,10 +8269,18 @@
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
       <c r="N154" s="25"/>
-      <c r="O154" s="3"/>
-      <c r="P154" s="3"/>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O154" s="25"/>
+      <c r="P154" s="25"/>
+      <c r="Q154" s="25"/>
+      <c r="R154" s="25"/>
+      <c r="S154" s="25"/>
+      <c r="T154" s="25"/>
+      <c r="U154" s="25"/>
+      <c r="V154" s="25"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -6919,10 +8295,18 @@
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
       <c r="N155" s="25"/>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O155" s="25"/>
+      <c r="P155" s="25"/>
+      <c r="Q155" s="25"/>
+      <c r="R155" s="25"/>
+      <c r="S155" s="25"/>
+      <c r="T155" s="25"/>
+      <c r="U155" s="25"/>
+      <c r="V155" s="25"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -6937,10 +8321,18 @@
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
       <c r="N156" s="25"/>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O156" s="25"/>
+      <c r="P156" s="25"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="25"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -6955,10 +8347,18 @@
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
       <c r="N157" s="25"/>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O157" s="25"/>
+      <c r="P157" s="25"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="25"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -6973,10 +8373,18 @@
       <c r="L158" s="25"/>
       <c r="M158" s="25"/>
       <c r="N158" s="25"/>
-      <c r="O158" s="3"/>
-      <c r="P158" s="3"/>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O158" s="25"/>
+      <c r="P158" s="25"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="25"/>
+      <c r="V158" s="25"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -6991,10 +8399,18 @@
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
       <c r="N159" s="25"/>
-      <c r="O159" s="3"/>
-      <c r="P159" s="3"/>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O159" s="25"/>
+      <c r="P159" s="25"/>
+      <c r="Q159" s="25"/>
+      <c r="R159" s="25"/>
+      <c r="S159" s="25"/>
+      <c r="T159" s="25"/>
+      <c r="U159" s="25"/>
+      <c r="V159" s="25"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -7009,10 +8425,18 @@
       <c r="L160" s="25"/>
       <c r="M160" s="25"/>
       <c r="N160" s="25"/>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O160" s="25"/>
+      <c r="P160" s="25"/>
+      <c r="Q160" s="25"/>
+      <c r="R160" s="25"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="25"/>
+      <c r="U160" s="25"/>
+      <c r="V160" s="25"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -7027,10 +8451,18 @@
       <c r="L161" s="25"/>
       <c r="M161" s="25"/>
       <c r="N161" s="25"/>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O161" s="25"/>
+      <c r="P161" s="25"/>
+      <c r="Q161" s="25"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="25"/>
+      <c r="T161" s="25"/>
+      <c r="U161" s="25"/>
+      <c r="V161" s="25"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -7045,10 +8477,18 @@
       <c r="L162" s="25"/>
       <c r="M162" s="25"/>
       <c r="N162" s="25"/>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O162" s="25"/>
+      <c r="P162" s="25"/>
+      <c r="Q162" s="25"/>
+      <c r="R162" s="25"/>
+      <c r="S162" s="25"/>
+      <c r="T162" s="25"/>
+      <c r="U162" s="25"/>
+      <c r="V162" s="25"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -7063,10 +8503,18 @@
       <c r="L163" s="25"/>
       <c r="M163" s="25"/>
       <c r="N163" s="25"/>
-      <c r="O163" s="3"/>
-      <c r="P163" s="3"/>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O163" s="25"/>
+      <c r="P163" s="25"/>
+      <c r="Q163" s="25"/>
+      <c r="R163" s="25"/>
+      <c r="S163" s="25"/>
+      <c r="T163" s="25"/>
+      <c r="U163" s="25"/>
+      <c r="V163" s="25"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -7081,10 +8529,18 @@
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
       <c r="N164" s="25"/>
-      <c r="O164" s="3"/>
-      <c r="P164" s="3"/>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O164" s="25"/>
+      <c r="P164" s="25"/>
+      <c r="Q164" s="25"/>
+      <c r="R164" s="25"/>
+      <c r="S164" s="25"/>
+      <c r="T164" s="25"/>
+      <c r="U164" s="25"/>
+      <c r="V164" s="25"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -7099,10 +8555,18 @@
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
       <c r="N165" s="25"/>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O165" s="25"/>
+      <c r="P165" s="25"/>
+      <c r="Q165" s="25"/>
+      <c r="R165" s="25"/>
+      <c r="S165" s="25"/>
+      <c r="T165" s="25"/>
+      <c r="U165" s="25"/>
+      <c r="V165" s="25"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -7117,10 +8581,18 @@
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
       <c r="N166" s="25"/>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O166" s="25"/>
+      <c r="P166" s="25"/>
+      <c r="Q166" s="25"/>
+      <c r="R166" s="25"/>
+      <c r="S166" s="25"/>
+      <c r="T166" s="25"/>
+      <c r="U166" s="25"/>
+      <c r="V166" s="25"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -7135,10 +8607,18 @@
       <c r="L167" s="25"/>
       <c r="M167" s="25"/>
       <c r="N167" s="25"/>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O167" s="25"/>
+      <c r="P167" s="25"/>
+      <c r="Q167" s="25"/>
+      <c r="R167" s="25"/>
+      <c r="S167" s="25"/>
+      <c r="T167" s="25"/>
+      <c r="U167" s="25"/>
+      <c r="V167" s="25"/>
+      <c r="W167" s="3"/>
+      <c r="X167" s="3"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -7153,10 +8633,18 @@
       <c r="L168" s="25"/>
       <c r="M168" s="25"/>
       <c r="N168" s="25"/>
-      <c r="O168" s="3"/>
-      <c r="P168" s="3"/>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O168" s="25"/>
+      <c r="P168" s="25"/>
+      <c r="Q168" s="25"/>
+      <c r="R168" s="25"/>
+      <c r="S168" s="25"/>
+      <c r="T168" s="25"/>
+      <c r="U168" s="25"/>
+      <c r="V168" s="25"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -7171,10 +8659,18 @@
       <c r="L169" s="25"/>
       <c r="M169" s="25"/>
       <c r="N169" s="25"/>
-      <c r="O169" s="3"/>
-      <c r="P169" s="3"/>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O169" s="25"/>
+      <c r="P169" s="25"/>
+      <c r="Q169" s="25"/>
+      <c r="R169" s="25"/>
+      <c r="S169" s="25"/>
+      <c r="T169" s="25"/>
+      <c r="U169" s="25"/>
+      <c r="V169" s="25"/>
+      <c r="W169" s="3"/>
+      <c r="X169" s="3"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -7189,10 +8685,18 @@
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
       <c r="N170" s="25"/>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O170" s="25"/>
+      <c r="P170" s="25"/>
+      <c r="Q170" s="25"/>
+      <c r="R170" s="25"/>
+      <c r="S170" s="25"/>
+      <c r="T170" s="25"/>
+      <c r="U170" s="25"/>
+      <c r="V170" s="25"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -7207,10 +8711,18 @@
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
       <c r="N171" s="25"/>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O171" s="25"/>
+      <c r="P171" s="25"/>
+      <c r="Q171" s="25"/>
+      <c r="R171" s="25"/>
+      <c r="S171" s="25"/>
+      <c r="T171" s="25"/>
+      <c r="U171" s="25"/>
+      <c r="V171" s="25"/>
+      <c r="W171" s="3"/>
+      <c r="X171" s="3"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -7225,10 +8737,18 @@
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
       <c r="N172" s="25"/>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O172" s="25"/>
+      <c r="P172" s="25"/>
+      <c r="Q172" s="25"/>
+      <c r="R172" s="25"/>
+      <c r="S172" s="25"/>
+      <c r="T172" s="25"/>
+      <c r="U172" s="25"/>
+      <c r="V172" s="25"/>
+      <c r="W172" s="3"/>
+      <c r="X172" s="3"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -7243,10 +8763,18 @@
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
       <c r="N173" s="25"/>
-      <c r="O173" s="3"/>
-      <c r="P173" s="3"/>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O173" s="25"/>
+      <c r="P173" s="25"/>
+      <c r="Q173" s="25"/>
+      <c r="R173" s="25"/>
+      <c r="S173" s="25"/>
+      <c r="T173" s="25"/>
+      <c r="U173" s="25"/>
+      <c r="V173" s="25"/>
+      <c r="W173" s="3"/>
+      <c r="X173" s="3"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -7261,10 +8789,18 @@
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
       <c r="N174" s="25"/>
-      <c r="O174" s="3"/>
-      <c r="P174" s="3"/>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O174" s="25"/>
+      <c r="P174" s="25"/>
+      <c r="Q174" s="25"/>
+      <c r="R174" s="25"/>
+      <c r="S174" s="25"/>
+      <c r="T174" s="25"/>
+      <c r="U174" s="25"/>
+      <c r="V174" s="25"/>
+      <c r="W174" s="3"/>
+      <c r="X174" s="3"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -7279,10 +8815,18 @@
       <c r="L175" s="25"/>
       <c r="M175" s="25"/>
       <c r="N175" s="25"/>
-      <c r="O175" s="3"/>
-      <c r="P175" s="3"/>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O175" s="25"/>
+      <c r="P175" s="25"/>
+      <c r="Q175" s="25"/>
+      <c r="R175" s="25"/>
+      <c r="S175" s="25"/>
+      <c r="T175" s="25"/>
+      <c r="U175" s="25"/>
+      <c r="V175" s="25"/>
+      <c r="W175" s="3"/>
+      <c r="X175" s="3"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -7297,10 +8841,18 @@
       <c r="L176" s="25"/>
       <c r="M176" s="25"/>
       <c r="N176" s="25"/>
-      <c r="O176" s="3"/>
-      <c r="P176" s="3"/>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O176" s="25"/>
+      <c r="P176" s="25"/>
+      <c r="Q176" s="25"/>
+      <c r="R176" s="25"/>
+      <c r="S176" s="25"/>
+      <c r="T176" s="25"/>
+      <c r="U176" s="25"/>
+      <c r="V176" s="25"/>
+      <c r="W176" s="3"/>
+      <c r="X176" s="3"/>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -7315,10 +8867,18 @@
       <c r="L177" s="25"/>
       <c r="M177" s="25"/>
       <c r="N177" s="25"/>
-      <c r="O177" s="3"/>
-      <c r="P177" s="3"/>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O177" s="25"/>
+      <c r="P177" s="25"/>
+      <c r="Q177" s="25"/>
+      <c r="R177" s="25"/>
+      <c r="S177" s="25"/>
+      <c r="T177" s="25"/>
+      <c r="U177" s="25"/>
+      <c r="V177" s="25"/>
+      <c r="W177" s="3"/>
+      <c r="X177" s="3"/>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -7333,10 +8893,18 @@
       <c r="L178" s="25"/>
       <c r="M178" s="25"/>
       <c r="N178" s="25"/>
-      <c r="O178" s="3"/>
-      <c r="P178" s="3"/>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O178" s="25"/>
+      <c r="P178" s="25"/>
+      <c r="Q178" s="25"/>
+      <c r="R178" s="25"/>
+      <c r="S178" s="25"/>
+      <c r="T178" s="25"/>
+      <c r="U178" s="25"/>
+      <c r="V178" s="25"/>
+      <c r="W178" s="3"/>
+      <c r="X178" s="3"/>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -7351,10 +8919,18 @@
       <c r="L179" s="25"/>
       <c r="M179" s="25"/>
       <c r="N179" s="25"/>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O179" s="25"/>
+      <c r="P179" s="25"/>
+      <c r="Q179" s="25"/>
+      <c r="R179" s="25"/>
+      <c r="S179" s="25"/>
+      <c r="T179" s="25"/>
+      <c r="U179" s="25"/>
+      <c r="V179" s="25"/>
+      <c r="W179" s="3"/>
+      <c r="X179" s="3"/>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -7369,10 +8945,18 @@
       <c r="L180" s="25"/>
       <c r="M180" s="25"/>
       <c r="N180" s="25"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O180" s="25"/>
+      <c r="P180" s="25"/>
+      <c r="Q180" s="25"/>
+      <c r="R180" s="25"/>
+      <c r="S180" s="25"/>
+      <c r="T180" s="25"/>
+      <c r="U180" s="25"/>
+      <c r="V180" s="25"/>
+      <c r="W180" s="3"/>
+      <c r="X180" s="3"/>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -7387,10 +8971,18 @@
       <c r="L181" s="25"/>
       <c r="M181" s="25"/>
       <c r="N181" s="25"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O181" s="25"/>
+      <c r="P181" s="25"/>
+      <c r="Q181" s="25"/>
+      <c r="R181" s="25"/>
+      <c r="S181" s="25"/>
+      <c r="T181" s="25"/>
+      <c r="U181" s="25"/>
+      <c r="V181" s="25"/>
+      <c r="W181" s="3"/>
+      <c r="X181" s="3"/>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -7405,10 +8997,18 @@
       <c r="L182" s="25"/>
       <c r="M182" s="25"/>
       <c r="N182" s="25"/>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3"/>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O182" s="25"/>
+      <c r="P182" s="25"/>
+      <c r="Q182" s="25"/>
+      <c r="R182" s="25"/>
+      <c r="S182" s="25"/>
+      <c r="T182" s="25"/>
+      <c r="U182" s="25"/>
+      <c r="V182" s="25"/>
+      <c r="W182" s="3"/>
+      <c r="X182" s="3"/>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -7423,10 +9023,18 @@
       <c r="L183" s="25"/>
       <c r="M183" s="25"/>
       <c r="N183" s="25"/>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O183" s="25"/>
+      <c r="P183" s="25"/>
+      <c r="Q183" s="25"/>
+      <c r="R183" s="25"/>
+      <c r="S183" s="25"/>
+      <c r="T183" s="25"/>
+      <c r="U183" s="25"/>
+      <c r="V183" s="25"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -7441,10 +9049,18 @@
       <c r="L184" s="25"/>
       <c r="M184" s="25"/>
       <c r="N184" s="25"/>
-      <c r="O184" s="3"/>
-      <c r="P184" s="3"/>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O184" s="25"/>
+      <c r="P184" s="25"/>
+      <c r="Q184" s="25"/>
+      <c r="R184" s="25"/>
+      <c r="S184" s="25"/>
+      <c r="T184" s="25"/>
+      <c r="U184" s="25"/>
+      <c r="V184" s="25"/>
+      <c r="W184" s="3"/>
+      <c r="X184" s="3"/>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -7459,10 +9075,18 @@
       <c r="L185" s="25"/>
       <c r="M185" s="25"/>
       <c r="N185" s="25"/>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O185" s="25"/>
+      <c r="P185" s="25"/>
+      <c r="Q185" s="25"/>
+      <c r="R185" s="25"/>
+      <c r="S185" s="25"/>
+      <c r="T185" s="25"/>
+      <c r="U185" s="25"/>
+      <c r="V185" s="25"/>
+      <c r="W185" s="3"/>
+      <c r="X185" s="3"/>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -7477,10 +9101,18 @@
       <c r="L186" s="25"/>
       <c r="M186" s="25"/>
       <c r="N186" s="25"/>
-      <c r="O186" s="3"/>
-      <c r="P186" s="3"/>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O186" s="25"/>
+      <c r="P186" s="25"/>
+      <c r="Q186" s="25"/>
+      <c r="R186" s="25"/>
+      <c r="S186" s="25"/>
+      <c r="T186" s="25"/>
+      <c r="U186" s="25"/>
+      <c r="V186" s="25"/>
+      <c r="W186" s="3"/>
+      <c r="X186" s="3"/>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -7495,10 +9127,18 @@
       <c r="L187" s="25"/>
       <c r="M187" s="25"/>
       <c r="N187" s="25"/>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O187" s="25"/>
+      <c r="P187" s="25"/>
+      <c r="Q187" s="25"/>
+      <c r="R187" s="25"/>
+      <c r="S187" s="25"/>
+      <c r="T187" s="25"/>
+      <c r="U187" s="25"/>
+      <c r="V187" s="25"/>
+      <c r="W187" s="3"/>
+      <c r="X187" s="3"/>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -7513,10 +9153,18 @@
       <c r="L188" s="25"/>
       <c r="M188" s="25"/>
       <c r="N188" s="25"/>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O188" s="25"/>
+      <c r="P188" s="25"/>
+      <c r="Q188" s="25"/>
+      <c r="R188" s="25"/>
+      <c r="S188" s="25"/>
+      <c r="T188" s="25"/>
+      <c r="U188" s="25"/>
+      <c r="V188" s="25"/>
+      <c r="W188" s="3"/>
+      <c r="X188" s="3"/>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -7531,10 +9179,18 @@
       <c r="L189" s="25"/>
       <c r="M189" s="25"/>
       <c r="N189" s="25"/>
-      <c r="O189" s="3"/>
-      <c r="P189" s="3"/>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O189" s="25"/>
+      <c r="P189" s="25"/>
+      <c r="Q189" s="25"/>
+      <c r="R189" s="25"/>
+      <c r="S189" s="25"/>
+      <c r="T189" s="25"/>
+      <c r="U189" s="25"/>
+      <c r="V189" s="25"/>
+      <c r="W189" s="3"/>
+      <c r="X189" s="3"/>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -7549,10 +9205,18 @@
       <c r="L190" s="25"/>
       <c r="M190" s="25"/>
       <c r="N190" s="25"/>
-      <c r="O190" s="3"/>
-      <c r="P190" s="3"/>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O190" s="25"/>
+      <c r="P190" s="25"/>
+      <c r="Q190" s="25"/>
+      <c r="R190" s="25"/>
+      <c r="S190" s="25"/>
+      <c r="T190" s="25"/>
+      <c r="U190" s="25"/>
+      <c r="V190" s="25"/>
+      <c r="W190" s="3"/>
+      <c r="X190" s="3"/>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -7567,10 +9231,18 @@
       <c r="L191" s="25"/>
       <c r="M191" s="25"/>
       <c r="N191" s="25"/>
-      <c r="O191" s="3"/>
-      <c r="P191" s="3"/>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O191" s="25"/>
+      <c r="P191" s="25"/>
+      <c r="Q191" s="25"/>
+      <c r="R191" s="25"/>
+      <c r="S191" s="25"/>
+      <c r="T191" s="25"/>
+      <c r="U191" s="25"/>
+      <c r="V191" s="25"/>
+      <c r="W191" s="3"/>
+      <c r="X191" s="3"/>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -7585,10 +9257,18 @@
       <c r="L192" s="25"/>
       <c r="M192" s="25"/>
       <c r="N192" s="25"/>
-      <c r="O192" s="3"/>
-      <c r="P192" s="3"/>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O192" s="25"/>
+      <c r="P192" s="25"/>
+      <c r="Q192" s="25"/>
+      <c r="R192" s="25"/>
+      <c r="S192" s="25"/>
+      <c r="T192" s="25"/>
+      <c r="U192" s="25"/>
+      <c r="V192" s="25"/>
+      <c r="W192" s="3"/>
+      <c r="X192" s="3"/>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -7603,10 +9283,18 @@
       <c r="L193" s="25"/>
       <c r="M193" s="25"/>
       <c r="N193" s="25"/>
-      <c r="O193" s="3"/>
-      <c r="P193" s="3"/>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O193" s="25"/>
+      <c r="P193" s="25"/>
+      <c r="Q193" s="25"/>
+      <c r="R193" s="25"/>
+      <c r="S193" s="25"/>
+      <c r="T193" s="25"/>
+      <c r="U193" s="25"/>
+      <c r="V193" s="25"/>
+      <c r="W193" s="3"/>
+      <c r="X193" s="3"/>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -7621,10 +9309,18 @@
       <c r="L194" s="25"/>
       <c r="M194" s="25"/>
       <c r="N194" s="25"/>
-      <c r="O194" s="3"/>
-      <c r="P194" s="3"/>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O194" s="25"/>
+      <c r="P194" s="25"/>
+      <c r="Q194" s="25"/>
+      <c r="R194" s="25"/>
+      <c r="S194" s="25"/>
+      <c r="T194" s="25"/>
+      <c r="U194" s="25"/>
+      <c r="V194" s="25"/>
+      <c r="W194" s="3"/>
+      <c r="X194" s="3"/>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -7639,10 +9335,18 @@
       <c r="L195" s="25"/>
       <c r="M195" s="25"/>
       <c r="N195" s="25"/>
-      <c r="O195" s="3"/>
-      <c r="P195" s="3"/>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O195" s="25"/>
+      <c r="P195" s="25"/>
+      <c r="Q195" s="25"/>
+      <c r="R195" s="25"/>
+      <c r="S195" s="25"/>
+      <c r="T195" s="25"/>
+      <c r="U195" s="25"/>
+      <c r="V195" s="25"/>
+      <c r="W195" s="3"/>
+      <c r="X195" s="3"/>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -7657,10 +9361,18 @@
       <c r="L196" s="25"/>
       <c r="M196" s="25"/>
       <c r="N196" s="25"/>
-      <c r="O196" s="3"/>
-      <c r="P196" s="3"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O196" s="25"/>
+      <c r="P196" s="25"/>
+      <c r="Q196" s="25"/>
+      <c r="R196" s="25"/>
+      <c r="S196" s="25"/>
+      <c r="T196" s="25"/>
+      <c r="U196" s="25"/>
+      <c r="V196" s="25"/>
+      <c r="W196" s="3"/>
+      <c r="X196" s="3"/>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -7675,10 +9387,18 @@
       <c r="L197" s="25"/>
       <c r="M197" s="25"/>
       <c r="N197" s="25"/>
-      <c r="O197" s="3"/>
-      <c r="P197" s="3"/>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O197" s="25"/>
+      <c r="P197" s="25"/>
+      <c r="Q197" s="25"/>
+      <c r="R197" s="25"/>
+      <c r="S197" s="25"/>
+      <c r="T197" s="25"/>
+      <c r="U197" s="25"/>
+      <c r="V197" s="25"/>
+      <c r="W197" s="3"/>
+      <c r="X197" s="3"/>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -7693,10 +9413,18 @@
       <c r="L198" s="25"/>
       <c r="M198" s="25"/>
       <c r="N198" s="25"/>
-      <c r="O198" s="3"/>
-      <c r="P198" s="3"/>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O198" s="25"/>
+      <c r="P198" s="25"/>
+      <c r="Q198" s="25"/>
+      <c r="R198" s="25"/>
+      <c r="S198" s="25"/>
+      <c r="T198" s="25"/>
+      <c r="U198" s="25"/>
+      <c r="V198" s="25"/>
+      <c r="W198" s="3"/>
+      <c r="X198" s="3"/>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -7711,10 +9439,18 @@
       <c r="L199" s="25"/>
       <c r="M199" s="25"/>
       <c r="N199" s="25"/>
-      <c r="O199" s="3"/>
-      <c r="P199" s="3"/>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O199" s="25"/>
+      <c r="P199" s="25"/>
+      <c r="Q199" s="25"/>
+      <c r="R199" s="25"/>
+      <c r="S199" s="25"/>
+      <c r="T199" s="25"/>
+      <c r="U199" s="25"/>
+      <c r="V199" s="25"/>
+      <c r="W199" s="3"/>
+      <c r="X199" s="3"/>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -7729,10 +9465,18 @@
       <c r="L200" s="25"/>
       <c r="M200" s="25"/>
       <c r="N200" s="25"/>
-      <c r="O200" s="3"/>
-      <c r="P200" s="3"/>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="O200" s="25"/>
+      <c r="P200" s="25"/>
+      <c r="Q200" s="25"/>
+      <c r="R200" s="25"/>
+      <c r="S200" s="25"/>
+      <c r="T200" s="25"/>
+      <c r="U200" s="25"/>
+      <c r="V200" s="25"/>
+      <c r="W200" s="3"/>
+      <c r="X200" s="3"/>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -7747,20 +9491,35 @@
       <c r="L201" s="25"/>
       <c r="M201" s="25"/>
       <c r="N201" s="25"/>
-      <c r="O201" s="3"/>
-      <c r="P201" s="3"/>
+      <c r="O201" s="25"/>
+      <c r="P201" s="25"/>
+      <c r="Q201" s="25"/>
+      <c r="R201" s="25"/>
+      <c r="S201" s="25"/>
+      <c r="T201" s="25"/>
+      <c r="U201" s="25"/>
+      <c r="V201" s="25"/>
+      <c r="W201" s="3"/>
+      <c r="X201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="O2:O1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
+  <dataValidations count="5">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="W2:W1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 K2:K1048576 N3:N1048576 N2 N2:N1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 K2:K1048576 U2:V2 U2:V1048576 N2:N1048576 N2 N3:N1048576 P3:Q1048576 P2:Q1048576 P2:Q2 U3:V1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
       <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
+      <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:T1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020F1F7D-94D9-4778-98AF-C189B6316FC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53098D13-44F2-494B-84E6-40458163E946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65700" yWindow="2310" windowWidth="29880" windowHeight="11730" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58695" yWindow="1005" windowWidth="26580" windowHeight="12930" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -454,95 +454,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="82">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -864,6 +776,171 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="5"/>
@@ -1035,6 +1112,94 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1573,105 +1738,120 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="66" dataDxfId="64" totalsRowDxfId="62" headerRowBorderDxfId="65" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="81" dataDxfId="79" totalsRowDxfId="77" headerRowBorderDxfId="80" tableBorderDxfId="78">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="58"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="71"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="69"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="68"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:X201" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A1:X201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username *" dataDxfId="49"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="Domain\Username - Attended Robot" dataDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="License Type - Attended Robot" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="Create Personal Workspace - Attended Robot" dataDxfId="40"/>
-    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="Stand-alone License - Attended Robot" dataDxfId="39"/>
-    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="Domain\Username - Unattended Robot" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="Password - Unattended Robot" dataDxfId="37"/>
-    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="36"/>
-    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="Logging Level" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="Allow Development Logging" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="Login to Console" dataDxfId="5"/>
-    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="Resolution Width" dataDxfId="0"/>
-    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="Resolution Height" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="Resolution Depth" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="Font Smoothing" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="Auto Download Processes" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username *" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="60"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="Domain\Username - Attended Robot" dataDxfId="57"/>
+    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="License Type - Attended Robot" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="Create Personal Workspace - Attended Robot" dataDxfId="55"/>
+    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="Stand-alone License - Attended Robot" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="Domain\Username - Unattended Robot" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="Password - Unattended Robot" dataDxfId="52"/>
+    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="51"/>
+    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="Logging Level" dataDxfId="50"/>
+    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="Allow Development Logging" dataDxfId="49"/>
+    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="Login to Console" dataDxfId="48"/>
+    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="Resolution Width" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="Resolution Height" dataDxfId="46"/>
+    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="Resolution Depth" dataDxfId="45"/>
+    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="Font Smoothing" dataDxfId="44"/>
+    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="Auto Download Processes" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G201" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:G201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID *" dataDxfId="31"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:V201" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="22">
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID *" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{D8AF75B1-BA5F-4C40-881D-BE4839E452FB}" name="Domain\Username - Attended Robot" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{9A1A257D-4C53-482B-A330-4A8DCE96C60A}" name="License Type - Attended Robot" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{C4940F77-AEFE-4413-8C8E-2CBEFB736317}" name="Create Personal Workspace - Attended Robot" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{F7FF3B29-DE31-4E85-8342-0FADB80BB48C}" name="Stand-alone License - Attended Robot" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{DFD2B603-59FD-4B56-9A88-14DCC2549155}" name="Domain\Username - Unattended Robot" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{7EBE6B6B-CBB3-4B4C-B66D-8E0975320B3F}" name="Password - Unattended Robot" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{EC106D03-6620-4CAF-ADF1-8D4E1F1A3F92}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00AE42FD-B775-4293-A665-86D779AEB951}" name="Logging Level" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{272FAC16-B897-4094-B9FE-2359D8E3D007}" name="Allow Development Logging" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{C2A6D89B-9472-4310-B199-C474AD76A377}" name="Login to Console" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{6ECA2F52-4491-4A73-A972-A0D5F82FB1FA}" name="Resolution Width" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{3EFEAB59-0808-4796-9802-9EB718A4640B}" name="Resolution Height" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{3514D9F6-9FA4-4A89-9975-88489155B9EE}" name="Resolution Depth" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{9E36CE4E-645E-408F-8A86-0C712866AE1C}" name="Font Smoothing" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{90C4FB2B-4776-415F-B5CC-5979CD5B2F6F}" name="Auto Download Processes" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="Result" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C201" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="22"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Username" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F07FF25C-F644-4C4F-9C80-9A4A55EB2A6E}" name="Table1367" displayName="Table1367" ref="A1:D201" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="5" xr3:uid="{F33CCB60-7A58-4399-B3F7-6F5E5E738088}" name="User ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{F33CCB60-7A58-4399-B3F7-6F5E5E738088}" name="User ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{E292EED3-AF62-424A-9962-982378BF702D}" name="Names of Roles to Add" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{58711B7C-CF81-46B2-8394-557D02B56B58}" name="Names of Roles to Remove" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AD21EF6C-46F1-4868-B812-67AB113FB5B5}" name="Result" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2D741C8-FC27-44A5-8B78-29E98F1C562D}" name="Table136" displayName="Table136" ref="A1:D201" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="User ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{68175E4A-D2F6-4681-BCAA-00667D31F7F7}" name="User ID" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{FEB2B896-623F-46B0-A4B6-2F228CE40FF2}" name="Names of Organization Units to Add" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{2C7915C8-3673-4CA0-811B-F22E69504FA6}" name="Names of Organization Units to Remove" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{96D71A37-3F39-4A66-A3AA-79D7574CF528}" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1943,7 +2123,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4212,8 +4392,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V1" sqref="O1:V1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4228,7 +4408,7 @@
     <col min="26" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
@@ -9533,10 +9713,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9545,11 +9725,12 @@
     <col min="2" max="4" width="25.75" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="25" customWidth="1"/>
     <col min="6" max="6" width="25.75" style="25" customWidth="1"/>
-    <col min="7" max="7" width="15.9140625" style="27" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="2"/>
+    <col min="7" max="21" width="25.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.9140625" style="27" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -9568,1818 +9749,4876 @@
       <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="22"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="10"/>
       <c r="E2" s="22"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="22"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="9"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="25"/>
+      <c r="Q40" s="25"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="3"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="3"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="3"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="3"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="3"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="3"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="9"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="3"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="9"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="3"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="9"/>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="9"/>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="9"/>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="3"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="9"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="3"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="9"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="3"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="9"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="3"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="3"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="9"/>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="9"/>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="3"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="3"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="3"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="3"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="9"/>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="25"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="25"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="3"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="9"/>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="3"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="3"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="25"/>
+      <c r="S79" s="25"/>
+      <c r="T79" s="25"/>
+      <c r="U79" s="25"/>
+      <c r="V79" s="3"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="25"/>
+      <c r="P80" s="25"/>
+      <c r="Q80" s="25"/>
+      <c r="R80" s="25"/>
+      <c r="S80" s="25"/>
+      <c r="T80" s="25"/>
+      <c r="U80" s="25"/>
+      <c r="V80" s="3"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="3"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="25"/>
+      <c r="T82" s="25"/>
+      <c r="U82" s="25"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="3"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="3"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="3"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="3"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="9"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="3"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="3"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
+      <c r="N89" s="25"/>
+      <c r="O89" s="25"/>
+      <c r="P89" s="25"/>
+      <c r="Q89" s="25"/>
+      <c r="R89" s="25"/>
+      <c r="S89" s="25"/>
+      <c r="T89" s="25"/>
+      <c r="U89" s="25"/>
+      <c r="V89" s="3"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="25"/>
+      <c r="S90" s="25"/>
+      <c r="T90" s="25"/>
+      <c r="U90" s="25"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
-      <c r="G91" s="3"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="3"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
-      <c r="G92" s="3"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="3"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
-      <c r="G93" s="3"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="3"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
-      <c r="G94" s="3"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="3"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="25"/>
+      <c r="S95" s="25"/>
+      <c r="T95" s="25"/>
+      <c r="U95" s="25"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="9"/>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="25"/>
+      <c r="S96" s="25"/>
+      <c r="T96" s="25"/>
+      <c r="U96" s="25"/>
+      <c r="V96" s="3"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="R97" s="25"/>
+      <c r="S97" s="25"/>
+      <c r="T97" s="25"/>
+      <c r="U97" s="25"/>
+      <c r="V97" s="3"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="S98" s="25"/>
+      <c r="T98" s="25"/>
+      <c r="U98" s="25"/>
+      <c r="V98" s="3"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
-      <c r="G99" s="3"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="3"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="3"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="25"/>
+      <c r="S100" s="25"/>
+      <c r="T100" s="25"/>
+      <c r="U100" s="25"/>
+      <c r="V100" s="3"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
-      <c r="G101" s="3"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
+      <c r="N101" s="25"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="25"/>
+      <c r="S101" s="25"/>
+      <c r="T101" s="25"/>
+      <c r="U101" s="25"/>
+      <c r="V101" s="3"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="9"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="25"/>
+      <c r="S102" s="25"/>
+      <c r="T102" s="25"/>
+      <c r="U102" s="25"/>
+      <c r="V102" s="3"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="25"/>
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="3"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="9"/>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="25"/>
+      <c r="S104" s="25"/>
+      <c r="T104" s="25"/>
+      <c r="U104" s="25"/>
+      <c r="V104" s="3"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="9"/>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
+      <c r="Q105" s="25"/>
+      <c r="R105" s="25"/>
+      <c r="S105" s="25"/>
+      <c r="T105" s="25"/>
+      <c r="U105" s="25"/>
+      <c r="V105" s="3"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="9"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="25"/>
+      <c r="S106" s="25"/>
+      <c r="T106" s="25"/>
+      <c r="U106" s="25"/>
+      <c r="V106" s="3"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="9"/>
-      <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="25"/>
+      <c r="S107" s="25"/>
+      <c r="T107" s="25"/>
+      <c r="U107" s="25"/>
+      <c r="V107" s="3"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="9"/>
-      <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="25"/>
+      <c r="S108" s="25"/>
+      <c r="T108" s="25"/>
+      <c r="U108" s="25"/>
+      <c r="V108" s="3"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
+      <c r="M109" s="25"/>
+      <c r="N109" s="25"/>
+      <c r="O109" s="25"/>
+      <c r="P109" s="25"/>
+      <c r="Q109" s="25"/>
+      <c r="R109" s="25"/>
+      <c r="S109" s="25"/>
+      <c r="T109" s="25"/>
+      <c r="U109" s="25"/>
+      <c r="V109" s="3"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="9"/>
-      <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="25"/>
+      <c r="S110" s="25"/>
+      <c r="T110" s="25"/>
+      <c r="U110" s="25"/>
+      <c r="V110" s="3"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="9"/>
-      <c r="G111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="25"/>
+      <c r="S111" s="25"/>
+      <c r="T111" s="25"/>
+      <c r="U111" s="25"/>
+      <c r="V111" s="3"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="25"/>
+      <c r="S112" s="25"/>
+      <c r="T112" s="25"/>
+      <c r="U112" s="25"/>
+      <c r="V112" s="3"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="9"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="25"/>
+      <c r="P113" s="25"/>
+      <c r="Q113" s="25"/>
+      <c r="R113" s="25"/>
+      <c r="S113" s="25"/>
+      <c r="T113" s="25"/>
+      <c r="U113" s="25"/>
+      <c r="V113" s="3"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="9"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="25"/>
+      <c r="S114" s="25"/>
+      <c r="T114" s="25"/>
+      <c r="U114" s="25"/>
+      <c r="V114" s="3"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="9"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="25"/>
+      <c r="S115" s="25"/>
+      <c r="T115" s="25"/>
+      <c r="U115" s="25"/>
+      <c r="V115" s="3"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="9"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="25"/>
+      <c r="S116" s="25"/>
+      <c r="T116" s="25"/>
+      <c r="U116" s="25"/>
+      <c r="V116" s="3"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="9"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="25"/>
+      <c r="N117" s="25"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="25"/>
+      <c r="R117" s="25"/>
+      <c r="S117" s="25"/>
+      <c r="T117" s="25"/>
+      <c r="U117" s="25"/>
+      <c r="V117" s="3"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="25"/>
+      <c r="R118" s="25"/>
+      <c r="S118" s="25"/>
+      <c r="T118" s="25"/>
+      <c r="U118" s="25"/>
+      <c r="V118" s="3"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="9"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="25"/>
+      <c r="S119" s="25"/>
+      <c r="T119" s="25"/>
+      <c r="U119" s="25"/>
+      <c r="V119" s="3"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="9"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="25"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="25"/>
+      <c r="O120" s="25"/>
+      <c r="P120" s="25"/>
+      <c r="Q120" s="25"/>
+      <c r="R120" s="25"/>
+      <c r="S120" s="25"/>
+      <c r="T120" s="25"/>
+      <c r="U120" s="25"/>
+      <c r="V120" s="3"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="25"/>
+      <c r="P121" s="25"/>
+      <c r="Q121" s="25"/>
+      <c r="R121" s="25"/>
+      <c r="S121" s="25"/>
+      <c r="T121" s="25"/>
+      <c r="U121" s="25"/>
+      <c r="V121" s="3"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="9"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="25"/>
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="3"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="9"/>
-      <c r="G123" s="3"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
+      <c r="M123" s="25"/>
+      <c r="N123" s="25"/>
+      <c r="O123" s="25"/>
+      <c r="P123" s="25"/>
+      <c r="Q123" s="25"/>
+      <c r="R123" s="25"/>
+      <c r="S123" s="25"/>
+      <c r="T123" s="25"/>
+      <c r="U123" s="25"/>
+      <c r="V123" s="3"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
+      <c r="M124" s="25"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="25"/>
+      <c r="P124" s="25"/>
+      <c r="Q124" s="25"/>
+      <c r="R124" s="25"/>
+      <c r="S124" s="25"/>
+      <c r="T124" s="25"/>
+      <c r="U124" s="25"/>
+      <c r="V124" s="3"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="9"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="25"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="25"/>
+      <c r="S125" s="25"/>
+      <c r="T125" s="25"/>
+      <c r="U125" s="25"/>
+      <c r="V125" s="3"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="25"/>
+      <c r="M126" s="25"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="25"/>
+      <c r="P126" s="25"/>
+      <c r="Q126" s="25"/>
+      <c r="R126" s="25"/>
+      <c r="S126" s="25"/>
+      <c r="T126" s="25"/>
+      <c r="U126" s="25"/>
+      <c r="V126" s="3"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="25"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="25"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="25"/>
+      <c r="S127" s="25"/>
+      <c r="T127" s="25"/>
+      <c r="U127" s="25"/>
+      <c r="V127" s="3"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="3"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="25"/>
+      <c r="U129" s="25"/>
+      <c r="V129" s="3"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="25"/>
+      <c r="U130" s="25"/>
+      <c r="V130" s="3"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="3"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="25"/>
+      <c r="M131" s="25"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="25"/>
+      <c r="P131" s="25"/>
+      <c r="Q131" s="25"/>
+      <c r="R131" s="25"/>
+      <c r="S131" s="25"/>
+      <c r="T131" s="25"/>
+      <c r="U131" s="25"/>
+      <c r="V131" s="3"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="3"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="25"/>
+      <c r="P132" s="25"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="25"/>
+      <c r="S132" s="25"/>
+      <c r="T132" s="25"/>
+      <c r="U132" s="25"/>
+      <c r="V132" s="3"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="3"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="25"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="25"/>
+      <c r="Q133" s="25"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
+      <c r="T133" s="25"/>
+      <c r="U133" s="25"/>
+      <c r="V133" s="3"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
+      <c r="T134" s="25"/>
+      <c r="U134" s="25"/>
+      <c r="V134" s="3"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="3"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
+      <c r="T135" s="25"/>
+      <c r="U135" s="25"/>
+      <c r="V135" s="3"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="3"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="25"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="25"/>
+      <c r="T136" s="25"/>
+      <c r="U136" s="25"/>
+      <c r="V136" s="3"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="25"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
+      <c r="T137" s="25"/>
+      <c r="U137" s="25"/>
+      <c r="V137" s="3"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="25"/>
+      <c r="P138" s="25"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="25"/>
+      <c r="U138" s="25"/>
+      <c r="V138" s="3"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="3"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="25"/>
+      <c r="T139" s="25"/>
+      <c r="U139" s="25"/>
+      <c r="V139" s="3"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="3"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="25"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="25"/>
+      <c r="S140" s="25"/>
+      <c r="T140" s="25"/>
+      <c r="U140" s="25"/>
+      <c r="V140" s="3"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="3"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="25"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="25"/>
+      <c r="N141" s="25"/>
+      <c r="O141" s="25"/>
+      <c r="P141" s="25"/>
+      <c r="Q141" s="25"/>
+      <c r="R141" s="25"/>
+      <c r="S141" s="25"/>
+      <c r="T141" s="25"/>
+      <c r="U141" s="25"/>
+      <c r="V141" s="3"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="25"/>
+      <c r="L142" s="25"/>
+      <c r="M142" s="25"/>
+      <c r="N142" s="25"/>
+      <c r="O142" s="25"/>
+      <c r="P142" s="25"/>
+      <c r="Q142" s="25"/>
+      <c r="R142" s="25"/>
+      <c r="S142" s="25"/>
+      <c r="T142" s="25"/>
+      <c r="U142" s="25"/>
+      <c r="V142" s="3"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="25"/>
+      <c r="L143" s="25"/>
+      <c r="M143" s="25"/>
+      <c r="N143" s="25"/>
+      <c r="O143" s="25"/>
+      <c r="P143" s="25"/>
+      <c r="Q143" s="25"/>
+      <c r="R143" s="25"/>
+      <c r="S143" s="25"/>
+      <c r="T143" s="25"/>
+      <c r="U143" s="25"/>
+      <c r="V143" s="3"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="3"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
+      <c r="N144" s="25"/>
+      <c r="O144" s="25"/>
+      <c r="P144" s="25"/>
+      <c r="Q144" s="25"/>
+      <c r="R144" s="25"/>
+      <c r="S144" s="25"/>
+      <c r="T144" s="25"/>
+      <c r="U144" s="25"/>
+      <c r="V144" s="3"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="3"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="25"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="25"/>
+      <c r="P145" s="25"/>
+      <c r="Q145" s="25"/>
+      <c r="R145" s="25"/>
+      <c r="S145" s="25"/>
+      <c r="T145" s="25"/>
+      <c r="U145" s="25"/>
+      <c r="V145" s="3"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="3"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
+      <c r="N146" s="25"/>
+      <c r="O146" s="25"/>
+      <c r="P146" s="25"/>
+      <c r="Q146" s="25"/>
+      <c r="R146" s="25"/>
+      <c r="S146" s="25"/>
+      <c r="T146" s="25"/>
+      <c r="U146" s="25"/>
+      <c r="V146" s="3"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="25"/>
+      <c r="P147" s="25"/>
+      <c r="Q147" s="25"/>
+      <c r="R147" s="25"/>
+      <c r="S147" s="25"/>
+      <c r="T147" s="25"/>
+      <c r="U147" s="25"/>
+      <c r="V147" s="3"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="3"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
+      <c r="N148" s="25"/>
+      <c r="O148" s="25"/>
+      <c r="P148" s="25"/>
+      <c r="Q148" s="25"/>
+      <c r="R148" s="25"/>
+      <c r="S148" s="25"/>
+      <c r="T148" s="25"/>
+      <c r="U148" s="25"/>
+      <c r="V148" s="3"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="3"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="25"/>
+      <c r="N149" s="25"/>
+      <c r="O149" s="25"/>
+      <c r="P149" s="25"/>
+      <c r="Q149" s="25"/>
+      <c r="R149" s="25"/>
+      <c r="S149" s="25"/>
+      <c r="T149" s="25"/>
+      <c r="U149" s="25"/>
+      <c r="V149" s="3"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="25"/>
+      <c r="N150" s="25"/>
+      <c r="O150" s="25"/>
+      <c r="P150" s="25"/>
+      <c r="Q150" s="25"/>
+      <c r="R150" s="25"/>
+      <c r="S150" s="25"/>
+      <c r="T150" s="25"/>
+      <c r="U150" s="25"/>
+      <c r="V150" s="3"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="25"/>
+      <c r="N151" s="25"/>
+      <c r="O151" s="25"/>
+      <c r="P151" s="25"/>
+      <c r="Q151" s="25"/>
+      <c r="R151" s="25"/>
+      <c r="S151" s="25"/>
+      <c r="T151" s="25"/>
+      <c r="U151" s="25"/>
+      <c r="V151" s="3"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="25"/>
+      <c r="N152" s="25"/>
+      <c r="O152" s="25"/>
+      <c r="P152" s="25"/>
+      <c r="Q152" s="25"/>
+      <c r="R152" s="25"/>
+      <c r="S152" s="25"/>
+      <c r="T152" s="25"/>
+      <c r="U152" s="25"/>
+      <c r="V152" s="3"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="3"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="25"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
+      <c r="T153" s="25"/>
+      <c r="U153" s="25"/>
+      <c r="V153" s="3"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="3"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="25"/>
+      <c r="O154" s="25"/>
+      <c r="P154" s="25"/>
+      <c r="Q154" s="25"/>
+      <c r="R154" s="25"/>
+      <c r="S154" s="25"/>
+      <c r="T154" s="25"/>
+      <c r="U154" s="25"/>
+      <c r="V154" s="3"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="3"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="25"/>
+      <c r="O155" s="25"/>
+      <c r="P155" s="25"/>
+      <c r="Q155" s="25"/>
+      <c r="R155" s="25"/>
+      <c r="S155" s="25"/>
+      <c r="T155" s="25"/>
+      <c r="U155" s="25"/>
+      <c r="V155" s="3"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="3"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25"/>
+      <c r="O156" s="25"/>
+      <c r="P156" s="25"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="3"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="3"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
+      <c r="P157" s="25"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="3"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="3"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="25"/>
+      <c r="P158" s="25"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="25"/>
+      <c r="V158" s="3"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="3"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="25"/>
+      <c r="O159" s="25"/>
+      <c r="P159" s="25"/>
+      <c r="Q159" s="25"/>
+      <c r="R159" s="25"/>
+      <c r="S159" s="25"/>
+      <c r="T159" s="25"/>
+      <c r="U159" s="25"/>
+      <c r="V159" s="3"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="3"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="25"/>
+      <c r="N160" s="25"/>
+      <c r="O160" s="25"/>
+      <c r="P160" s="25"/>
+      <c r="Q160" s="25"/>
+      <c r="R160" s="25"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="25"/>
+      <c r="U160" s="25"/>
+      <c r="V160" s="3"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="3"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="25"/>
+      <c r="M161" s="25"/>
+      <c r="N161" s="25"/>
+      <c r="O161" s="25"/>
+      <c r="P161" s="25"/>
+      <c r="Q161" s="25"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="25"/>
+      <c r="T161" s="25"/>
+      <c r="U161" s="25"/>
+      <c r="V161" s="3"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="3"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="25"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="25"/>
+      <c r="O162" s="25"/>
+      <c r="P162" s="25"/>
+      <c r="Q162" s="25"/>
+      <c r="R162" s="25"/>
+      <c r="S162" s="25"/>
+      <c r="T162" s="25"/>
+      <c r="U162" s="25"/>
+      <c r="V162" s="3"/>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="3"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="25"/>
+      <c r="M163" s="25"/>
+      <c r="N163" s="25"/>
+      <c r="O163" s="25"/>
+      <c r="P163" s="25"/>
+      <c r="Q163" s="25"/>
+      <c r="R163" s="25"/>
+      <c r="S163" s="25"/>
+      <c r="T163" s="25"/>
+      <c r="U163" s="25"/>
+      <c r="V163" s="3"/>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="3"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="25"/>
+      <c r="M164" s="25"/>
+      <c r="N164" s="25"/>
+      <c r="O164" s="25"/>
+      <c r="P164" s="25"/>
+      <c r="Q164" s="25"/>
+      <c r="R164" s="25"/>
+      <c r="S164" s="25"/>
+      <c r="T164" s="25"/>
+      <c r="U164" s="25"/>
+      <c r="V164" s="3"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="3"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="25"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="25"/>
+      <c r="M165" s="25"/>
+      <c r="N165" s="25"/>
+      <c r="O165" s="25"/>
+      <c r="P165" s="25"/>
+      <c r="Q165" s="25"/>
+      <c r="R165" s="25"/>
+      <c r="S165" s="25"/>
+      <c r="T165" s="25"/>
+      <c r="U165" s="25"/>
+      <c r="V165" s="3"/>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="3"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="25"/>
+      <c r="K166" s="25"/>
+      <c r="L166" s="25"/>
+      <c r="M166" s="25"/>
+      <c r="N166" s="25"/>
+      <c r="O166" s="25"/>
+      <c r="P166" s="25"/>
+      <c r="Q166" s="25"/>
+      <c r="R166" s="25"/>
+      <c r="S166" s="25"/>
+      <c r="T166" s="25"/>
+      <c r="U166" s="25"/>
+      <c r="V166" s="3"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="3"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="25"/>
+      <c r="K167" s="25"/>
+      <c r="L167" s="25"/>
+      <c r="M167" s="25"/>
+      <c r="N167" s="25"/>
+      <c r="O167" s="25"/>
+      <c r="P167" s="25"/>
+      <c r="Q167" s="25"/>
+      <c r="R167" s="25"/>
+      <c r="S167" s="25"/>
+      <c r="T167" s="25"/>
+      <c r="U167" s="25"/>
+      <c r="V167" s="3"/>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="3"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="25"/>
+      <c r="K168" s="25"/>
+      <c r="L168" s="25"/>
+      <c r="M168" s="25"/>
+      <c r="N168" s="25"/>
+      <c r="O168" s="25"/>
+      <c r="P168" s="25"/>
+      <c r="Q168" s="25"/>
+      <c r="R168" s="25"/>
+      <c r="S168" s="25"/>
+      <c r="T168" s="25"/>
+      <c r="U168" s="25"/>
+      <c r="V168" s="3"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="3"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="25"/>
+      <c r="K169" s="25"/>
+      <c r="L169" s="25"/>
+      <c r="M169" s="25"/>
+      <c r="N169" s="25"/>
+      <c r="O169" s="25"/>
+      <c r="P169" s="25"/>
+      <c r="Q169" s="25"/>
+      <c r="R169" s="25"/>
+      <c r="S169" s="25"/>
+      <c r="T169" s="25"/>
+      <c r="U169" s="25"/>
+      <c r="V169" s="3"/>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="3"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="25"/>
+      <c r="L170" s="25"/>
+      <c r="M170" s="25"/>
+      <c r="N170" s="25"/>
+      <c r="O170" s="25"/>
+      <c r="P170" s="25"/>
+      <c r="Q170" s="25"/>
+      <c r="R170" s="25"/>
+      <c r="S170" s="25"/>
+      <c r="T170" s="25"/>
+      <c r="U170" s="25"/>
+      <c r="V170" s="3"/>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="3"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="25"/>
+      <c r="K171" s="25"/>
+      <c r="L171" s="25"/>
+      <c r="M171" s="25"/>
+      <c r="N171" s="25"/>
+      <c r="O171" s="25"/>
+      <c r="P171" s="25"/>
+      <c r="Q171" s="25"/>
+      <c r="R171" s="25"/>
+      <c r="S171" s="25"/>
+      <c r="T171" s="25"/>
+      <c r="U171" s="25"/>
+      <c r="V171" s="3"/>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="3"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="25"/>
+      <c r="N172" s="25"/>
+      <c r="O172" s="25"/>
+      <c r="P172" s="25"/>
+      <c r="Q172" s="25"/>
+      <c r="R172" s="25"/>
+      <c r="S172" s="25"/>
+      <c r="T172" s="25"/>
+      <c r="U172" s="25"/>
+      <c r="V172" s="3"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="3"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="25"/>
+      <c r="L173" s="25"/>
+      <c r="M173" s="25"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="25"/>
+      <c r="P173" s="25"/>
+      <c r="Q173" s="25"/>
+      <c r="R173" s="25"/>
+      <c r="S173" s="25"/>
+      <c r="T173" s="25"/>
+      <c r="U173" s="25"/>
+      <c r="V173" s="3"/>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="3"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="25"/>
+      <c r="K174" s="25"/>
+      <c r="L174" s="25"/>
+      <c r="M174" s="25"/>
+      <c r="N174" s="25"/>
+      <c r="O174" s="25"/>
+      <c r="P174" s="25"/>
+      <c r="Q174" s="25"/>
+      <c r="R174" s="25"/>
+      <c r="S174" s="25"/>
+      <c r="T174" s="25"/>
+      <c r="U174" s="25"/>
+      <c r="V174" s="3"/>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="3"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="25"/>
+      <c r="K175" s="25"/>
+      <c r="L175" s="25"/>
+      <c r="M175" s="25"/>
+      <c r="N175" s="25"/>
+      <c r="O175" s="25"/>
+      <c r="P175" s="25"/>
+      <c r="Q175" s="25"/>
+      <c r="R175" s="25"/>
+      <c r="S175" s="25"/>
+      <c r="T175" s="25"/>
+      <c r="U175" s="25"/>
+      <c r="V175" s="3"/>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="3"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="25"/>
+      <c r="K176" s="25"/>
+      <c r="L176" s="25"/>
+      <c r="M176" s="25"/>
+      <c r="N176" s="25"/>
+      <c r="O176" s="25"/>
+      <c r="P176" s="25"/>
+      <c r="Q176" s="25"/>
+      <c r="R176" s="25"/>
+      <c r="S176" s="25"/>
+      <c r="T176" s="25"/>
+      <c r="U176" s="25"/>
+      <c r="V176" s="3"/>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="25"/>
+      <c r="K177" s="25"/>
+      <c r="L177" s="25"/>
+      <c r="M177" s="25"/>
+      <c r="N177" s="25"/>
+      <c r="O177" s="25"/>
+      <c r="P177" s="25"/>
+      <c r="Q177" s="25"/>
+      <c r="R177" s="25"/>
+      <c r="S177" s="25"/>
+      <c r="T177" s="25"/>
+      <c r="U177" s="25"/>
+      <c r="V177" s="3"/>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="25"/>
+      <c r="K178" s="25"/>
+      <c r="L178" s="25"/>
+      <c r="M178" s="25"/>
+      <c r="N178" s="25"/>
+      <c r="O178" s="25"/>
+      <c r="P178" s="25"/>
+      <c r="Q178" s="25"/>
+      <c r="R178" s="25"/>
+      <c r="S178" s="25"/>
+      <c r="T178" s="25"/>
+      <c r="U178" s="25"/>
+      <c r="V178" s="3"/>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="3"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
+      <c r="I179" s="25"/>
+      <c r="J179" s="25"/>
+      <c r="K179" s="25"/>
+      <c r="L179" s="25"/>
+      <c r="M179" s="25"/>
+      <c r="N179" s="25"/>
+      <c r="O179" s="25"/>
+      <c r="P179" s="25"/>
+      <c r="Q179" s="25"/>
+      <c r="R179" s="25"/>
+      <c r="S179" s="25"/>
+      <c r="T179" s="25"/>
+      <c r="U179" s="25"/>
+      <c r="V179" s="3"/>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="3"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
+      <c r="I180" s="25"/>
+      <c r="J180" s="25"/>
+      <c r="K180" s="25"/>
+      <c r="L180" s="25"/>
+      <c r="M180" s="25"/>
+      <c r="N180" s="25"/>
+      <c r="O180" s="25"/>
+      <c r="P180" s="25"/>
+      <c r="Q180" s="25"/>
+      <c r="R180" s="25"/>
+      <c r="S180" s="25"/>
+      <c r="T180" s="25"/>
+      <c r="U180" s="25"/>
+      <c r="V180" s="3"/>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="3"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G181" s="25"/>
+      <c r="H181" s="25"/>
+      <c r="I181" s="25"/>
+      <c r="J181" s="25"/>
+      <c r="K181" s="25"/>
+      <c r="L181" s="25"/>
+      <c r="M181" s="25"/>
+      <c r="N181" s="25"/>
+      <c r="O181" s="25"/>
+      <c r="P181" s="25"/>
+      <c r="Q181" s="25"/>
+      <c r="R181" s="25"/>
+      <c r="S181" s="25"/>
+      <c r="T181" s="25"/>
+      <c r="U181" s="25"/>
+      <c r="V181" s="3"/>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="3"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
+      <c r="I182" s="25"/>
+      <c r="J182" s="25"/>
+      <c r="K182" s="25"/>
+      <c r="L182" s="25"/>
+      <c r="M182" s="25"/>
+      <c r="N182" s="25"/>
+      <c r="O182" s="25"/>
+      <c r="P182" s="25"/>
+      <c r="Q182" s="25"/>
+      <c r="R182" s="25"/>
+      <c r="S182" s="25"/>
+      <c r="T182" s="25"/>
+      <c r="U182" s="25"/>
+      <c r="V182" s="3"/>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="3"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
+      <c r="I183" s="25"/>
+      <c r="J183" s="25"/>
+      <c r="K183" s="25"/>
+      <c r="L183" s="25"/>
+      <c r="M183" s="25"/>
+      <c r="N183" s="25"/>
+      <c r="O183" s="25"/>
+      <c r="P183" s="25"/>
+      <c r="Q183" s="25"/>
+      <c r="R183" s="25"/>
+      <c r="S183" s="25"/>
+      <c r="T183" s="25"/>
+      <c r="U183" s="25"/>
+      <c r="V183" s="3"/>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="3"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
+      <c r="I184" s="25"/>
+      <c r="J184" s="25"/>
+      <c r="K184" s="25"/>
+      <c r="L184" s="25"/>
+      <c r="M184" s="25"/>
+      <c r="N184" s="25"/>
+      <c r="O184" s="25"/>
+      <c r="P184" s="25"/>
+      <c r="Q184" s="25"/>
+      <c r="R184" s="25"/>
+      <c r="S184" s="25"/>
+      <c r="T184" s="25"/>
+      <c r="U184" s="25"/>
+      <c r="V184" s="3"/>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="3"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
+      <c r="I185" s="25"/>
+      <c r="J185" s="25"/>
+      <c r="K185" s="25"/>
+      <c r="L185" s="25"/>
+      <c r="M185" s="25"/>
+      <c r="N185" s="25"/>
+      <c r="O185" s="25"/>
+      <c r="P185" s="25"/>
+      <c r="Q185" s="25"/>
+      <c r="R185" s="25"/>
+      <c r="S185" s="25"/>
+      <c r="T185" s="25"/>
+      <c r="U185" s="25"/>
+      <c r="V185" s="3"/>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="3"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
+      <c r="I186" s="25"/>
+      <c r="J186" s="25"/>
+      <c r="K186" s="25"/>
+      <c r="L186" s="25"/>
+      <c r="M186" s="25"/>
+      <c r="N186" s="25"/>
+      <c r="O186" s="25"/>
+      <c r="P186" s="25"/>
+      <c r="Q186" s="25"/>
+      <c r="R186" s="25"/>
+      <c r="S186" s="25"/>
+      <c r="T186" s="25"/>
+      <c r="U186" s="25"/>
+      <c r="V186" s="3"/>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="3"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="25"/>
+      <c r="N187" s="25"/>
+      <c r="O187" s="25"/>
+      <c r="P187" s="25"/>
+      <c r="Q187" s="25"/>
+      <c r="R187" s="25"/>
+      <c r="S187" s="25"/>
+      <c r="T187" s="25"/>
+      <c r="U187" s="25"/>
+      <c r="V187" s="3"/>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="3"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="25"/>
+      <c r="L188" s="25"/>
+      <c r="M188" s="25"/>
+      <c r="N188" s="25"/>
+      <c r="O188" s="25"/>
+      <c r="P188" s="25"/>
+      <c r="Q188" s="25"/>
+      <c r="R188" s="25"/>
+      <c r="S188" s="25"/>
+      <c r="T188" s="25"/>
+      <c r="U188" s="25"/>
+      <c r="V188" s="3"/>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="3"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="25"/>
+      <c r="K189" s="25"/>
+      <c r="L189" s="25"/>
+      <c r="M189" s="25"/>
+      <c r="N189" s="25"/>
+      <c r="O189" s="25"/>
+      <c r="P189" s="25"/>
+      <c r="Q189" s="25"/>
+      <c r="R189" s="25"/>
+      <c r="S189" s="25"/>
+      <c r="T189" s="25"/>
+      <c r="U189" s="25"/>
+      <c r="V189" s="3"/>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="3"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G190" s="25"/>
+      <c r="H190" s="25"/>
+      <c r="I190" s="25"/>
+      <c r="J190" s="25"/>
+      <c r="K190" s="25"/>
+      <c r="L190" s="25"/>
+      <c r="M190" s="25"/>
+      <c r="N190" s="25"/>
+      <c r="O190" s="25"/>
+      <c r="P190" s="25"/>
+      <c r="Q190" s="25"/>
+      <c r="R190" s="25"/>
+      <c r="S190" s="25"/>
+      <c r="T190" s="25"/>
+      <c r="U190" s="25"/>
+      <c r="V190" s="3"/>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="3"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G191" s="25"/>
+      <c r="H191" s="25"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="25"/>
+      <c r="K191" s="25"/>
+      <c r="L191" s="25"/>
+      <c r="M191" s="25"/>
+      <c r="N191" s="25"/>
+      <c r="O191" s="25"/>
+      <c r="P191" s="25"/>
+      <c r="Q191" s="25"/>
+      <c r="R191" s="25"/>
+      <c r="S191" s="25"/>
+      <c r="T191" s="25"/>
+      <c r="U191" s="25"/>
+      <c r="V191" s="3"/>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="3"/>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G192" s="25"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="25"/>
+      <c r="K192" s="25"/>
+      <c r="L192" s="25"/>
+      <c r="M192" s="25"/>
+      <c r="N192" s="25"/>
+      <c r="O192" s="25"/>
+      <c r="P192" s="25"/>
+      <c r="Q192" s="25"/>
+      <c r="R192" s="25"/>
+      <c r="S192" s="25"/>
+      <c r="T192" s="25"/>
+      <c r="U192" s="25"/>
+      <c r="V192" s="3"/>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="3"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G193" s="25"/>
+      <c r="H193" s="25"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="25"/>
+      <c r="K193" s="25"/>
+      <c r="L193" s="25"/>
+      <c r="M193" s="25"/>
+      <c r="N193" s="25"/>
+      <c r="O193" s="25"/>
+      <c r="P193" s="25"/>
+      <c r="Q193" s="25"/>
+      <c r="R193" s="25"/>
+      <c r="S193" s="25"/>
+      <c r="T193" s="25"/>
+      <c r="U193" s="25"/>
+      <c r="V193" s="3"/>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="3"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G194" s="25"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="25"/>
+      <c r="L194" s="25"/>
+      <c r="M194" s="25"/>
+      <c r="N194" s="25"/>
+      <c r="O194" s="25"/>
+      <c r="P194" s="25"/>
+      <c r="Q194" s="25"/>
+      <c r="R194" s="25"/>
+      <c r="S194" s="25"/>
+      <c r="T194" s="25"/>
+      <c r="U194" s="25"/>
+      <c r="V194" s="3"/>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="3"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G195" s="25"/>
+      <c r="H195" s="25"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="25"/>
+      <c r="K195" s="25"/>
+      <c r="L195" s="25"/>
+      <c r="M195" s="25"/>
+      <c r="N195" s="25"/>
+      <c r="O195" s="25"/>
+      <c r="P195" s="25"/>
+      <c r="Q195" s="25"/>
+      <c r="R195" s="25"/>
+      <c r="S195" s="25"/>
+      <c r="T195" s="25"/>
+      <c r="U195" s="25"/>
+      <c r="V195" s="3"/>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="3"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G196" s="25"/>
+      <c r="H196" s="25"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="25"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="25"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="25"/>
+      <c r="O196" s="25"/>
+      <c r="P196" s="25"/>
+      <c r="Q196" s="25"/>
+      <c r="R196" s="25"/>
+      <c r="S196" s="25"/>
+      <c r="T196" s="25"/>
+      <c r="U196" s="25"/>
+      <c r="V196" s="3"/>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="3"/>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G197" s="25"/>
+      <c r="H197" s="25"/>
+      <c r="I197" s="25"/>
+      <c r="J197" s="25"/>
+      <c r="K197" s="25"/>
+      <c r="L197" s="25"/>
+      <c r="M197" s="25"/>
+      <c r="N197" s="25"/>
+      <c r="O197" s="25"/>
+      <c r="P197" s="25"/>
+      <c r="Q197" s="25"/>
+      <c r="R197" s="25"/>
+      <c r="S197" s="25"/>
+      <c r="T197" s="25"/>
+      <c r="U197" s="25"/>
+      <c r="V197" s="3"/>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="3"/>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G198" s="25"/>
+      <c r="H198" s="25"/>
+      <c r="I198" s="25"/>
+      <c r="J198" s="25"/>
+      <c r="K198" s="25"/>
+      <c r="L198" s="25"/>
+      <c r="M198" s="25"/>
+      <c r="N198" s="25"/>
+      <c r="O198" s="25"/>
+      <c r="P198" s="25"/>
+      <c r="Q198" s="25"/>
+      <c r="R198" s="25"/>
+      <c r="S198" s="25"/>
+      <c r="T198" s="25"/>
+      <c r="U198" s="25"/>
+      <c r="V198" s="3"/>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="3"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G199" s="25"/>
+      <c r="H199" s="25"/>
+      <c r="I199" s="25"/>
+      <c r="J199" s="25"/>
+      <c r="K199" s="25"/>
+      <c r="L199" s="25"/>
+      <c r="M199" s="25"/>
+      <c r="N199" s="25"/>
+      <c r="O199" s="25"/>
+      <c r="P199" s="25"/>
+      <c r="Q199" s="25"/>
+      <c r="R199" s="25"/>
+      <c r="S199" s="25"/>
+      <c r="T199" s="25"/>
+      <c r="U199" s="25"/>
+      <c r="V199" s="3"/>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="3"/>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G200" s="25"/>
+      <c r="H200" s="25"/>
+      <c r="I200" s="25"/>
+      <c r="J200" s="25"/>
+      <c r="K200" s="25"/>
+      <c r="L200" s="25"/>
+      <c r="M200" s="25"/>
+      <c r="N200" s="25"/>
+      <c r="O200" s="25"/>
+      <c r="P200" s="25"/>
+      <c r="Q200" s="25"/>
+      <c r="R200" s="25"/>
+      <c r="S200" s="25"/>
+      <c r="T200" s="25"/>
+      <c r="U200" s="25"/>
+      <c r="V200" s="3"/>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="3"/>
+      <c r="G201" s="25"/>
+      <c r="H201" s="25"/>
+      <c r="I201" s="25"/>
+      <c r="J201" s="25"/>
+      <c r="K201" s="25"/>
+      <c r="L201" s="25"/>
+      <c r="M201" s="25"/>
+      <c r="N201" s="25"/>
+      <c r="O201" s="25"/>
+      <c r="P201" s="25"/>
+      <c r="Q201" s="25"/>
+      <c r="R201" s="25"/>
+      <c r="S201" s="25"/>
+      <c r="T201" s="25"/>
+      <c r="U201" s="25"/>
+      <c r="V201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="2">
+  <dataValidations count="6">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{9F8A286C-0BC9-4DCD-A6A9-B0A34FED344B}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="E2:E1048576" xr:uid="{E4E44019-3B35-4B46-AB56-CBA9A747E3AA}">
       <formula1>"Active,Inactive"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:S1048576" xr:uid="{4619DB89-2596-4A90-8B24-A3BF136CF673}">
+      <formula1>0</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{AFEB2A73-72D6-4EEB-9862-5FFFE53DF683}">
+      <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J1048576 T2:U1048576 M2:M1048576 O2:P1048576" xr:uid="{B5E6E82F-20DE-4CF7-A3C7-05DC586DFBD7}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{9791015B-8956-4B9E-831E-F8DAD2116E7B}">
+      <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\EN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD5084-8176-4A22-BA74-E747E0AB859C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE9919A-7676-45DE-A8F0-3AACE36BF30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7930" yWindow="3640" windowWidth="19130" windowHeight="12230" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -166,6 +166,10 @@
   <si>
     <t>Allow Web Login</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Domain (Directory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,7 +466,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="85">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -472,6 +476,22 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -784,6 +804,17 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -1768,68 +1799,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="83" dataDxfId="81" totalsRowDxfId="79" headerRowBorderDxfId="82" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:I201" headerRowDxfId="84" dataDxfId="82" totalsRowDxfId="80" headerRowBorderDxfId="83" tableBorderDxfId="81">
   <autoFilter ref="A1:I201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="78" totalsRowDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="75"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="69"/>
+    <tableColumn id="9" xr3:uid="{06CD766F-781E-4B1E-8E49-C07F180816BA}" name="Type" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="Username" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Name" totalsRowLabel="Total" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Surname" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="Email" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Organization Units" totalsRowFunction="count" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="Roles" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="Status" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Y201" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A1:Y201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="25">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username *" dataDxfId="66"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="60"/>
-    <tableColumn id="25" xr3:uid="{D520E602-B3C2-4F82-8D83-415FE0050004}" name="Allow Web Login" dataDxfId="59"/>
-    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="Domain\Username - Attended Robot" dataDxfId="58"/>
-    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="License Type - Attended Robot" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="Create Personal Workspace - Attended Robot" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="Stand-alone License - Attended Robot" dataDxfId="55"/>
-    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="Domain\Username - Unattended Robot" dataDxfId="54"/>
-    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="Password - Unattended Robot" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="Logging Level" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="Allow Development Logging" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="Login to Console" dataDxfId="49"/>
-    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="Resolution Width" dataDxfId="48"/>
-    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="Resolution Height" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="Resolution Depth" dataDxfId="46"/>
-    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="Font Smoothing" dataDxfId="45"/>
-    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="Auto Download Processes" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Z201" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+  <autoFilter ref="A1:Z201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="26">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="Username *" dataDxfId="67"/>
+    <tableColumn id="26" xr3:uid="{038ED767-0AD3-4903-8220-FE18439B9060}" name="Domain (Directory)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="Organization Units" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="Password" dataDxfId="61"/>
+    <tableColumn id="25" xr3:uid="{D520E602-B3C2-4F82-8D83-415FE0050004}" name="Allow Web Login" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{1A4FAD89-F93A-4B1B-84C7-B32A3F985830}" name="Domain\Username - Attended Robot" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{DA0547EC-F276-415B-92E5-028784C029B7}" name="License Type - Attended Robot" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{7108AAA8-2061-479C-A446-E6DA738F4D8B}" name="Create Personal Workspace - Attended Robot" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{D04E7F8D-CC16-4F65-9D9D-973F2498F4FC}" name="Stand-alone License - Attended Robot" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{5E413036-A266-4CF7-A1FD-79FDAC7F9601}" name="Domain\Username - Unattended Robot" dataDxfId="55"/>
+    <tableColumn id="11" xr3:uid="{79ADE701-342C-46D1-AB7A-751E972CD13C}" name="Password - Unattended Robot" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{E6C49AE1-50A3-4A1E-B68A-0B2B0C10E805}" name="Disable Concurrent Execution - Unattended Robot" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{46C87FCA-C0AC-4AD1-8317-80E1CF50F2D2}" name="Logging Level" dataDxfId="52"/>
+    <tableColumn id="18" xr3:uid="{57EF6998-E383-4F06-B1DA-C52A08349D91}" name="Allow Development Logging" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{275263AD-3D21-4069-803E-5DB25F17969D}" name="Login to Console" dataDxfId="50"/>
+    <tableColumn id="24" xr3:uid="{1EDB8FD2-8E09-4474-91A5-A36ECEB14726}" name="Resolution Width" dataDxfId="49"/>
+    <tableColumn id="23" xr3:uid="{DB0036E5-18AF-4A7A-A604-C4CE721E562A}" name="Resolution Height" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{36F3B513-66B2-4106-8E60-914DCF115BF0}" name="Resolution Depth" dataDxfId="47"/>
+    <tableColumn id="20" xr3:uid="{8D155233-4738-4D3E-98AB-9BC866128487}" name="Font Smoothing" dataDxfId="46"/>
+    <tableColumn id="21" xr3:uid="{1F0CDD28-64EC-4EBF-91ED-86542199B14B}" name="Auto Download Processes" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="Result" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:W201" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:W201" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID *" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{3431FCE0-26EF-4093-9AE7-4084AE841E8A}" name="Allow Web Login" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID *" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Surname" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Email" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="Status" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Password" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{3431FCE0-26EF-4093-9AE7-4084AE841E8A}" name="Allow Web Login" dataDxfId="34"/>
     <tableColumn id="6" xr3:uid="{D8AF75B1-BA5F-4C40-881D-BE4839E452FB}" name="Domain\Username - Attended Robot" dataDxfId="33"/>
     <tableColumn id="7" xr3:uid="{9A1A257D-4C53-482B-A330-4A8DCE96C60A}" name="License Type - Attended Robot" dataDxfId="32"/>
     <tableColumn id="14" xr3:uid="{C4940F77-AEFE-4413-8C8E-2CBEFB736317}" name="Create Personal Workspace - Attended Robot" dataDxfId="31"/>
@@ -4422,7 +4454,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4430,102 +4462,105 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="2" customWidth="1"/>
-    <col min="5" max="6" width="45.75" style="2" customWidth="1"/>
-    <col min="7" max="23" width="25.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.75" style="2" customWidth="1"/>
-    <col min="25" max="25" width="45.75" style="2" customWidth="1"/>
-    <col min="26" max="26" width="11.25" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.75" style="2"/>
+    <col min="1" max="4" width="25.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="45.75" style="2" customWidth="1"/>
+    <col min="8" max="24" width="25.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.75" style="2" customWidth="1"/>
+    <col min="26" max="26" width="45.75" style="2" customWidth="1"/>
+    <col min="27" max="27" width="11.25" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="I1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
@@ -4541,18 +4576,19 @@
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
-      <c r="X2" s="3"/>
+      <c r="X2" s="26"/>
       <c r="Y2" s="3"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="25"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -4568,18 +4604,19 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="25"/>
       <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4595,18 +4632,19 @@
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
-      <c r="X4" s="3"/>
+      <c r="X4" s="25"/>
       <c r="Y4" s="3"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="25"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -4622,18 +4660,19 @@
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
-      <c r="X5" s="3"/>
+      <c r="X5" s="25"/>
       <c r="Y5" s="3"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -4649,18 +4688,19 @@
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
-      <c r="X6" s="3"/>
+      <c r="X6" s="25"/>
       <c r="Y6" s="3"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -4676,18 +4716,19 @@
       <c r="U7" s="25"/>
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
-      <c r="X7" s="3"/>
+      <c r="X7" s="25"/>
       <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -4703,18 +4744,19 @@
       <c r="U8" s="25"/>
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
-      <c r="X8" s="3"/>
+      <c r="X8" s="25"/>
       <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -4730,18 +4772,19 @@
       <c r="U9" s="25"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
-      <c r="X9" s="3"/>
+      <c r="X9" s="25"/>
       <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -4757,18 +4800,19 @@
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
-      <c r="X10" s="3"/>
+      <c r="X10" s="25"/>
       <c r="Y10" s="3"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="25"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
@@ -4784,18 +4828,19 @@
       <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="3"/>
+      <c r="X11" s="25"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
@@ -4811,18 +4856,19 @@
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
-      <c r="X12" s="3"/>
+      <c r="X12" s="25"/>
       <c r="Y12" s="3"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
@@ -4838,18 +4884,19 @@
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
-      <c r="X13" s="3"/>
+      <c r="X13" s="25"/>
       <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
@@ -4865,18 +4912,19 @@
       <c r="U14" s="25"/>
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
-      <c r="X14" s="3"/>
+      <c r="X14" s="25"/>
       <c r="Y14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
@@ -4892,18 +4940,19 @@
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
-      <c r="X15" s="3"/>
+      <c r="X15" s="25"/>
       <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -4919,18 +4968,19 @@
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
-      <c r="X16" s="3"/>
+      <c r="X16" s="25"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="25"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
@@ -4946,18 +4996,19 @@
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="25"/>
       <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="25"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -4973,18 +5024,19 @@
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
-      <c r="X18" s="3"/>
+      <c r="X18" s="25"/>
       <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -5000,18 +5052,19 @@
       <c r="U19" s="25"/>
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
-      <c r="X19" s="3"/>
+      <c r="X19" s="25"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
@@ -5027,18 +5080,19 @@
       <c r="U20" s="25"/>
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
-      <c r="X20" s="3"/>
+      <c r="X20" s="25"/>
       <c r="Y20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="25"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -5054,18 +5108,19 @@
       <c r="U21" s="25"/>
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
-      <c r="X21" s="3"/>
+      <c r="X21" s="25"/>
       <c r="Y21" s="3"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="25"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
@@ -5081,18 +5136,19 @@
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
-      <c r="X22" s="3"/>
+      <c r="X22" s="25"/>
       <c r="Y22" s="3"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="25"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
@@ -5108,18 +5164,19 @@
       <c r="U23" s="25"/>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
-      <c r="X23" s="3"/>
+      <c r="X23" s="25"/>
       <c r="Y23" s="3"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -5135,18 +5192,19 @@
       <c r="U24" s="25"/>
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
-      <c r="X24" s="3"/>
+      <c r="X24" s="25"/>
       <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -5162,18 +5220,19 @@
       <c r="U25" s="25"/>
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
-      <c r="X25" s="3"/>
+      <c r="X25" s="25"/>
       <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="25"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
@@ -5189,18 +5248,19 @@
       <c r="U26" s="25"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
-      <c r="X26" s="3"/>
+      <c r="X26" s="25"/>
       <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="25"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -5216,18 +5276,19 @@
       <c r="U27" s="25"/>
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
-      <c r="X27" s="3"/>
+      <c r="X27" s="25"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
@@ -5243,18 +5304,19 @@
       <c r="U28" s="25"/>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
-      <c r="X28" s="3"/>
+      <c r="X28" s="25"/>
       <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
@@ -5270,18 +5332,19 @@
       <c r="U29" s="25"/>
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
-      <c r="X29" s="3"/>
+      <c r="X29" s="25"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="25"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
       <c r="K30" s="25"/>
@@ -5297,18 +5360,19 @@
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
-      <c r="X30" s="3"/>
+      <c r="X30" s="25"/>
       <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
@@ -5324,18 +5388,19 @@
       <c r="U31" s="25"/>
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
-      <c r="X31" s="3"/>
+      <c r="X31" s="25"/>
       <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
       <c r="K32" s="25"/>
@@ -5351,18 +5416,19 @@
       <c r="U32" s="25"/>
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
-      <c r="X32" s="3"/>
+      <c r="X32" s="25"/>
       <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="25"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -5378,18 +5444,19 @@
       <c r="U33" s="25"/>
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
-      <c r="X33" s="3"/>
+      <c r="X33" s="25"/>
       <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
@@ -5405,18 +5472,19 @@
       <c r="U34" s="25"/>
       <c r="V34" s="25"/>
       <c r="W34" s="25"/>
-      <c r="X34" s="3"/>
+      <c r="X34" s="25"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="25"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
@@ -5432,18 +5500,19 @@
       <c r="U35" s="25"/>
       <c r="V35" s="25"/>
       <c r="W35" s="25"/>
-      <c r="X35" s="3"/>
+      <c r="X35" s="25"/>
       <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="25"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="25"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
@@ -5459,18 +5528,19 @@
       <c r="U36" s="25"/>
       <c r="V36" s="25"/>
       <c r="W36" s="25"/>
-      <c r="X36" s="3"/>
+      <c r="X36" s="25"/>
       <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="25"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="25"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
@@ -5486,18 +5556,19 @@
       <c r="U37" s="25"/>
       <c r="V37" s="25"/>
       <c r="W37" s="25"/>
-      <c r="X37" s="3"/>
+      <c r="X37" s="25"/>
       <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="25"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="25"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
@@ -5513,18 +5584,19 @@
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
       <c r="W38" s="25"/>
-      <c r="X38" s="3"/>
+      <c r="X38" s="25"/>
       <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="25"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="9"/>
       <c r="I39" s="25"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
@@ -5540,18 +5612,19 @@
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
       <c r="W39" s="25"/>
-      <c r="X39" s="3"/>
+      <c r="X39" s="25"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="25"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="25"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
@@ -5567,18 +5640,19 @@
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
       <c r="W40" s="25"/>
-      <c r="X40" s="3"/>
+      <c r="X40" s="25"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="25"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
@@ -5594,18 +5668,19 @@
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
       <c r="W41" s="25"/>
-      <c r="X41" s="3"/>
+      <c r="X41" s="25"/>
       <c r="Y41" s="3"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="25"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
       <c r="I42" s="25"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
@@ -5621,18 +5696,19 @@
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
       <c r="W42" s="25"/>
-      <c r="X42" s="3"/>
+      <c r="X42" s="25"/>
       <c r="Y42" s="3"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
@@ -5648,18 +5724,19 @@
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
       <c r="W43" s="25"/>
-      <c r="X43" s="3"/>
+      <c r="X43" s="25"/>
       <c r="Y43" s="3"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="25"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
       <c r="I44" s="25"/>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
@@ -5675,18 +5752,19 @@
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
       <c r="W44" s="25"/>
-      <c r="X44" s="3"/>
+      <c r="X44" s="25"/>
       <c r="Y44" s="3"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="25"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="9"/>
       <c r="I45" s="25"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
@@ -5702,18 +5780,19 @@
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
-      <c r="X45" s="3"/>
+      <c r="X45" s="25"/>
       <c r="Y45" s="3"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="25"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
       <c r="K46" s="25"/>
@@ -5729,18 +5808,19 @@
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
       <c r="W46" s="25"/>
-      <c r="X46" s="3"/>
+      <c r="X46" s="25"/>
       <c r="Y46" s="3"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="25"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="25"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
@@ -5756,18 +5836,19 @@
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="3"/>
+      <c r="X47" s="25"/>
       <c r="Y47" s="3"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="25"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9"/>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
       <c r="K48" s="25"/>
@@ -5783,18 +5864,19 @@
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
       <c r="W48" s="25"/>
-      <c r="X48" s="3"/>
+      <c r="X48" s="25"/>
       <c r="Y48" s="3"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="25"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="9"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
@@ -5810,18 +5892,19 @@
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
-      <c r="X49" s="3"/>
+      <c r="X49" s="25"/>
       <c r="Y49" s="3"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
@@ -5837,18 +5920,19 @@
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
       <c r="W50" s="25"/>
-      <c r="X50" s="3"/>
+      <c r="X50" s="25"/>
       <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="25"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
@@ -5864,18 +5948,19 @@
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
-      <c r="X51" s="3"/>
+      <c r="X51" s="25"/>
       <c r="Y51" s="3"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="25"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="9"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
@@ -5891,18 +5976,19 @@
       <c r="U52" s="25"/>
       <c r="V52" s="25"/>
       <c r="W52" s="25"/>
-      <c r="X52" s="3"/>
+      <c r="X52" s="25"/>
       <c r="Y52" s="3"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="25"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
@@ -5918,18 +6004,19 @@
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
       <c r="W53" s="25"/>
-      <c r="X53" s="3"/>
+      <c r="X53" s="25"/>
       <c r="Y53" s="3"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="25"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="9"/>
       <c r="I54" s="25"/>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
@@ -5945,18 +6032,19 @@
       <c r="U54" s="25"/>
       <c r="V54" s="25"/>
       <c r="W54" s="25"/>
-      <c r="X54" s="3"/>
+      <c r="X54" s="25"/>
       <c r="Y54" s="3"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="25"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
@@ -5972,18 +6060,19 @@
       <c r="U55" s="25"/>
       <c r="V55" s="25"/>
       <c r="W55" s="25"/>
-      <c r="X55" s="3"/>
+      <c r="X55" s="25"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="25"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="9"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
@@ -5999,18 +6088,19 @@
       <c r="U56" s="25"/>
       <c r="V56" s="25"/>
       <c r="W56" s="25"/>
-      <c r="X56" s="3"/>
+      <c r="X56" s="25"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="25"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="9"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
@@ -6026,18 +6116,19 @@
       <c r="U57" s="25"/>
       <c r="V57" s="25"/>
       <c r="W57" s="25"/>
-      <c r="X57" s="3"/>
+      <c r="X57" s="25"/>
       <c r="Y57" s="3"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="25"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
@@ -6053,18 +6144,19 @@
       <c r="U58" s="25"/>
       <c r="V58" s="25"/>
       <c r="W58" s="25"/>
-      <c r="X58" s="3"/>
+      <c r="X58" s="25"/>
       <c r="Y58" s="3"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="25"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
@@ -6080,18 +6172,19 @@
       <c r="U59" s="25"/>
       <c r="V59" s="25"/>
       <c r="W59" s="25"/>
-      <c r="X59" s="3"/>
+      <c r="X59" s="25"/>
       <c r="Y59" s="3"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="25"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="9"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
@@ -6107,18 +6200,19 @@
       <c r="U60" s="25"/>
       <c r="V60" s="25"/>
       <c r="W60" s="25"/>
-      <c r="X60" s="3"/>
+      <c r="X60" s="25"/>
       <c r="Y60" s="3"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="25"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="9"/>
       <c r="I61" s="25"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
@@ -6134,18 +6228,19 @@
       <c r="U61" s="25"/>
       <c r="V61" s="25"/>
       <c r="W61" s="25"/>
-      <c r="X61" s="3"/>
+      <c r="X61" s="25"/>
       <c r="Y61" s="3"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="25"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="9"/>
       <c r="I62" s="25"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
@@ -6161,18 +6256,19 @@
       <c r="U62" s="25"/>
       <c r="V62" s="25"/>
       <c r="W62" s="25"/>
-      <c r="X62" s="3"/>
+      <c r="X62" s="25"/>
       <c r="Y62" s="3"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="25"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="9"/>
       <c r="I63" s="25"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
@@ -6188,18 +6284,19 @@
       <c r="U63" s="25"/>
       <c r="V63" s="25"/>
       <c r="W63" s="25"/>
-      <c r="X63" s="3"/>
+      <c r="X63" s="25"/>
       <c r="Y63" s="3"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="25"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="25"/>
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
@@ -6215,18 +6312,19 @@
       <c r="U64" s="25"/>
       <c r="V64" s="25"/>
       <c r="W64" s="25"/>
-      <c r="X64" s="3"/>
+      <c r="X64" s="25"/>
       <c r="Y64" s="3"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="25"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
       <c r="I65" s="25"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
@@ -6242,18 +6340,19 @@
       <c r="U65" s="25"/>
       <c r="V65" s="25"/>
       <c r="W65" s="25"/>
-      <c r="X65" s="3"/>
+      <c r="X65" s="25"/>
       <c r="Y65" s="3"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="25"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
       <c r="I66" s="25"/>
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
@@ -6269,18 +6368,19 @@
       <c r="U66" s="25"/>
       <c r="V66" s="25"/>
       <c r="W66" s="25"/>
-      <c r="X66" s="3"/>
+      <c r="X66" s="25"/>
       <c r="Y66" s="3"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="25"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="9"/>
       <c r="I67" s="25"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
@@ -6296,18 +6396,19 @@
       <c r="U67" s="25"/>
       <c r="V67" s="25"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="3"/>
+      <c r="X67" s="25"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="25"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="9"/>
       <c r="I68" s="25"/>
       <c r="J68" s="25"/>
       <c r="K68" s="25"/>
@@ -6323,18 +6424,19 @@
       <c r="U68" s="25"/>
       <c r="V68" s="25"/>
       <c r="W68" s="25"/>
-      <c r="X68" s="3"/>
+      <c r="X68" s="25"/>
       <c r="Y68" s="3"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="25"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
       <c r="I69" s="25"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
@@ -6350,18 +6452,19 @@
       <c r="U69" s="25"/>
       <c r="V69" s="25"/>
       <c r="W69" s="25"/>
-      <c r="X69" s="3"/>
+      <c r="X69" s="25"/>
       <c r="Y69" s="3"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="25"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
       <c r="I70" s="25"/>
       <c r="J70" s="25"/>
       <c r="K70" s="25"/>
@@ -6377,18 +6480,19 @@
       <c r="U70" s="25"/>
       <c r="V70" s="25"/>
       <c r="W70" s="25"/>
-      <c r="X70" s="3"/>
+      <c r="X70" s="25"/>
       <c r="Y70" s="3"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="25"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="25"/>
       <c r="J71" s="25"/>
       <c r="K71" s="25"/>
@@ -6404,18 +6508,19 @@
       <c r="U71" s="25"/>
       <c r="V71" s="25"/>
       <c r="W71" s="25"/>
-      <c r="X71" s="3"/>
+      <c r="X71" s="25"/>
       <c r="Y71" s="3"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="25"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="25"/>
       <c r="J72" s="25"/>
       <c r="K72" s="25"/>
@@ -6431,18 +6536,19 @@
       <c r="U72" s="25"/>
       <c r="V72" s="25"/>
       <c r="W72" s="25"/>
-      <c r="X72" s="3"/>
+      <c r="X72" s="25"/>
       <c r="Y72" s="3"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="25"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="25"/>
       <c r="J73" s="25"/>
       <c r="K73" s="25"/>
@@ -6458,18 +6564,19 @@
       <c r="U73" s="25"/>
       <c r="V73" s="25"/>
       <c r="W73" s="25"/>
-      <c r="X73" s="3"/>
+      <c r="X73" s="25"/>
       <c r="Y73" s="3"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="25"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="9"/>
       <c r="I74" s="25"/>
       <c r="J74" s="25"/>
       <c r="K74" s="25"/>
@@ -6485,18 +6592,19 @@
       <c r="U74" s="25"/>
       <c r="V74" s="25"/>
       <c r="W74" s="25"/>
-      <c r="X74" s="3"/>
+      <c r="X74" s="25"/>
       <c r="Y74" s="3"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="25"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
       <c r="I75" s="25"/>
       <c r="J75" s="25"/>
       <c r="K75" s="25"/>
@@ -6512,18 +6620,19 @@
       <c r="U75" s="25"/>
       <c r="V75" s="25"/>
       <c r="W75" s="25"/>
-      <c r="X75" s="3"/>
+      <c r="X75" s="25"/>
       <c r="Y75" s="3"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="25"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="9"/>
       <c r="I76" s="25"/>
       <c r="J76" s="25"/>
       <c r="K76" s="25"/>
@@ -6539,18 +6648,19 @@
       <c r="U76" s="25"/>
       <c r="V76" s="25"/>
       <c r="W76" s="25"/>
-      <c r="X76" s="3"/>
+      <c r="X76" s="25"/>
       <c r="Y76" s="3"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="25"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
       <c r="I77" s="25"/>
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
@@ -6566,18 +6676,19 @@
       <c r="U77" s="25"/>
       <c r="V77" s="25"/>
       <c r="W77" s="25"/>
-      <c r="X77" s="3"/>
+      <c r="X77" s="25"/>
       <c r="Y77" s="3"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="25"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="9"/>
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
@@ -6593,18 +6704,19 @@
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
       <c r="W78" s="25"/>
-      <c r="X78" s="3"/>
+      <c r="X78" s="25"/>
       <c r="Y78" s="3"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="25"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
@@ -6620,18 +6732,19 @@
       <c r="U79" s="25"/>
       <c r="V79" s="25"/>
       <c r="W79" s="25"/>
-      <c r="X79" s="3"/>
+      <c r="X79" s="25"/>
       <c r="Y79" s="3"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="25"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="9"/>
       <c r="I80" s="25"/>
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
@@ -6647,18 +6760,19 @@
       <c r="U80" s="25"/>
       <c r="V80" s="25"/>
       <c r="W80" s="25"/>
-      <c r="X80" s="3"/>
+      <c r="X80" s="25"/>
       <c r="Y80" s="3"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="25"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="9"/>
       <c r="I81" s="25"/>
       <c r="J81" s="25"/>
       <c r="K81" s="25"/>
@@ -6674,18 +6788,19 @@
       <c r="U81" s="25"/>
       <c r="V81" s="25"/>
       <c r="W81" s="25"/>
-      <c r="X81" s="3"/>
+      <c r="X81" s="25"/>
       <c r="Y81" s="3"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="25"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="9"/>
       <c r="I82" s="25"/>
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
@@ -6701,18 +6816,19 @@
       <c r="U82" s="25"/>
       <c r="V82" s="25"/>
       <c r="W82" s="25"/>
-      <c r="X82" s="3"/>
+      <c r="X82" s="25"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="25"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="9"/>
       <c r="I83" s="25"/>
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
@@ -6728,18 +6844,19 @@
       <c r="U83" s="25"/>
       <c r="V83" s="25"/>
       <c r="W83" s="25"/>
-      <c r="X83" s="3"/>
+      <c r="X83" s="25"/>
       <c r="Y83" s="3"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="25"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="9"/>
       <c r="I84" s="25"/>
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
@@ -6755,18 +6872,19 @@
       <c r="U84" s="25"/>
       <c r="V84" s="25"/>
       <c r="W84" s="25"/>
-      <c r="X84" s="3"/>
+      <c r="X84" s="25"/>
       <c r="Y84" s="3"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="25"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
@@ -6782,18 +6900,19 @@
       <c r="U85" s="25"/>
       <c r="V85" s="25"/>
       <c r="W85" s="25"/>
-      <c r="X85" s="3"/>
+      <c r="X85" s="25"/>
       <c r="Y85" s="3"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="25"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
       <c r="K86" s="25"/>
@@ -6809,18 +6928,19 @@
       <c r="U86" s="25"/>
       <c r="V86" s="25"/>
       <c r="W86" s="25"/>
-      <c r="X86" s="3"/>
+      <c r="X86" s="25"/>
       <c r="Y86" s="3"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="25"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
       <c r="K87" s="25"/>
@@ -6836,18 +6956,19 @@
       <c r="U87" s="25"/>
       <c r="V87" s="25"/>
       <c r="W87" s="25"/>
-      <c r="X87" s="3"/>
+      <c r="X87" s="25"/>
       <c r="Y87" s="3"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="25"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
       <c r="K88" s="25"/>
@@ -6863,18 +6984,19 @@
       <c r="U88" s="25"/>
       <c r="V88" s="25"/>
       <c r="W88" s="25"/>
-      <c r="X88" s="3"/>
+      <c r="X88" s="25"/>
       <c r="Y88" s="3"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="25"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
       <c r="I89" s="25"/>
       <c r="J89" s="25"/>
       <c r="K89" s="25"/>
@@ -6890,18 +7012,19 @@
       <c r="U89" s="25"/>
       <c r="V89" s="25"/>
       <c r="W89" s="25"/>
-      <c r="X89" s="3"/>
+      <c r="X89" s="25"/>
       <c r="Y89" s="3"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="25"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="9"/>
       <c r="I90" s="25"/>
       <c r="J90" s="25"/>
       <c r="K90" s="25"/>
@@ -6917,18 +7040,19 @@
       <c r="U90" s="25"/>
       <c r="V90" s="25"/>
       <c r="W90" s="25"/>
-      <c r="X90" s="3"/>
+      <c r="X90" s="25"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="25"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
       <c r="K91" s="25"/>
@@ -6944,18 +7068,19 @@
       <c r="U91" s="25"/>
       <c r="V91" s="25"/>
       <c r="W91" s="25"/>
-      <c r="X91" s="3"/>
+      <c r="X91" s="25"/>
       <c r="Y91" s="3"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="25"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="9"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
       <c r="K92" s="25"/>
@@ -6971,18 +7096,19 @@
       <c r="U92" s="25"/>
       <c r="V92" s="25"/>
       <c r="W92" s="25"/>
-      <c r="X92" s="3"/>
+      <c r="X92" s="25"/>
       <c r="Y92" s="3"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="25"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="9"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
       <c r="K93" s="25"/>
@@ -6998,18 +7124,19 @@
       <c r="U93" s="25"/>
       <c r="V93" s="25"/>
       <c r="W93" s="25"/>
-      <c r="X93" s="3"/>
+      <c r="X93" s="25"/>
       <c r="Y93" s="3"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="25"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="25"/>
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
@@ -7025,18 +7152,19 @@
       <c r="U94" s="25"/>
       <c r="V94" s="25"/>
       <c r="W94" s="25"/>
-      <c r="X94" s="3"/>
+      <c r="X94" s="25"/>
       <c r="Y94" s="3"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="25"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="9"/>
       <c r="I95" s="25"/>
       <c r="J95" s="25"/>
       <c r="K95" s="25"/>
@@ -7052,18 +7180,19 @@
       <c r="U95" s="25"/>
       <c r="V95" s="25"/>
       <c r="W95" s="25"/>
-      <c r="X95" s="3"/>
+      <c r="X95" s="25"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="25"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
       <c r="I96" s="25"/>
       <c r="J96" s="25"/>
       <c r="K96" s="25"/>
@@ -7079,18 +7208,19 @@
       <c r="U96" s="25"/>
       <c r="V96" s="25"/>
       <c r="W96" s="25"/>
-      <c r="X96" s="3"/>
+      <c r="X96" s="25"/>
       <c r="Y96" s="3"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="25"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="9"/>
       <c r="I97" s="25"/>
       <c r="J97" s="25"/>
       <c r="K97" s="25"/>
@@ -7106,18 +7236,19 @@
       <c r="U97" s="25"/>
       <c r="V97" s="25"/>
       <c r="W97" s="25"/>
-      <c r="X97" s="3"/>
+      <c r="X97" s="25"/>
       <c r="Y97" s="3"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="25"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="25"/>
       <c r="J98" s="25"/>
       <c r="K98" s="25"/>
@@ -7133,18 +7264,19 @@
       <c r="U98" s="25"/>
       <c r="V98" s="25"/>
       <c r="W98" s="25"/>
-      <c r="X98" s="3"/>
+      <c r="X98" s="25"/>
       <c r="Y98" s="3"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="25"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="25"/>
       <c r="J99" s="25"/>
       <c r="K99" s="25"/>
@@ -7160,18 +7292,19 @@
       <c r="U99" s="25"/>
       <c r="V99" s="25"/>
       <c r="W99" s="25"/>
-      <c r="X99" s="3"/>
+      <c r="X99" s="25"/>
       <c r="Y99" s="3"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z99" s="3"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="25"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="25"/>
       <c r="J100" s="25"/>
       <c r="K100" s="25"/>
@@ -7187,18 +7320,19 @@
       <c r="U100" s="25"/>
       <c r="V100" s="25"/>
       <c r="W100" s="25"/>
-      <c r="X100" s="3"/>
+      <c r="X100" s="25"/>
       <c r="Y100" s="3"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z100" s="3"/>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="25"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="25"/>
       <c r="J101" s="25"/>
       <c r="K101" s="25"/>
@@ -7214,18 +7348,19 @@
       <c r="U101" s="25"/>
       <c r="V101" s="25"/>
       <c r="W101" s="25"/>
-      <c r="X101" s="3"/>
+      <c r="X101" s="25"/>
       <c r="Y101" s="3"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z101" s="3"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="8"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="25"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="25"/>
       <c r="J102" s="25"/>
       <c r="K102" s="25"/>
@@ -7241,18 +7376,19 @@
       <c r="U102" s="25"/>
       <c r="V102" s="25"/>
       <c r="W102" s="25"/>
-      <c r="X102" s="3"/>
+      <c r="X102" s="25"/>
       <c r="Y102" s="3"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z102" s="3"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="22"/>
       <c r="F103" s="8"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="25"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="25"/>
       <c r="J103" s="25"/>
       <c r="K103" s="25"/>
@@ -7268,18 +7404,19 @@
       <c r="U103" s="25"/>
       <c r="V103" s="25"/>
       <c r="W103" s="25"/>
-      <c r="X103" s="3"/>
+      <c r="X103" s="25"/>
       <c r="Y103" s="3"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z103" s="3"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="8"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="25"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
       <c r="I104" s="25"/>
       <c r="J104" s="25"/>
       <c r="K104" s="25"/>
@@ -7295,18 +7432,19 @@
       <c r="U104" s="25"/>
       <c r="V104" s="25"/>
       <c r="W104" s="25"/>
-      <c r="X104" s="3"/>
+      <c r="X104" s="25"/>
       <c r="Y104" s="3"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z104" s="3"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="8"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="25"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
       <c r="I105" s="25"/>
       <c r="J105" s="25"/>
       <c r="K105" s="25"/>
@@ -7322,18 +7460,19 @@
       <c r="U105" s="25"/>
       <c r="V105" s="25"/>
       <c r="W105" s="25"/>
-      <c r="X105" s="3"/>
+      <c r="X105" s="25"/>
       <c r="Y105" s="3"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z105" s="3"/>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="8"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="25"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="9"/>
       <c r="I106" s="25"/>
       <c r="J106" s="25"/>
       <c r="K106" s="25"/>
@@ -7349,18 +7488,19 @@
       <c r="U106" s="25"/>
       <c r="V106" s="25"/>
       <c r="W106" s="25"/>
-      <c r="X106" s="3"/>
+      <c r="X106" s="25"/>
       <c r="Y106" s="3"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z106" s="3"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="22"/>
       <c r="F107" s="8"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="25"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
       <c r="I107" s="25"/>
       <c r="J107" s="25"/>
       <c r="K107" s="25"/>
@@ -7376,18 +7516,19 @@
       <c r="U107" s="25"/>
       <c r="V107" s="25"/>
       <c r="W107" s="25"/>
-      <c r="X107" s="3"/>
+      <c r="X107" s="25"/>
       <c r="Y107" s="3"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z107" s="3"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="22"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="25"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="25"/>
       <c r="J108" s="25"/>
       <c r="K108" s="25"/>
@@ -7403,18 +7544,19 @@
       <c r="U108" s="25"/>
       <c r="V108" s="25"/>
       <c r="W108" s="25"/>
-      <c r="X108" s="3"/>
+      <c r="X108" s="25"/>
       <c r="Y108" s="3"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z108" s="3"/>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="22"/>
       <c r="F109" s="8"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="25"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
       <c r="K109" s="25"/>
@@ -7430,18 +7572,19 @@
       <c r="U109" s="25"/>
       <c r="V109" s="25"/>
       <c r="W109" s="25"/>
-      <c r="X109" s="3"/>
+      <c r="X109" s="25"/>
       <c r="Y109" s="3"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z109" s="3"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="22"/>
       <c r="F110" s="8"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="25"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
       <c r="K110" s="25"/>
@@ -7457,18 +7600,19 @@
       <c r="U110" s="25"/>
       <c r="V110" s="25"/>
       <c r="W110" s="25"/>
-      <c r="X110" s="3"/>
+      <c r="X110" s="25"/>
       <c r="Y110" s="3"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z110" s="3"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="22"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="25"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
       <c r="I111" s="25"/>
       <c r="J111" s="25"/>
       <c r="K111" s="25"/>
@@ -7484,18 +7628,19 @@
       <c r="U111" s="25"/>
       <c r="V111" s="25"/>
       <c r="W111" s="25"/>
-      <c r="X111" s="3"/>
+      <c r="X111" s="25"/>
       <c r="Y111" s="3"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z111" s="3"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="22"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="25"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
       <c r="I112" s="25"/>
       <c r="J112" s="25"/>
       <c r="K112" s="25"/>
@@ -7511,18 +7656,19 @@
       <c r="U112" s="25"/>
       <c r="V112" s="25"/>
       <c r="W112" s="25"/>
-      <c r="X112" s="3"/>
+      <c r="X112" s="25"/>
       <c r="Y112" s="3"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z112" s="3"/>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="22"/>
       <c r="F113" s="8"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="25"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9"/>
       <c r="I113" s="25"/>
       <c r="J113" s="25"/>
       <c r="K113" s="25"/>
@@ -7538,18 +7684,19 @@
       <c r="U113" s="25"/>
       <c r="V113" s="25"/>
       <c r="W113" s="25"/>
-      <c r="X113" s="3"/>
+      <c r="X113" s="25"/>
       <c r="Y113" s="3"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z113" s="3"/>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="22"/>
       <c r="F114" s="8"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="25"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="9"/>
       <c r="I114" s="25"/>
       <c r="J114" s="25"/>
       <c r="K114" s="25"/>
@@ -7565,18 +7712,19 @@
       <c r="U114" s="25"/>
       <c r="V114" s="25"/>
       <c r="W114" s="25"/>
-      <c r="X114" s="3"/>
+      <c r="X114" s="25"/>
       <c r="Y114" s="3"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z114" s="3"/>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="22"/>
       <c r="F115" s="8"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="25"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="9"/>
       <c r="I115" s="25"/>
       <c r="J115" s="25"/>
       <c r="K115" s="25"/>
@@ -7592,18 +7740,19 @@
       <c r="U115" s="25"/>
       <c r="V115" s="25"/>
       <c r="W115" s="25"/>
-      <c r="X115" s="3"/>
+      <c r="X115" s="25"/>
       <c r="Y115" s="3"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z115" s="3"/>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="22"/>
       <c r="F116" s="8"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="25"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="9"/>
       <c r="I116" s="25"/>
       <c r="J116" s="25"/>
       <c r="K116" s="25"/>
@@ -7619,18 +7768,19 @@
       <c r="U116" s="25"/>
       <c r="V116" s="25"/>
       <c r="W116" s="25"/>
-      <c r="X116" s="3"/>
+      <c r="X116" s="25"/>
       <c r="Y116" s="3"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z116" s="3"/>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="22"/>
       <c r="F117" s="8"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="25"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="9"/>
       <c r="I117" s="25"/>
       <c r="J117" s="25"/>
       <c r="K117" s="25"/>
@@ -7646,18 +7796,19 @@
       <c r="U117" s="25"/>
       <c r="V117" s="25"/>
       <c r="W117" s="25"/>
-      <c r="X117" s="3"/>
+      <c r="X117" s="25"/>
       <c r="Y117" s="3"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z117" s="3"/>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="22"/>
       <c r="F118" s="8"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="25"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="9"/>
       <c r="I118" s="25"/>
       <c r="J118" s="25"/>
       <c r="K118" s="25"/>
@@ -7673,18 +7824,19 @@
       <c r="U118" s="25"/>
       <c r="V118" s="25"/>
       <c r="W118" s="25"/>
-      <c r="X118" s="3"/>
+      <c r="X118" s="25"/>
       <c r="Y118" s="3"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z118" s="3"/>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="22"/>
       <c r="F119" s="8"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="25"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="9"/>
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
       <c r="K119" s="25"/>
@@ -7700,18 +7852,19 @@
       <c r="U119" s="25"/>
       <c r="V119" s="25"/>
       <c r="W119" s="25"/>
-      <c r="X119" s="3"/>
+      <c r="X119" s="25"/>
       <c r="Y119" s="3"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z119" s="3"/>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="8"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="25"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="9"/>
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
       <c r="K120" s="25"/>
@@ -7727,18 +7880,19 @@
       <c r="U120" s="25"/>
       <c r="V120" s="25"/>
       <c r="W120" s="25"/>
-      <c r="X120" s="3"/>
+      <c r="X120" s="25"/>
       <c r="Y120" s="3"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z120" s="3"/>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="22"/>
       <c r="F121" s="8"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="25"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="9"/>
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
       <c r="K121" s="25"/>
@@ -7754,18 +7908,19 @@
       <c r="U121" s="25"/>
       <c r="V121" s="25"/>
       <c r="W121" s="25"/>
-      <c r="X121" s="3"/>
+      <c r="X121" s="25"/>
       <c r="Y121" s="3"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z121" s="3"/>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="22"/>
       <c r="F122" s="8"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="25"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="9"/>
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
       <c r="K122" s="25"/>
@@ -7781,18 +7936,19 @@
       <c r="U122" s="25"/>
       <c r="V122" s="25"/>
       <c r="W122" s="25"/>
-      <c r="X122" s="3"/>
+      <c r="X122" s="25"/>
       <c r="Y122" s="3"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z122" s="3"/>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="22"/>
       <c r="F123" s="8"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="25"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="9"/>
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
       <c r="K123" s="25"/>
@@ -7808,18 +7964,19 @@
       <c r="U123" s="25"/>
       <c r="V123" s="25"/>
       <c r="W123" s="25"/>
-      <c r="X123" s="3"/>
+      <c r="X123" s="25"/>
       <c r="Y123" s="3"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z123" s="3"/>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="22"/>
       <c r="F124" s="8"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="25"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
       <c r="K124" s="25"/>
@@ -7835,18 +7992,19 @@
       <c r="U124" s="25"/>
       <c r="V124" s="25"/>
       <c r="W124" s="25"/>
-      <c r="X124" s="3"/>
+      <c r="X124" s="25"/>
       <c r="Y124" s="3"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z124" s="3"/>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="22"/>
       <c r="F125" s="8"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="25"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="9"/>
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
       <c r="K125" s="25"/>
@@ -7862,18 +8020,19 @@
       <c r="U125" s="25"/>
       <c r="V125" s="25"/>
       <c r="W125" s="25"/>
-      <c r="X125" s="3"/>
+      <c r="X125" s="25"/>
       <c r="Y125" s="3"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z125" s="3"/>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="22"/>
       <c r="F126" s="8"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="25"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="9"/>
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
       <c r="K126" s="25"/>
@@ -7889,18 +8048,19 @@
       <c r="U126" s="25"/>
       <c r="V126" s="25"/>
       <c r="W126" s="25"/>
-      <c r="X126" s="3"/>
+      <c r="X126" s="25"/>
       <c r="Y126" s="3"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z126" s="3"/>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="22"/>
       <c r="F127" s="8"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="25"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="9"/>
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
       <c r="K127" s="25"/>
@@ -7916,18 +8076,19 @@
       <c r="U127" s="25"/>
       <c r="V127" s="25"/>
       <c r="W127" s="25"/>
-      <c r="X127" s="3"/>
+      <c r="X127" s="25"/>
       <c r="Y127" s="3"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z127" s="3"/>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="22"/>
       <c r="F128" s="8"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="25"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="9"/>
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
       <c r="K128" s="25"/>
@@ -7943,18 +8104,19 @@
       <c r="U128" s="25"/>
       <c r="V128" s="25"/>
       <c r="W128" s="25"/>
-      <c r="X128" s="3"/>
+      <c r="X128" s="25"/>
       <c r="Y128" s="3"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z128" s="3"/>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="22"/>
       <c r="F129" s="8"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="25"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="9"/>
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
       <c r="K129" s="25"/>
@@ -7970,18 +8132,19 @@
       <c r="U129" s="25"/>
       <c r="V129" s="25"/>
       <c r="W129" s="25"/>
-      <c r="X129" s="3"/>
+      <c r="X129" s="25"/>
       <c r="Y129" s="3"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z129" s="3"/>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="22"/>
       <c r="F130" s="8"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="25"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="9"/>
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
       <c r="K130" s="25"/>
@@ -7997,18 +8160,19 @@
       <c r="U130" s="25"/>
       <c r="V130" s="25"/>
       <c r="W130" s="25"/>
-      <c r="X130" s="3"/>
+      <c r="X130" s="25"/>
       <c r="Y130" s="3"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z130" s="3"/>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="22"/>
       <c r="F131" s="8"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="25"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="9"/>
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
       <c r="K131" s="25"/>
@@ -8024,18 +8188,19 @@
       <c r="U131" s="25"/>
       <c r="V131" s="25"/>
       <c r="W131" s="25"/>
-      <c r="X131" s="3"/>
+      <c r="X131" s="25"/>
       <c r="Y131" s="3"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z131" s="3"/>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="22"/>
       <c r="F132" s="8"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="25"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="9"/>
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
       <c r="K132" s="25"/>
@@ -8051,18 +8216,19 @@
       <c r="U132" s="25"/>
       <c r="V132" s="25"/>
       <c r="W132" s="25"/>
-      <c r="X132" s="3"/>
+      <c r="X132" s="25"/>
       <c r="Y132" s="3"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z132" s="3"/>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="22"/>
       <c r="F133" s="8"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="25"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="9"/>
       <c r="I133" s="25"/>
       <c r="J133" s="25"/>
       <c r="K133" s="25"/>
@@ -8078,18 +8244,19 @@
       <c r="U133" s="25"/>
       <c r="V133" s="25"/>
       <c r="W133" s="25"/>
-      <c r="X133" s="3"/>
+      <c r="X133" s="25"/>
       <c r="Y133" s="3"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z133" s="3"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="22"/>
       <c r="F134" s="8"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="25"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="9"/>
       <c r="I134" s="25"/>
       <c r="J134" s="25"/>
       <c r="K134" s="25"/>
@@ -8105,18 +8272,19 @@
       <c r="U134" s="25"/>
       <c r="V134" s="25"/>
       <c r="W134" s="25"/>
-      <c r="X134" s="3"/>
+      <c r="X134" s="25"/>
       <c r="Y134" s="3"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z134" s="3"/>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="22"/>
       <c r="F135" s="8"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="25"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="9"/>
       <c r="I135" s="25"/>
       <c r="J135" s="25"/>
       <c r="K135" s="25"/>
@@ -8132,18 +8300,19 @@
       <c r="U135" s="25"/>
       <c r="V135" s="25"/>
       <c r="W135" s="25"/>
-      <c r="X135" s="3"/>
+      <c r="X135" s="25"/>
       <c r="Y135" s="3"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z135" s="3"/>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="22"/>
       <c r="F136" s="8"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="25"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="9"/>
       <c r="I136" s="25"/>
       <c r="J136" s="25"/>
       <c r="K136" s="25"/>
@@ -8159,18 +8328,19 @@
       <c r="U136" s="25"/>
       <c r="V136" s="25"/>
       <c r="W136" s="25"/>
-      <c r="X136" s="3"/>
+      <c r="X136" s="25"/>
       <c r="Y136" s="3"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z136" s="3"/>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="22"/>
       <c r="F137" s="8"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="25"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="9"/>
       <c r="I137" s="25"/>
       <c r="J137" s="25"/>
       <c r="K137" s="25"/>
@@ -8186,18 +8356,19 @@
       <c r="U137" s="25"/>
       <c r="V137" s="25"/>
       <c r="W137" s="25"/>
-      <c r="X137" s="3"/>
+      <c r="X137" s="25"/>
       <c r="Y137" s="3"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z137" s="3"/>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
-      <c r="D138" s="22"/>
-      <c r="E138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="22"/>
       <c r="F138" s="8"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="25"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
       <c r="I138" s="25"/>
       <c r="J138" s="25"/>
       <c r="K138" s="25"/>
@@ -8213,18 +8384,19 @@
       <c r="U138" s="25"/>
       <c r="V138" s="25"/>
       <c r="W138" s="25"/>
-      <c r="X138" s="3"/>
+      <c r="X138" s="25"/>
       <c r="Y138" s="3"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z138" s="3"/>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
-      <c r="D139" s="22"/>
-      <c r="E139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="22"/>
       <c r="F139" s="8"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="25"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="9"/>
       <c r="I139" s="25"/>
       <c r="J139" s="25"/>
       <c r="K139" s="25"/>
@@ -8240,18 +8412,19 @@
       <c r="U139" s="25"/>
       <c r="V139" s="25"/>
       <c r="W139" s="25"/>
-      <c r="X139" s="3"/>
+      <c r="X139" s="25"/>
       <c r="Y139" s="3"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z139" s="3"/>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
-      <c r="D140" s="22"/>
-      <c r="E140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="22"/>
       <c r="F140" s="8"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="25"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="9"/>
       <c r="I140" s="25"/>
       <c r="J140" s="25"/>
       <c r="K140" s="25"/>
@@ -8267,18 +8440,19 @@
       <c r="U140" s="25"/>
       <c r="V140" s="25"/>
       <c r="W140" s="25"/>
-      <c r="X140" s="3"/>
+      <c r="X140" s="25"/>
       <c r="Y140" s="3"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z140" s="3"/>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="22"/>
       <c r="F141" s="8"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="25"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="9"/>
       <c r="I141" s="25"/>
       <c r="J141" s="25"/>
       <c r="K141" s="25"/>
@@ -8294,18 +8468,19 @@
       <c r="U141" s="25"/>
       <c r="V141" s="25"/>
       <c r="W141" s="25"/>
-      <c r="X141" s="3"/>
+      <c r="X141" s="25"/>
       <c r="Y141" s="3"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z141" s="3"/>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
-      <c r="D142" s="22"/>
-      <c r="E142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="22"/>
       <c r="F142" s="8"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="25"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="9"/>
       <c r="I142" s="25"/>
       <c r="J142" s="25"/>
       <c r="K142" s="25"/>
@@ -8321,18 +8496,19 @@
       <c r="U142" s="25"/>
       <c r="V142" s="25"/>
       <c r="W142" s="25"/>
-      <c r="X142" s="3"/>
+      <c r="X142" s="25"/>
       <c r="Y142" s="3"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z142" s="3"/>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
-      <c r="D143" s="22"/>
-      <c r="E143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="22"/>
       <c r="F143" s="8"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="25"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="9"/>
       <c r="I143" s="25"/>
       <c r="J143" s="25"/>
       <c r="K143" s="25"/>
@@ -8348,18 +8524,19 @@
       <c r="U143" s="25"/>
       <c r="V143" s="25"/>
       <c r="W143" s="25"/>
-      <c r="X143" s="3"/>
+      <c r="X143" s="25"/>
       <c r="Y143" s="3"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z143" s="3"/>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
-      <c r="D144" s="22"/>
-      <c r="E144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="22"/>
       <c r="F144" s="8"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="25"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="9"/>
       <c r="I144" s="25"/>
       <c r="J144" s="25"/>
       <c r="K144" s="25"/>
@@ -8375,18 +8552,19 @@
       <c r="U144" s="25"/>
       <c r="V144" s="25"/>
       <c r="W144" s="25"/>
-      <c r="X144" s="3"/>
+      <c r="X144" s="25"/>
       <c r="Y144" s="3"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z144" s="3"/>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="22"/>
       <c r="F145" s="8"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="25"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="9"/>
       <c r="I145" s="25"/>
       <c r="J145" s="25"/>
       <c r="K145" s="25"/>
@@ -8402,18 +8580,19 @@
       <c r="U145" s="25"/>
       <c r="V145" s="25"/>
       <c r="W145" s="25"/>
-      <c r="X145" s="3"/>
+      <c r="X145" s="25"/>
       <c r="Y145" s="3"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z145" s="3"/>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
-      <c r="D146" s="22"/>
-      <c r="E146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="22"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="25"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="9"/>
       <c r="I146" s="25"/>
       <c r="J146" s="25"/>
       <c r="K146" s="25"/>
@@ -8429,18 +8608,19 @@
       <c r="U146" s="25"/>
       <c r="V146" s="25"/>
       <c r="W146" s="25"/>
-      <c r="X146" s="3"/>
+      <c r="X146" s="25"/>
       <c r="Y146" s="3"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z146" s="3"/>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="22"/>
       <c r="F147" s="8"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="25"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="9"/>
       <c r="I147" s="25"/>
       <c r="J147" s="25"/>
       <c r="K147" s="25"/>
@@ -8456,18 +8636,19 @@
       <c r="U147" s="25"/>
       <c r="V147" s="25"/>
       <c r="W147" s="25"/>
-      <c r="X147" s="3"/>
+      <c r="X147" s="25"/>
       <c r="Y147" s="3"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z147" s="3"/>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
-      <c r="D148" s="22"/>
-      <c r="E148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="22"/>
       <c r="F148" s="8"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="25"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="9"/>
       <c r="I148" s="25"/>
       <c r="J148" s="25"/>
       <c r="K148" s="25"/>
@@ -8483,18 +8664,19 @@
       <c r="U148" s="25"/>
       <c r="V148" s="25"/>
       <c r="W148" s="25"/>
-      <c r="X148" s="3"/>
+      <c r="X148" s="25"/>
       <c r="Y148" s="3"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z148" s="3"/>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
-      <c r="D149" s="22"/>
-      <c r="E149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="22"/>
       <c r="F149" s="8"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="25"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="9"/>
       <c r="I149" s="25"/>
       <c r="J149" s="25"/>
       <c r="K149" s="25"/>
@@ -8510,18 +8692,19 @@
       <c r="U149" s="25"/>
       <c r="V149" s="25"/>
       <c r="W149" s="25"/>
-      <c r="X149" s="3"/>
+      <c r="X149" s="25"/>
       <c r="Y149" s="3"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z149" s="3"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
-      <c r="D150" s="22"/>
-      <c r="E150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="22"/>
       <c r="F150" s="8"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="25"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="9"/>
       <c r="I150" s="25"/>
       <c r="J150" s="25"/>
       <c r="K150" s="25"/>
@@ -8537,18 +8720,19 @@
       <c r="U150" s="25"/>
       <c r="V150" s="25"/>
       <c r="W150" s="25"/>
-      <c r="X150" s="3"/>
+      <c r="X150" s="25"/>
       <c r="Y150" s="3"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z150" s="3"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
-      <c r="D151" s="22"/>
-      <c r="E151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="22"/>
       <c r="F151" s="8"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="25"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="9"/>
       <c r="I151" s="25"/>
       <c r="J151" s="25"/>
       <c r="K151" s="25"/>
@@ -8564,18 +8748,19 @@
       <c r="U151" s="25"/>
       <c r="V151" s="25"/>
       <c r="W151" s="25"/>
-      <c r="X151" s="3"/>
+      <c r="X151" s="25"/>
       <c r="Y151" s="3"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z151" s="3"/>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
-      <c r="D152" s="22"/>
-      <c r="E152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="22"/>
       <c r="F152" s="8"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="25"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="9"/>
       <c r="I152" s="25"/>
       <c r="J152" s="25"/>
       <c r="K152" s="25"/>
@@ -8591,18 +8776,19 @@
       <c r="U152" s="25"/>
       <c r="V152" s="25"/>
       <c r="W152" s="25"/>
-      <c r="X152" s="3"/>
+      <c r="X152" s="25"/>
       <c r="Y152" s="3"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z152" s="3"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
-      <c r="D153" s="22"/>
-      <c r="E153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="22"/>
       <c r="F153" s="8"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="25"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="9"/>
       <c r="I153" s="25"/>
       <c r="J153" s="25"/>
       <c r="K153" s="25"/>
@@ -8618,18 +8804,19 @@
       <c r="U153" s="25"/>
       <c r="V153" s="25"/>
       <c r="W153" s="25"/>
-      <c r="X153" s="3"/>
+      <c r="X153" s="25"/>
       <c r="Y153" s="3"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z153" s="3"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
-      <c r="D154" s="22"/>
-      <c r="E154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="22"/>
       <c r="F154" s="8"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="25"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="9"/>
       <c r="I154" s="25"/>
       <c r="J154" s="25"/>
       <c r="K154" s="25"/>
@@ -8645,18 +8832,19 @@
       <c r="U154" s="25"/>
       <c r="V154" s="25"/>
       <c r="W154" s="25"/>
-      <c r="X154" s="3"/>
+      <c r="X154" s="25"/>
       <c r="Y154" s="3"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z154" s="3"/>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
-      <c r="D155" s="22"/>
-      <c r="E155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="22"/>
       <c r="F155" s="8"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="25"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="9"/>
       <c r="I155" s="25"/>
       <c r="J155" s="25"/>
       <c r="K155" s="25"/>
@@ -8672,18 +8860,19 @@
       <c r="U155" s="25"/>
       <c r="V155" s="25"/>
       <c r="W155" s="25"/>
-      <c r="X155" s="3"/>
+      <c r="X155" s="25"/>
       <c r="Y155" s="3"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z155" s="3"/>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
-      <c r="D156" s="22"/>
-      <c r="E156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="22"/>
       <c r="F156" s="8"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="25"/>
+      <c r="G156" s="8"/>
+      <c r="H156" s="9"/>
       <c r="I156" s="25"/>
       <c r="J156" s="25"/>
       <c r="K156" s="25"/>
@@ -8699,18 +8888,19 @@
       <c r="U156" s="25"/>
       <c r="V156" s="25"/>
       <c r="W156" s="25"/>
-      <c r="X156" s="3"/>
+      <c r="X156" s="25"/>
       <c r="Y156" s="3"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z156" s="3"/>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="22"/>
       <c r="F157" s="8"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="25"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="9"/>
       <c r="I157" s="25"/>
       <c r="J157" s="25"/>
       <c r="K157" s="25"/>
@@ -8726,18 +8916,19 @@
       <c r="U157" s="25"/>
       <c r="V157" s="25"/>
       <c r="W157" s="25"/>
-      <c r="X157" s="3"/>
+      <c r="X157" s="25"/>
       <c r="Y157" s="3"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z157" s="3"/>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
-      <c r="D158" s="22"/>
-      <c r="E158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="22"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="25"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="9"/>
       <c r="I158" s="25"/>
       <c r="J158" s="25"/>
       <c r="K158" s="25"/>
@@ -8753,18 +8944,19 @@
       <c r="U158" s="25"/>
       <c r="V158" s="25"/>
       <c r="W158" s="25"/>
-      <c r="X158" s="3"/>
+      <c r="X158" s="25"/>
       <c r="Y158" s="3"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z158" s="3"/>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="22"/>
       <c r="F159" s="8"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="25"/>
+      <c r="G159" s="8"/>
+      <c r="H159" s="9"/>
       <c r="I159" s="25"/>
       <c r="J159" s="25"/>
       <c r="K159" s="25"/>
@@ -8780,18 +8972,19 @@
       <c r="U159" s="25"/>
       <c r="V159" s="25"/>
       <c r="W159" s="25"/>
-      <c r="X159" s="3"/>
+      <c r="X159" s="25"/>
       <c r="Y159" s="3"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z159" s="3"/>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="22"/>
       <c r="F160" s="8"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="25"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="9"/>
       <c r="I160" s="25"/>
       <c r="J160" s="25"/>
       <c r="K160" s="25"/>
@@ -8807,18 +9000,19 @@
       <c r="U160" s="25"/>
       <c r="V160" s="25"/>
       <c r="W160" s="25"/>
-      <c r="X160" s="3"/>
+      <c r="X160" s="25"/>
       <c r="Y160" s="3"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z160" s="3"/>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
-      <c r="D161" s="22"/>
-      <c r="E161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="22"/>
       <c r="F161" s="8"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="25"/>
+      <c r="G161" s="8"/>
+      <c r="H161" s="9"/>
       <c r="I161" s="25"/>
       <c r="J161" s="25"/>
       <c r="K161" s="25"/>
@@ -8834,18 +9028,19 @@
       <c r="U161" s="25"/>
       <c r="V161" s="25"/>
       <c r="W161" s="25"/>
-      <c r="X161" s="3"/>
+      <c r="X161" s="25"/>
       <c r="Y161" s="3"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z161" s="3"/>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="22"/>
       <c r="F162" s="8"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="25"/>
+      <c r="G162" s="8"/>
+      <c r="H162" s="9"/>
       <c r="I162" s="25"/>
       <c r="J162" s="25"/>
       <c r="K162" s="25"/>
@@ -8861,18 +9056,19 @@
       <c r="U162" s="25"/>
       <c r="V162" s="25"/>
       <c r="W162" s="25"/>
-      <c r="X162" s="3"/>
+      <c r="X162" s="25"/>
       <c r="Y162" s="3"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z162" s="3"/>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="22"/>
       <c r="F163" s="8"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="25"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="9"/>
       <c r="I163" s="25"/>
       <c r="J163" s="25"/>
       <c r="K163" s="25"/>
@@ -8888,18 +9084,19 @@
       <c r="U163" s="25"/>
       <c r="V163" s="25"/>
       <c r="W163" s="25"/>
-      <c r="X163" s="3"/>
+      <c r="X163" s="25"/>
       <c r="Y163" s="3"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z163" s="3"/>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
-      <c r="D164" s="22"/>
-      <c r="E164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="22"/>
       <c r="F164" s="8"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="25"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="9"/>
       <c r="I164" s="25"/>
       <c r="J164" s="25"/>
       <c r="K164" s="25"/>
@@ -8915,18 +9112,19 @@
       <c r="U164" s="25"/>
       <c r="V164" s="25"/>
       <c r="W164" s="25"/>
-      <c r="X164" s="3"/>
+      <c r="X164" s="25"/>
       <c r="Y164" s="3"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z164" s="3"/>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
-      <c r="D165" s="22"/>
-      <c r="E165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="22"/>
       <c r="F165" s="8"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="25"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="9"/>
       <c r="I165" s="25"/>
       <c r="J165" s="25"/>
       <c r="K165" s="25"/>
@@ -8942,18 +9140,19 @@
       <c r="U165" s="25"/>
       <c r="V165" s="25"/>
       <c r="W165" s="25"/>
-      <c r="X165" s="3"/>
+      <c r="X165" s="25"/>
       <c r="Y165" s="3"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z165" s="3"/>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
-      <c r="D166" s="22"/>
-      <c r="E166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="22"/>
       <c r="F166" s="8"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="25"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="9"/>
       <c r="I166" s="25"/>
       <c r="J166" s="25"/>
       <c r="K166" s="25"/>
@@ -8969,18 +9168,19 @@
       <c r="U166" s="25"/>
       <c r="V166" s="25"/>
       <c r="W166" s="25"/>
-      <c r="X166" s="3"/>
+      <c r="X166" s="25"/>
       <c r="Y166" s="3"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z166" s="3"/>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
-      <c r="D167" s="22"/>
-      <c r="E167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="22"/>
       <c r="F167" s="8"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="25"/>
+      <c r="G167" s="8"/>
+      <c r="H167" s="9"/>
       <c r="I167" s="25"/>
       <c r="J167" s="25"/>
       <c r="K167" s="25"/>
@@ -8996,18 +9196,19 @@
       <c r="U167" s="25"/>
       <c r="V167" s="25"/>
       <c r="W167" s="25"/>
-      <c r="X167" s="3"/>
+      <c r="X167" s="25"/>
       <c r="Y167" s="3"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z167" s="3"/>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
-      <c r="D168" s="22"/>
-      <c r="E168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="22"/>
       <c r="F168" s="8"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="25"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="9"/>
       <c r="I168" s="25"/>
       <c r="J168" s="25"/>
       <c r="K168" s="25"/>
@@ -9023,18 +9224,19 @@
       <c r="U168" s="25"/>
       <c r="V168" s="25"/>
       <c r="W168" s="25"/>
-      <c r="X168" s="3"/>
+      <c r="X168" s="25"/>
       <c r="Y168" s="3"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z168" s="3"/>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
-      <c r="D169" s="22"/>
-      <c r="E169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="22"/>
       <c r="F169" s="8"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="25"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="9"/>
       <c r="I169" s="25"/>
       <c r="J169" s="25"/>
       <c r="K169" s="25"/>
@@ -9050,18 +9252,19 @@
       <c r="U169" s="25"/>
       <c r="V169" s="25"/>
       <c r="W169" s="25"/>
-      <c r="X169" s="3"/>
+      <c r="X169" s="25"/>
       <c r="Y169" s="3"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z169" s="3"/>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
-      <c r="D170" s="22"/>
-      <c r="E170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="22"/>
       <c r="F170" s="8"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="25"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="9"/>
       <c r="I170" s="25"/>
       <c r="J170" s="25"/>
       <c r="K170" s="25"/>
@@ -9077,18 +9280,19 @@
       <c r="U170" s="25"/>
       <c r="V170" s="25"/>
       <c r="W170" s="25"/>
-      <c r="X170" s="3"/>
+      <c r="X170" s="25"/>
       <c r="Y170" s="3"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z170" s="3"/>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
-      <c r="D171" s="22"/>
-      <c r="E171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="22"/>
       <c r="F171" s="8"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="25"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="9"/>
       <c r="I171" s="25"/>
       <c r="J171" s="25"/>
       <c r="K171" s="25"/>
@@ -9104,18 +9308,19 @@
       <c r="U171" s="25"/>
       <c r="V171" s="25"/>
       <c r="W171" s="25"/>
-      <c r="X171" s="3"/>
+      <c r="X171" s="25"/>
       <c r="Y171" s="3"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z171" s="3"/>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="22"/>
       <c r="F172" s="8"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="25"/>
+      <c r="G172" s="8"/>
+      <c r="H172" s="9"/>
       <c r="I172" s="25"/>
       <c r="J172" s="25"/>
       <c r="K172" s="25"/>
@@ -9131,18 +9336,19 @@
       <c r="U172" s="25"/>
       <c r="V172" s="25"/>
       <c r="W172" s="25"/>
-      <c r="X172" s="3"/>
+      <c r="X172" s="25"/>
       <c r="Y172" s="3"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z172" s="3"/>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="22"/>
       <c r="F173" s="8"/>
-      <c r="G173" s="9"/>
-      <c r="H173" s="25"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="9"/>
       <c r="I173" s="25"/>
       <c r="J173" s="25"/>
       <c r="K173" s="25"/>
@@ -9158,18 +9364,19 @@
       <c r="U173" s="25"/>
       <c r="V173" s="25"/>
       <c r="W173" s="25"/>
-      <c r="X173" s="3"/>
+      <c r="X173" s="25"/>
       <c r="Y173" s="3"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z173" s="3"/>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="22"/>
       <c r="F174" s="8"/>
-      <c r="G174" s="9"/>
-      <c r="H174" s="25"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="9"/>
       <c r="I174" s="25"/>
       <c r="J174" s="25"/>
       <c r="K174" s="25"/>
@@ -9185,18 +9392,19 @@
       <c r="U174" s="25"/>
       <c r="V174" s="25"/>
       <c r="W174" s="25"/>
-      <c r="X174" s="3"/>
+      <c r="X174" s="25"/>
       <c r="Y174" s="3"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z174" s="3"/>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="22"/>
       <c r="F175" s="8"/>
-      <c r="G175" s="9"/>
-      <c r="H175" s="25"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="9"/>
       <c r="I175" s="25"/>
       <c r="J175" s="25"/>
       <c r="K175" s="25"/>
@@ -9212,18 +9420,19 @@
       <c r="U175" s="25"/>
       <c r="V175" s="25"/>
       <c r="W175" s="25"/>
-      <c r="X175" s="3"/>
+      <c r="X175" s="25"/>
       <c r="Y175" s="3"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z175" s="3"/>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="22"/>
       <c r="F176" s="8"/>
-      <c r="G176" s="9"/>
-      <c r="H176" s="25"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="9"/>
       <c r="I176" s="25"/>
       <c r="J176" s="25"/>
       <c r="K176" s="25"/>
@@ -9239,18 +9448,19 @@
       <c r="U176" s="25"/>
       <c r="V176" s="25"/>
       <c r="W176" s="25"/>
-      <c r="X176" s="3"/>
+      <c r="X176" s="25"/>
       <c r="Y176" s="3"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z176" s="3"/>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="22"/>
       <c r="F177" s="8"/>
-      <c r="G177" s="9"/>
-      <c r="H177" s="25"/>
+      <c r="G177" s="8"/>
+      <c r="H177" s="9"/>
       <c r="I177" s="25"/>
       <c r="J177" s="25"/>
       <c r="K177" s="25"/>
@@ -9266,18 +9476,19 @@
       <c r="U177" s="25"/>
       <c r="V177" s="25"/>
       <c r="W177" s="25"/>
-      <c r="X177" s="3"/>
+      <c r="X177" s="25"/>
       <c r="Y177" s="3"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z177" s="3"/>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="22"/>
       <c r="F178" s="8"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="25"/>
+      <c r="G178" s="8"/>
+      <c r="H178" s="9"/>
       <c r="I178" s="25"/>
       <c r="J178" s="25"/>
       <c r="K178" s="25"/>
@@ -9293,18 +9504,19 @@
       <c r="U178" s="25"/>
       <c r="V178" s="25"/>
       <c r="W178" s="25"/>
-      <c r="X178" s="3"/>
+      <c r="X178" s="25"/>
       <c r="Y178" s="3"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z178" s="3"/>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="22"/>
       <c r="F179" s="8"/>
-      <c r="G179" s="9"/>
-      <c r="H179" s="25"/>
+      <c r="G179" s="8"/>
+      <c r="H179" s="9"/>
       <c r="I179" s="25"/>
       <c r="J179" s="25"/>
       <c r="K179" s="25"/>
@@ -9320,18 +9532,19 @@
       <c r="U179" s="25"/>
       <c r="V179" s="25"/>
       <c r="W179" s="25"/>
-      <c r="X179" s="3"/>
+      <c r="X179" s="25"/>
       <c r="Y179" s="3"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z179" s="3"/>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="22"/>
       <c r="F180" s="8"/>
-      <c r="G180" s="9"/>
-      <c r="H180" s="25"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="9"/>
       <c r="I180" s="25"/>
       <c r="J180" s="25"/>
       <c r="K180" s="25"/>
@@ -9347,18 +9560,19 @@
       <c r="U180" s="25"/>
       <c r="V180" s="25"/>
       <c r="W180" s="25"/>
-      <c r="X180" s="3"/>
+      <c r="X180" s="25"/>
       <c r="Y180" s="3"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z180" s="3"/>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="22"/>
       <c r="F181" s="8"/>
-      <c r="G181" s="9"/>
-      <c r="H181" s="25"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="9"/>
       <c r="I181" s="25"/>
       <c r="J181" s="25"/>
       <c r="K181" s="25"/>
@@ -9374,18 +9588,19 @@
       <c r="U181" s="25"/>
       <c r="V181" s="25"/>
       <c r="W181" s="25"/>
-      <c r="X181" s="3"/>
+      <c r="X181" s="25"/>
       <c r="Y181" s="3"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z181" s="3"/>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
-      <c r="D182" s="22"/>
-      <c r="E182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="22"/>
       <c r="F182" s="8"/>
-      <c r="G182" s="9"/>
-      <c r="H182" s="25"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="9"/>
       <c r="I182" s="25"/>
       <c r="J182" s="25"/>
       <c r="K182" s="25"/>
@@ -9401,18 +9616,19 @@
       <c r="U182" s="25"/>
       <c r="V182" s="25"/>
       <c r="W182" s="25"/>
-      <c r="X182" s="3"/>
+      <c r="X182" s="25"/>
       <c r="Y182" s="3"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z182" s="3"/>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="22"/>
       <c r="F183" s="8"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="25"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="9"/>
       <c r="I183" s="25"/>
       <c r="J183" s="25"/>
       <c r="K183" s="25"/>
@@ -9428,18 +9644,19 @@
       <c r="U183" s="25"/>
       <c r="V183" s="25"/>
       <c r="W183" s="25"/>
-      <c r="X183" s="3"/>
+      <c r="X183" s="25"/>
       <c r="Y183" s="3"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z183" s="3"/>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="22"/>
       <c r="F184" s="8"/>
-      <c r="G184" s="9"/>
-      <c r="H184" s="25"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="9"/>
       <c r="I184" s="25"/>
       <c r="J184" s="25"/>
       <c r="K184" s="25"/>
@@ -9455,18 +9672,19 @@
       <c r="U184" s="25"/>
       <c r="V184" s="25"/>
       <c r="W184" s="25"/>
-      <c r="X184" s="3"/>
+      <c r="X184" s="25"/>
       <c r="Y184" s="3"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z184" s="3"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="22"/>
       <c r="F185" s="8"/>
-      <c r="G185" s="9"/>
-      <c r="H185" s="25"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="9"/>
       <c r="I185" s="25"/>
       <c r="J185" s="25"/>
       <c r="K185" s="25"/>
@@ -9482,18 +9700,19 @@
       <c r="U185" s="25"/>
       <c r="V185" s="25"/>
       <c r="W185" s="25"/>
-      <c r="X185" s="3"/>
+      <c r="X185" s="25"/>
       <c r="Y185" s="3"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z185" s="3"/>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="22"/>
       <c r="F186" s="8"/>
-      <c r="G186" s="9"/>
-      <c r="H186" s="25"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="9"/>
       <c r="I186" s="25"/>
       <c r="J186" s="25"/>
       <c r="K186" s="25"/>
@@ -9509,18 +9728,19 @@
       <c r="U186" s="25"/>
       <c r="V186" s="25"/>
       <c r="W186" s="25"/>
-      <c r="X186" s="3"/>
+      <c r="X186" s="25"/>
       <c r="Y186" s="3"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z186" s="3"/>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="22"/>
       <c r="F187" s="8"/>
-      <c r="G187" s="9"/>
-      <c r="H187" s="25"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="9"/>
       <c r="I187" s="25"/>
       <c r="J187" s="25"/>
       <c r="K187" s="25"/>
@@ -9536,18 +9756,19 @@
       <c r="U187" s="25"/>
       <c r="V187" s="25"/>
       <c r="W187" s="25"/>
-      <c r="X187" s="3"/>
+      <c r="X187" s="25"/>
       <c r="Y187" s="3"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z187" s="3"/>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="22"/>
       <c r="F188" s="8"/>
-      <c r="G188" s="9"/>
-      <c r="H188" s="25"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="9"/>
       <c r="I188" s="25"/>
       <c r="J188" s="25"/>
       <c r="K188" s="25"/>
@@ -9563,18 +9784,19 @@
       <c r="U188" s="25"/>
       <c r="V188" s="25"/>
       <c r="W188" s="25"/>
-      <c r="X188" s="3"/>
+      <c r="X188" s="25"/>
       <c r="Y188" s="3"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z188" s="3"/>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="22"/>
       <c r="F189" s="8"/>
-      <c r="G189" s="9"/>
-      <c r="H189" s="25"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="9"/>
       <c r="I189" s="25"/>
       <c r="J189" s="25"/>
       <c r="K189" s="25"/>
@@ -9590,18 +9812,19 @@
       <c r="U189" s="25"/>
       <c r="V189" s="25"/>
       <c r="W189" s="25"/>
-      <c r="X189" s="3"/>
+      <c r="X189" s="25"/>
       <c r="Y189" s="3"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z189" s="3"/>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="22"/>
       <c r="F190" s="8"/>
-      <c r="G190" s="9"/>
-      <c r="H190" s="25"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="9"/>
       <c r="I190" s="25"/>
       <c r="J190" s="25"/>
       <c r="K190" s="25"/>
@@ -9617,18 +9840,19 @@
       <c r="U190" s="25"/>
       <c r="V190" s="25"/>
       <c r="W190" s="25"/>
-      <c r="X190" s="3"/>
+      <c r="X190" s="25"/>
       <c r="Y190" s="3"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z190" s="3"/>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
-      <c r="D191" s="22"/>
-      <c r="E191" s="8"/>
+      <c r="D191" s="8"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="8"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="25"/>
+      <c r="G191" s="8"/>
+      <c r="H191" s="9"/>
       <c r="I191" s="25"/>
       <c r="J191" s="25"/>
       <c r="K191" s="25"/>
@@ -9644,18 +9868,19 @@
       <c r="U191" s="25"/>
       <c r="V191" s="25"/>
       <c r="W191" s="25"/>
-      <c r="X191" s="3"/>
+      <c r="X191" s="25"/>
       <c r="Y191" s="3"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z191" s="3"/>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
-      <c r="D192" s="22"/>
-      <c r="E192" s="8"/>
+      <c r="D192" s="8"/>
+      <c r="E192" s="22"/>
       <c r="F192" s="8"/>
-      <c r="G192" s="9"/>
-      <c r="H192" s="25"/>
+      <c r="G192" s="8"/>
+      <c r="H192" s="9"/>
       <c r="I192" s="25"/>
       <c r="J192" s="25"/>
       <c r="K192" s="25"/>
@@ -9671,18 +9896,19 @@
       <c r="U192" s="25"/>
       <c r="V192" s="25"/>
       <c r="W192" s="25"/>
-      <c r="X192" s="3"/>
+      <c r="X192" s="25"/>
       <c r="Y192" s="3"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z192" s="3"/>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
-      <c r="D193" s="22"/>
-      <c r="E193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="22"/>
       <c r="F193" s="8"/>
-      <c r="G193" s="9"/>
-      <c r="H193" s="25"/>
+      <c r="G193" s="8"/>
+      <c r="H193" s="9"/>
       <c r="I193" s="25"/>
       <c r="J193" s="25"/>
       <c r="K193" s="25"/>
@@ -9698,18 +9924,19 @@
       <c r="U193" s="25"/>
       <c r="V193" s="25"/>
       <c r="W193" s="25"/>
-      <c r="X193" s="3"/>
+      <c r="X193" s="25"/>
       <c r="Y193" s="3"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z193" s="3"/>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
-      <c r="D194" s="22"/>
-      <c r="E194" s="8"/>
+      <c r="D194" s="8"/>
+      <c r="E194" s="22"/>
       <c r="F194" s="8"/>
-      <c r="G194" s="9"/>
-      <c r="H194" s="25"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="9"/>
       <c r="I194" s="25"/>
       <c r="J194" s="25"/>
       <c r="K194" s="25"/>
@@ -9725,18 +9952,19 @@
       <c r="U194" s="25"/>
       <c r="V194" s="25"/>
       <c r="W194" s="25"/>
-      <c r="X194" s="3"/>
+      <c r="X194" s="25"/>
       <c r="Y194" s="3"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z194" s="3"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
-      <c r="D195" s="22"/>
-      <c r="E195" s="8"/>
+      <c r="D195" s="8"/>
+      <c r="E195" s="22"/>
       <c r="F195" s="8"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="25"/>
+      <c r="G195" s="8"/>
+      <c r="H195" s="9"/>
       <c r="I195" s="25"/>
       <c r="J195" s="25"/>
       <c r="K195" s="25"/>
@@ -9752,18 +9980,19 @@
       <c r="U195" s="25"/>
       <c r="V195" s="25"/>
       <c r="W195" s="25"/>
-      <c r="X195" s="3"/>
+      <c r="X195" s="25"/>
       <c r="Y195" s="3"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z195" s="3"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="22"/>
       <c r="F196" s="8"/>
-      <c r="G196" s="9"/>
-      <c r="H196" s="25"/>
+      <c r="G196" s="8"/>
+      <c r="H196" s="9"/>
       <c r="I196" s="25"/>
       <c r="J196" s="25"/>
       <c r="K196" s="25"/>
@@ -9779,18 +10008,19 @@
       <c r="U196" s="25"/>
       <c r="V196" s="25"/>
       <c r="W196" s="25"/>
-      <c r="X196" s="3"/>
+      <c r="X196" s="25"/>
       <c r="Y196" s="3"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z196" s="3"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="22"/>
       <c r="F197" s="8"/>
-      <c r="G197" s="9"/>
-      <c r="H197" s="25"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="9"/>
       <c r="I197" s="25"/>
       <c r="J197" s="25"/>
       <c r="K197" s="25"/>
@@ -9806,18 +10036,19 @@
       <c r="U197" s="25"/>
       <c r="V197" s="25"/>
       <c r="W197" s="25"/>
-      <c r="X197" s="3"/>
+      <c r="X197" s="25"/>
       <c r="Y197" s="3"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z197" s="3"/>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="22"/>
       <c r="F198" s="8"/>
-      <c r="G198" s="9"/>
-      <c r="H198" s="25"/>
+      <c r="G198" s="8"/>
+      <c r="H198" s="9"/>
       <c r="I198" s="25"/>
       <c r="J198" s="25"/>
       <c r="K198" s="25"/>
@@ -9833,18 +10064,19 @@
       <c r="U198" s="25"/>
       <c r="V198" s="25"/>
       <c r="W198" s="25"/>
-      <c r="X198" s="3"/>
+      <c r="X198" s="25"/>
       <c r="Y198" s="3"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z198" s="3"/>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="8"/>
+      <c r="D199" s="8"/>
+      <c r="E199" s="22"/>
       <c r="F199" s="8"/>
-      <c r="G199" s="9"/>
-      <c r="H199" s="25"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="9"/>
       <c r="I199" s="25"/>
       <c r="J199" s="25"/>
       <c r="K199" s="25"/>
@@ -9860,18 +10092,19 @@
       <c r="U199" s="25"/>
       <c r="V199" s="25"/>
       <c r="W199" s="25"/>
-      <c r="X199" s="3"/>
+      <c r="X199" s="25"/>
       <c r="Y199" s="3"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z199" s="3"/>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="8"/>
+      <c r="D200" s="8"/>
+      <c r="E200" s="22"/>
       <c r="F200" s="8"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="25"/>
+      <c r="G200" s="8"/>
+      <c r="H200" s="9"/>
       <c r="I200" s="25"/>
       <c r="J200" s="25"/>
       <c r="K200" s="25"/>
@@ -9887,18 +10120,19 @@
       <c r="U200" s="25"/>
       <c r="V200" s="25"/>
       <c r="W200" s="25"/>
-      <c r="X200" s="3"/>
+      <c r="X200" s="25"/>
       <c r="Y200" s="3"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z200" s="3"/>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="8"/>
+      <c r="D201" s="8"/>
+      <c r="E201" s="22"/>
       <c r="F201" s="8"/>
-      <c r="G201" s="9"/>
-      <c r="H201" s="25"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="9"/>
       <c r="I201" s="25"/>
       <c r="J201" s="25"/>
       <c r="K201" s="25"/>
@@ -9914,25 +10148,26 @@
       <c r="U201" s="25"/>
       <c r="V201" s="25"/>
       <c r="W201" s="25"/>
-      <c r="X201" s="3"/>
+      <c r="X201" s="25"/>
       <c r="Y201" s="3"/>
+      <c r="Z201" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="X2:X1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="Y2:Y1048576" xr:uid="{EF111386-0BAE-4DDF-A24D-79B0B7D4CC7E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576" xr:uid="{6F7C7187-3764-415A-BC5A-14E3BBE20675}">
       <formula1>"NonProduction, Attended, Unattended, Studio, Development, StudioX, Headless, StudioPro, TestAutomation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576 L2:L1048576 V2:W2 V2:W1048576 O2:O1048576 O2 O3:O1048576 Q3:R1048576 Q2:R1048576 Q2:R2 V3:W1048576 H2:H1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576 M2:M1048576 W2:X2 W2:X1048576 P2:P1048576 P2 P3:P1048576 R3:S1048576 R2:S1048576 R2:S2 W3:X1048576 I2:I1048576" xr:uid="{B4730FF1-EE13-4FD9-927F-DE1C7444137B}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{2380D758-D9E5-4B34-8FB6-E35BEFBAAAAF}">
       <formula1>"Verbose, Trace, Information, Warning, Error, Critical, Off"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:U1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V1048576" xr:uid="{42A5B7D1-A07F-4DE2-9D78-9FFB6342D7C5}">
       <formula1>0</formula1>
       <formula2>32767</formula2>
     </dataValidation>
@@ -9965,7 +10200,7 @@
     <col min="24" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>

--- a/Workbooks/EN/Users.xlsx
+++ b/Workbooks/EN/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/andra_dregan_uipath_com/Documents/Desktop/sr/OrchestratorManager/Workbooks/EN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{39CE29E8-9929-4399-B0DF-4C9452E76FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C576C6EA-868C-4F10-8442-A4CE74AE1AB0}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{39CE29E8-9929-4399-B0DF-4C9452E76FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0221917-7441-4D2F-ACDF-57355531DFD2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3732" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
@@ -2315,8 +2315,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -4762,16 +4762,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid ID" error="ID must be an integer greater than 0." sqref="B2:B1048576" xr:uid="{6B97F103-F7C0-4A54-9BE8-32EE16382F65}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Status" error="Please select a supported Status." sqref="J2:J1048576" xr:uid="{867C6DD1-DC7F-4176-B15E-9EEA2E0AB547}">
       <formula1>"Active,Inactive"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{A81A4870-FE34-43F1-A71F-1819E350F8B4}">
-      <formula1>"User,DirectoryUser,DirectoryGroup"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A2:A1048576" xr:uid="{7627FDD0-471F-4813-9C07-6572CC0628DB}">
+      <formula1>"User,DirectoryUser,DirectoryGroup,DirectoryRobot"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Type" error="Please select a supported Type." sqref="A1" xr:uid="{2744D9C8-CF17-4AD6-A4D3-BA73FC6F4635}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4786,9 +4787,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AD201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
@@ -4804,7 +4803,7 @@
     <col min="32" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="43.2">
+    <row r="1" spans="1:30" ht="28.8">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -7731,7 +7730,7 @@
   <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -7828,6 +7827,9 @@
       <c r="D2" s="8"/>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="1:25">
